--- a/catalogsList/05072021/forestry.xlsx
+++ b/catalogsList/05072021/forestry.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="177">
   <si>
     <t>id</t>
   </si>
@@ -235,6 +235,318 @@
   </si>
   <si>
     <t>Шебалинское</t>
+  </si>
+  <si>
+    <t>landTypeId</t>
+  </si>
+  <si>
+    <t>G_00706</t>
+  </si>
+  <si>
+    <t>Ангоянское</t>
+  </si>
+  <si>
+    <t>G_00708</t>
+  </si>
+  <si>
+    <t>Бабушкинское</t>
+  </si>
+  <si>
+    <t>P_129</t>
+  </si>
+  <si>
+    <t>Байкальский заповедник</t>
+  </si>
+  <si>
+    <t>G_00707</t>
+  </si>
+  <si>
+    <t>Байкальское</t>
+  </si>
+  <si>
+    <t>P_210</t>
+  </si>
+  <si>
+    <t>Байкальское МАУ</t>
+  </si>
+  <si>
+    <t>P_112</t>
+  </si>
+  <si>
+    <t>Баргузинский государственный природный биосферный заповедник</t>
+  </si>
+  <si>
+    <t>G_00709</t>
+  </si>
+  <si>
+    <t>Баргузинское</t>
+  </si>
+  <si>
+    <t>G_00710</t>
+  </si>
+  <si>
+    <t>Бичурское</t>
+  </si>
+  <si>
+    <t>G_00711</t>
+  </si>
+  <si>
+    <t>Буйское</t>
+  </si>
+  <si>
+    <t>G_00712</t>
+  </si>
+  <si>
+    <t>Верхне-Баргузинское</t>
+  </si>
+  <si>
+    <t>G_00714</t>
+  </si>
+  <si>
+    <t>Верхне-Талецкое</t>
+  </si>
+  <si>
+    <t>G_00713</t>
+  </si>
+  <si>
+    <t>Витимское</t>
+  </si>
+  <si>
+    <t>G_00715</t>
+  </si>
+  <si>
+    <t>Гусиноозёрское</t>
+  </si>
+  <si>
+    <t>G_00716</t>
+  </si>
+  <si>
+    <t>Джидинское</t>
+  </si>
+  <si>
+    <t>G_00717</t>
+  </si>
+  <si>
+    <t>Еравнинское</t>
+  </si>
+  <si>
+    <t>P_111</t>
+  </si>
+  <si>
+    <t>Забайкальский национальный парк</t>
+  </si>
+  <si>
+    <t>G_00718</t>
+  </si>
+  <si>
+    <t>Заиграевское</t>
+  </si>
+  <si>
+    <t>G_00719</t>
+  </si>
+  <si>
+    <t>Закаменское</t>
+  </si>
+  <si>
+    <t>P_130</t>
+  </si>
+  <si>
+    <t>заповедник "Джергинский"</t>
+  </si>
+  <si>
+    <t>G_00721</t>
+  </si>
+  <si>
+    <t>Заудинское</t>
+  </si>
+  <si>
+    <t>G_00722</t>
+  </si>
+  <si>
+    <t>Иволгинское</t>
+  </si>
+  <si>
+    <t>G_00723</t>
+  </si>
+  <si>
+    <t>Кабанское</t>
+  </si>
+  <si>
+    <t>G_00724</t>
+  </si>
+  <si>
+    <t>Кижингинское</t>
+  </si>
+  <si>
+    <t>G_00725</t>
+  </si>
+  <si>
+    <t>Кикинское</t>
+  </si>
+  <si>
+    <t>G_00726</t>
+  </si>
+  <si>
+    <t>Кондинское</t>
+  </si>
+  <si>
+    <t>G_00727</t>
+  </si>
+  <si>
+    <t>Кудунское</t>
+  </si>
+  <si>
+    <t>G_00728</t>
+  </si>
+  <si>
+    <t>Куйтунское</t>
+  </si>
+  <si>
+    <t>G_00729</t>
+  </si>
+  <si>
+    <t>Курбинское</t>
+  </si>
+  <si>
+    <t>G_00730</t>
+  </si>
+  <si>
+    <t>Курумканское</t>
+  </si>
+  <si>
+    <t>G_00731</t>
+  </si>
+  <si>
+    <t>Кяхтинское</t>
+  </si>
+  <si>
+    <t>P_226</t>
+  </si>
+  <si>
+    <t>МБУ " Городское лесничество"</t>
+  </si>
+  <si>
+    <t>G_00732</t>
+  </si>
+  <si>
+    <t>Муйское</t>
+  </si>
+  <si>
+    <t>G_00733</t>
+  </si>
+  <si>
+    <t>Мухоршибирское</t>
+  </si>
+  <si>
+    <t>P_113</t>
+  </si>
+  <si>
+    <t>Национальный парк "Тункинский"</t>
+  </si>
+  <si>
+    <t>G_00734</t>
+  </si>
+  <si>
+    <t>Окинское</t>
+  </si>
+  <si>
+    <t>G_00735</t>
+  </si>
+  <si>
+    <t>Прибайкальское</t>
+  </si>
+  <si>
+    <t>G_00736</t>
+  </si>
+  <si>
+    <t>Романовское</t>
+  </si>
+  <si>
+    <t>G_00737</t>
+  </si>
+  <si>
+    <t>Северо-Байкальское</t>
+  </si>
+  <si>
+    <t>G_00738</t>
+  </si>
+  <si>
+    <t>Селенгинское</t>
+  </si>
+  <si>
+    <t>P_31</t>
+  </si>
+  <si>
+    <t>Улан-Удэнское</t>
+  </si>
+  <si>
+    <t>G_00739</t>
+  </si>
+  <si>
+    <t>G_00741</t>
+  </si>
+  <si>
+    <t>Уоянское</t>
+  </si>
+  <si>
+    <t>G_00742</t>
+  </si>
+  <si>
+    <t>Усть-Баргузинское</t>
+  </si>
+  <si>
+    <t>G_00743</t>
+  </si>
+  <si>
+    <t>Хандагатайское</t>
+  </si>
+  <si>
+    <t>G_00744</t>
+  </si>
+  <si>
+    <t>Хоринское</t>
+  </si>
+  <si>
+    <t>P_101</t>
+  </si>
+  <si>
+    <t>Городские леса г. Миасс</t>
+  </si>
+  <si>
+    <t>P_170</t>
+  </si>
+  <si>
+    <t>Национальный парк "Зораткуль"</t>
+  </si>
+  <si>
+    <t>P_171</t>
+  </si>
+  <si>
+    <t>Национальный парк "Таганай</t>
+  </si>
+  <si>
+    <t>P_211</t>
+  </si>
+  <si>
+    <t>Озерское МКУ</t>
+  </si>
+  <si>
+    <t>P_216</t>
+  </si>
+  <si>
+    <t>Снежинское</t>
+  </si>
+  <si>
+    <t>P_8</t>
+  </si>
+  <si>
+    <t>Трехгорное</t>
+  </si>
+  <si>
+    <t>P_43</t>
+  </si>
+  <si>
+    <t>Челябинское</t>
   </si>
 </sst>
 </file>
@@ -594,20 +906,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:D88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" customWidth="1"/>
+    <col min="4" max="4" width="62" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -615,370 +928,1228 @@
         <v>48</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>74</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="B3">
-        <v>74</v>
-      </c>
-      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>88</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>92</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>94</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>96</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>98</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>100</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>102</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>104</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>106</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>108</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>110</v>
+      </c>
+      <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>112</v>
+      </c>
+      <c r="B33">
+        <v>3</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>114</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>116</v>
+      </c>
+      <c r="B35">
+        <v>3</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>118</v>
+      </c>
+      <c r="B36">
+        <v>3</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>120</v>
+      </c>
+      <c r="B37">
+        <v>3</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>122</v>
+      </c>
+      <c r="B38">
+        <v>3</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>124</v>
+      </c>
+      <c r="B39">
+        <v>3</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>126</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>128</v>
+      </c>
+      <c r="B41">
+        <v>3</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>130</v>
+      </c>
+      <c r="B42">
+        <v>3</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>132</v>
+      </c>
+      <c r="B43">
+        <v>3</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>134</v>
+      </c>
+      <c r="B44">
+        <v>3</v>
+      </c>
+      <c r="C44">
+        <v>4</v>
+      </c>
+      <c r="D44" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>136</v>
+      </c>
+      <c r="B45">
+        <v>3</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>138</v>
+      </c>
+      <c r="B46">
+        <v>3</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>140</v>
+      </c>
+      <c r="B47">
+        <v>3</v>
+      </c>
+      <c r="C47">
+        <v>2</v>
+      </c>
+      <c r="D47" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>142</v>
+      </c>
+      <c r="B48">
+        <v>3</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>144</v>
+      </c>
+      <c r="B49">
+        <v>3</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>146</v>
+      </c>
+      <c r="B50">
+        <v>3</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>148</v>
+      </c>
+      <c r="B51">
+        <v>3</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>150</v>
+      </c>
+      <c r="B52">
+        <v>3</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>152</v>
+      </c>
+      <c r="B53">
+        <v>3</v>
+      </c>
+      <c r="C53">
+        <v>3</v>
+      </c>
+      <c r="D53" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>154</v>
+      </c>
+      <c r="B54">
+        <v>3</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>155</v>
+      </c>
+      <c r="B55">
+        <v>3</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>157</v>
+      </c>
+      <c r="B56">
+        <v>3</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>159</v>
+      </c>
+      <c r="B57">
+        <v>3</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>161</v>
+      </c>
+      <c r="B58">
+        <v>3</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>2</v>
+      </c>
+      <c r="B59">
+        <v>74</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>4</v>
+      </c>
+      <c r="B60">
+        <v>74</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
-        <v>74</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B61">
+        <v>74</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
         <v>8</v>
       </c>
-      <c r="B5">
-        <v>74</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B62">
+        <v>74</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>163</v>
+      </c>
+      <c r="B63">
+        <v>74</v>
+      </c>
+      <c r="C63">
+        <v>4</v>
+      </c>
+      <c r="D63" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
         <v>10</v>
       </c>
-      <c r="B6">
-        <v>74</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B64">
+        <v>74</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
         <v>12</v>
       </c>
-      <c r="B7">
-        <v>74</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B65">
+        <v>74</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
         <v>14</v>
       </c>
-      <c r="B8">
-        <v>74</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B66">
+        <v>74</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
         <v>16</v>
       </c>
-      <c r="B9">
-        <v>74</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B67">
+        <v>74</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
         <v>18</v>
       </c>
-      <c r="B10">
-        <v>74</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B68">
+        <v>74</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
         <v>20</v>
       </c>
-      <c r="B11">
-        <v>74</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B69">
+        <v>74</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
         <v>22</v>
       </c>
-      <c r="B12">
-        <v>74</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B70">
+        <v>74</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
         <v>24</v>
       </c>
-      <c r="B13">
-        <v>74</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="B71">
+        <v>74</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
         <v>26</v>
       </c>
-      <c r="B14">
-        <v>74</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="B72">
+        <v>74</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>165</v>
+      </c>
+      <c r="B73">
+        <v>74</v>
+      </c>
+      <c r="C73">
+        <v>2</v>
+      </c>
+      <c r="D73" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>167</v>
+      </c>
+      <c r="B74">
+        <v>74</v>
+      </c>
+      <c r="C74">
+        <v>2</v>
+      </c>
+      <c r="D74" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
         <v>28</v>
       </c>
-      <c r="B15">
-        <v>74</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="B75">
+        <v>74</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>169</v>
+      </c>
+      <c r="B76">
+        <v>74</v>
+      </c>
+      <c r="C76">
+        <v>4</v>
+      </c>
+      <c r="D76" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
         <v>30</v>
       </c>
-      <c r="B16">
-        <v>74</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="B77">
+        <v>74</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="D77" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
         <v>32</v>
       </c>
-      <c r="B17">
-        <v>74</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="B78">
+        <v>74</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
         <v>34</v>
       </c>
-      <c r="B18">
-        <v>74</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="B79">
+        <v>74</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>171</v>
+      </c>
+      <c r="B80">
+        <v>74</v>
+      </c>
+      <c r="C80">
+        <v>4</v>
+      </c>
+      <c r="D80" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>173</v>
+      </c>
+      <c r="B81">
+        <v>74</v>
+      </c>
+      <c r="C81">
+        <v>4</v>
+      </c>
+      <c r="D81" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
         <v>36</v>
       </c>
-      <c r="B19">
-        <v>74</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="B82">
+        <v>74</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="D82" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
         <v>38</v>
       </c>
-      <c r="B20">
-        <v>74</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="B83">
+        <v>74</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
         <v>40</v>
       </c>
-      <c r="B21">
-        <v>74</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="B84">
+        <v>74</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+      <c r="D84" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
         <v>42</v>
       </c>
-      <c r="B22">
-        <v>74</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="B85">
+        <v>74</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="D85" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
         <v>44</v>
       </c>
-      <c r="B23">
-        <v>74</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="B86">
+        <v>74</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+      <c r="D86" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>175</v>
+      </c>
+      <c r="B87">
+        <v>74</v>
+      </c>
+      <c r="C87">
+        <v>3</v>
+      </c>
+      <c r="D87" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
         <v>46</v>
       </c>
-      <c r="B24">
-        <v>74</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="B88">
+        <v>74</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>53</v>
-      </c>
-      <c r="B25">
-        <v>4</v>
-      </c>
-      <c r="C25" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>55</v>
-      </c>
-      <c r="B26">
-        <v>4</v>
-      </c>
-      <c r="C26" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27">
-        <v>4</v>
-      </c>
-      <c r="C27" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>59</v>
-      </c>
-      <c r="B28">
-        <v>4</v>
-      </c>
-      <c r="C28" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>61</v>
-      </c>
-      <c r="B29">
-        <v>4</v>
-      </c>
-      <c r="C29" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>63</v>
-      </c>
-      <c r="B30">
-        <v>4</v>
-      </c>
-      <c r="C30" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>65</v>
-      </c>
-      <c r="B31">
-        <v>4</v>
-      </c>
-      <c r="C31" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>67</v>
-      </c>
-      <c r="B32">
-        <v>4</v>
-      </c>
-      <c r="C32" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>69</v>
-      </c>
-      <c r="B33">
-        <v>4</v>
-      </c>
-      <c r="C33" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>71</v>
-      </c>
-      <c r="B34">
-        <v>4</v>
-      </c>
-      <c r="C34" t="s">
-        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/catalogsList/05072021/forestry.xlsx
+++ b/catalogsList/05072021/forestry.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="978">
   <si>
     <t>id</t>
   </si>
@@ -547,6 +547,2409 @@
   </si>
   <si>
     <t>Челябинское</t>
+  </si>
+  <si>
+    <t>G_00229</t>
+  </si>
+  <si>
+    <t>Абзелиловское</t>
+  </si>
+  <si>
+    <t>G_00230</t>
+  </si>
+  <si>
+    <t>Авзянское</t>
+  </si>
+  <si>
+    <t>G_00231</t>
+  </si>
+  <si>
+    <t>Альшеевское</t>
+  </si>
+  <si>
+    <t>G_00232</t>
+  </si>
+  <si>
+    <t>Архангельское</t>
+  </si>
+  <si>
+    <t>G_00233</t>
+  </si>
+  <si>
+    <t>Аскинское</t>
+  </si>
+  <si>
+    <t>G_00234</t>
+  </si>
+  <si>
+    <t>Баймакское</t>
+  </si>
+  <si>
+    <t>P_159</t>
+  </si>
+  <si>
+    <t>Башкирский заповедник</t>
+  </si>
+  <si>
+    <t>P_38</t>
+  </si>
+  <si>
+    <t>Башкирское</t>
+  </si>
+  <si>
+    <t>G_00253</t>
+  </si>
+  <si>
+    <t>Белебеевское</t>
+  </si>
+  <si>
+    <t>G_00236</t>
+  </si>
+  <si>
+    <t>Белокатайское</t>
+  </si>
+  <si>
+    <t>G_00237</t>
+  </si>
+  <si>
+    <t>Белорецкое</t>
+  </si>
+  <si>
+    <t>G_00238</t>
+  </si>
+  <si>
+    <t>Бирское</t>
+  </si>
+  <si>
+    <t>G_00241</t>
+  </si>
+  <si>
+    <t>Бурзянское</t>
+  </si>
+  <si>
+    <t>G_00242</t>
+  </si>
+  <si>
+    <t>Гафурийское</t>
+  </si>
+  <si>
+    <t>G_00243</t>
+  </si>
+  <si>
+    <t>Дуванское</t>
+  </si>
+  <si>
+    <t>G_00248</t>
+  </si>
+  <si>
+    <t>Дюртюлинское</t>
+  </si>
+  <si>
+    <t>P_160</t>
+  </si>
+  <si>
+    <t>Заповедник "Шульган-Таш"</t>
+  </si>
+  <si>
+    <t>G_00244</t>
+  </si>
+  <si>
+    <t>Зианчуринское</t>
+  </si>
+  <si>
+    <t>G_00245</t>
+  </si>
+  <si>
+    <t>Зилаирское</t>
+  </si>
+  <si>
+    <t>G_00246</t>
+  </si>
+  <si>
+    <t>Иглинское</t>
+  </si>
+  <si>
+    <t>G_00247</t>
+  </si>
+  <si>
+    <t>Инзерское</t>
+  </si>
+  <si>
+    <t>G_00249</t>
+  </si>
+  <si>
+    <t>Кананикольское</t>
+  </si>
+  <si>
+    <t>G_00250</t>
+  </si>
+  <si>
+    <t>Караидельское</t>
+  </si>
+  <si>
+    <t>G_00251</t>
+  </si>
+  <si>
+    <t>Кугарчинское</t>
+  </si>
+  <si>
+    <t>G_00252</t>
+  </si>
+  <si>
+    <t>Макаровское</t>
+  </si>
+  <si>
+    <t>P_194</t>
+  </si>
+  <si>
+    <t>МБУ «Благоустройство» городского округа город Октябрьский</t>
+  </si>
+  <si>
+    <t>P_166</t>
+  </si>
+  <si>
+    <t>Национальный парк "Башкирия"</t>
+  </si>
+  <si>
+    <t>G_00254</t>
+  </si>
+  <si>
+    <t>Нуримановское</t>
+  </si>
+  <si>
+    <t>G_00255</t>
+  </si>
+  <si>
+    <t>Салаватское</t>
+  </si>
+  <si>
+    <t>G_00256</t>
+  </si>
+  <si>
+    <t>Стерлитамакское</t>
+  </si>
+  <si>
+    <t>G_00257</t>
+  </si>
+  <si>
+    <t>Тирлянское</t>
+  </si>
+  <si>
+    <t>G_00258</t>
+  </si>
+  <si>
+    <t>Туймазинское</t>
+  </si>
+  <si>
+    <t>G_00239</t>
+  </si>
+  <si>
+    <t>Уфимское</t>
+  </si>
+  <si>
+    <t>G_00259</t>
+  </si>
+  <si>
+    <t>Учалинское</t>
+  </si>
+  <si>
+    <t>G_00235</t>
+  </si>
+  <si>
+    <t>Хайбуллинское</t>
+  </si>
+  <si>
+    <t>P_108</t>
+  </si>
+  <si>
+    <t>Южно-Уральский государственный природный заповедник</t>
+  </si>
+  <si>
+    <t>G_00261</t>
+  </si>
+  <si>
+    <t>Янаульское</t>
+  </si>
+  <si>
+    <t>G_00983</t>
+  </si>
+  <si>
+    <t>Бабаевское</t>
+  </si>
+  <si>
+    <t>G_00984</t>
+  </si>
+  <si>
+    <t>G_00985</t>
+  </si>
+  <si>
+    <t>Белозерское</t>
+  </si>
+  <si>
+    <t>G_00986</t>
+  </si>
+  <si>
+    <t>Вашкинское</t>
+  </si>
+  <si>
+    <t>G_00990</t>
+  </si>
+  <si>
+    <t>Великоустюгское</t>
+  </si>
+  <si>
+    <t>G_00987</t>
+  </si>
+  <si>
+    <t>Верховажское</t>
+  </si>
+  <si>
+    <t>G_00988</t>
+  </si>
+  <si>
+    <t>Вожегодское</t>
+  </si>
+  <si>
+    <t>G_00989</t>
+  </si>
+  <si>
+    <t>Вологодское</t>
+  </si>
+  <si>
+    <t>G_00991</t>
+  </si>
+  <si>
+    <t>Вытегорское</t>
+  </si>
+  <si>
+    <t>G_00992</t>
+  </si>
+  <si>
+    <t>Грязовецкое</t>
+  </si>
+  <si>
+    <t>P_173</t>
+  </si>
+  <si>
+    <t>Дарвинский государственный природный заповедник</t>
+  </si>
+  <si>
+    <t>G_00994</t>
+  </si>
+  <si>
+    <t>Кадуйское</t>
+  </si>
+  <si>
+    <t>G_00995</t>
+  </si>
+  <si>
+    <t>Кирилловское</t>
+  </si>
+  <si>
+    <t>G_00996</t>
+  </si>
+  <si>
+    <t>Кичменгско-Городецкое</t>
+  </si>
+  <si>
+    <t>G_00997</t>
+  </si>
+  <si>
+    <t>Междуреченское</t>
+  </si>
+  <si>
+    <t>P_183</t>
+  </si>
+  <si>
+    <t>Национальный парк "Русский Север"</t>
+  </si>
+  <si>
+    <t>G_00998</t>
+  </si>
+  <si>
+    <t>Никольское</t>
+  </si>
+  <si>
+    <t>G_00999</t>
+  </si>
+  <si>
+    <t>Нюксенское</t>
+  </si>
+  <si>
+    <t>G_00993</t>
+  </si>
+  <si>
+    <t>Сокольское</t>
+  </si>
+  <si>
+    <t>G_01001</t>
+  </si>
+  <si>
+    <t>Сямженское</t>
+  </si>
+  <si>
+    <t>G_01002</t>
+  </si>
+  <si>
+    <t>Тарногское</t>
+  </si>
+  <si>
+    <t>G_01003</t>
+  </si>
+  <si>
+    <t>Тотемское</t>
+  </si>
+  <si>
+    <t>G_01004</t>
+  </si>
+  <si>
+    <t>Усть-Кубинское</t>
+  </si>
+  <si>
+    <t>G_01005</t>
+  </si>
+  <si>
+    <t>Устюженское</t>
+  </si>
+  <si>
+    <t>G_01006</t>
+  </si>
+  <si>
+    <t>Харовское</t>
+  </si>
+  <si>
+    <t>P_198</t>
+  </si>
+  <si>
+    <t>Хвойное</t>
+  </si>
+  <si>
+    <t>G_01008</t>
+  </si>
+  <si>
+    <t>Чагодощенское</t>
+  </si>
+  <si>
+    <t>G_01009</t>
+  </si>
+  <si>
+    <t>Череповецкое</t>
+  </si>
+  <si>
+    <t>G_01007</t>
+  </si>
+  <si>
+    <t>Шекснинское</t>
+  </si>
+  <si>
+    <t>G_00496</t>
+  </si>
+  <si>
+    <t>Агинское</t>
+  </si>
+  <si>
+    <t>G_00408</t>
+  </si>
+  <si>
+    <t>Акшинское</t>
+  </si>
+  <si>
+    <t>G_00409</t>
+  </si>
+  <si>
+    <t>Александровско-Заводское</t>
+  </si>
+  <si>
+    <t>G_00410</t>
+  </si>
+  <si>
+    <t>Аргунское</t>
+  </si>
+  <si>
+    <t>G_00430</t>
+  </si>
+  <si>
+    <t>Бадинское</t>
+  </si>
+  <si>
+    <t>G_00412</t>
+  </si>
+  <si>
+    <t>Балейское</t>
+  </si>
+  <si>
+    <t>G_00413</t>
+  </si>
+  <si>
+    <t>Беклемишевское</t>
+  </si>
+  <si>
+    <t>G_00414</t>
+  </si>
+  <si>
+    <t>Верхне-Читинское</t>
+  </si>
+  <si>
+    <t>G_00411</t>
+  </si>
+  <si>
+    <t>Газимуро-Заводское</t>
+  </si>
+  <si>
+    <t>G_00497</t>
+  </si>
+  <si>
+    <t>Дульдургинское</t>
+  </si>
+  <si>
+    <t>G_00416</t>
+  </si>
+  <si>
+    <t>Ингодинское</t>
+  </si>
+  <si>
+    <t>P_19</t>
+  </si>
+  <si>
+    <t>Ингодинское  мин. обороны</t>
+  </si>
+  <si>
+    <t>G_00417</t>
+  </si>
+  <si>
+    <t>Карымское</t>
+  </si>
+  <si>
+    <t>G_00418</t>
+  </si>
+  <si>
+    <t>Красночикойское</t>
+  </si>
+  <si>
+    <t>G_00419</t>
+  </si>
+  <si>
+    <t>Кыринское</t>
+  </si>
+  <si>
+    <t>G_00421</t>
+  </si>
+  <si>
+    <t>Могочинское</t>
+  </si>
+  <si>
+    <t>P_196</t>
+  </si>
+  <si>
+    <t>Национальный парк "Алханай"</t>
+  </si>
+  <si>
+    <t>G_00422</t>
+  </si>
+  <si>
+    <t>Нерчинское</t>
+  </si>
+  <si>
+    <t>G_00423</t>
+  </si>
+  <si>
+    <t>Оленгуйское</t>
+  </si>
+  <si>
+    <t>G_00424</t>
+  </si>
+  <si>
+    <t>Ононское</t>
+  </si>
+  <si>
+    <t>G_00425</t>
+  </si>
+  <si>
+    <t>Петровск-Забайкальское</t>
+  </si>
+  <si>
+    <t>P_96</t>
+  </si>
+  <si>
+    <t>Сохондинский государственный  природный биосферный заповедник</t>
+  </si>
+  <si>
+    <t>G_00426</t>
+  </si>
+  <si>
+    <t>Сретенское</t>
+  </si>
+  <si>
+    <t>G_00427</t>
+  </si>
+  <si>
+    <t>Тунгокоченское</t>
+  </si>
+  <si>
+    <t>G_00429</t>
+  </si>
+  <si>
+    <t>Хилокское</t>
+  </si>
+  <si>
+    <t>G_00432</t>
+  </si>
+  <si>
+    <t>Чарское</t>
+  </si>
+  <si>
+    <t>G_00431</t>
+  </si>
+  <si>
+    <t>Чернышевское</t>
+  </si>
+  <si>
+    <t>G_00415</t>
+  </si>
+  <si>
+    <t>Читинское</t>
+  </si>
+  <si>
+    <t>P_34</t>
+  </si>
+  <si>
+    <t>G_00428</t>
+  </si>
+  <si>
+    <t>Шилкинское</t>
+  </si>
+  <si>
+    <t>G_00601</t>
+  </si>
+  <si>
+    <t>Аларское</t>
+  </si>
+  <si>
+    <t>G_00072</t>
+  </si>
+  <si>
+    <t>Ангарское</t>
+  </si>
+  <si>
+    <t>P_98</t>
+  </si>
+  <si>
+    <t>Байкало-Ленский заповедникк</t>
+  </si>
+  <si>
+    <t>G_00073</t>
+  </si>
+  <si>
+    <t>Балаганское</t>
+  </si>
+  <si>
+    <t>G_00602</t>
+  </si>
+  <si>
+    <t>Баяндаевское</t>
+  </si>
+  <si>
+    <t>G_00074</t>
+  </si>
+  <si>
+    <t>Бирюсинское</t>
+  </si>
+  <si>
+    <t>G_00075</t>
+  </si>
+  <si>
+    <t>Бодайбинское</t>
+  </si>
+  <si>
+    <t>G_00076</t>
+  </si>
+  <si>
+    <t>Братское</t>
+  </si>
+  <si>
+    <t>G_00077</t>
+  </si>
+  <si>
+    <t>Голоустненское</t>
+  </si>
+  <si>
+    <t>P_217</t>
+  </si>
+  <si>
+    <t>Городское</t>
+  </si>
+  <si>
+    <t>P_99</t>
+  </si>
+  <si>
+    <t>Государственный  природный заповедник "Витимcкий"</t>
+  </si>
+  <si>
+    <t>G_00078</t>
+  </si>
+  <si>
+    <t>Жигаловское</t>
+  </si>
+  <si>
+    <t>G_00079</t>
+  </si>
+  <si>
+    <t>Заларинское</t>
+  </si>
+  <si>
+    <t>P_97</t>
+  </si>
+  <si>
+    <t>Заповедное Прибайкалье</t>
+  </si>
+  <si>
+    <t>G_00081</t>
+  </si>
+  <si>
+    <t>Зиминское</t>
+  </si>
+  <si>
+    <t>G_00082</t>
+  </si>
+  <si>
+    <t>Илимское</t>
+  </si>
+  <si>
+    <t>G_00083</t>
+  </si>
+  <si>
+    <t>Иркутское</t>
+  </si>
+  <si>
+    <t>G_00084</t>
+  </si>
+  <si>
+    <t>Казачинско-Ленское</t>
+  </si>
+  <si>
+    <t>G_00085</t>
+  </si>
+  <si>
+    <t>Катангское</t>
+  </si>
+  <si>
+    <t>G_00086</t>
+  </si>
+  <si>
+    <t>Качугское</t>
+  </si>
+  <si>
+    <t>G_00087</t>
+  </si>
+  <si>
+    <t>Киренское</t>
+  </si>
+  <si>
+    <t>G_00603</t>
+  </si>
+  <si>
+    <t>Кировское</t>
+  </si>
+  <si>
+    <t>G_00088</t>
+  </si>
+  <si>
+    <t>P_201</t>
+  </si>
+  <si>
+    <t>Леса шаманского муниципального образования</t>
+  </si>
+  <si>
+    <t>G_00089</t>
+  </si>
+  <si>
+    <t>Мамское</t>
+  </si>
+  <si>
+    <t>G_00090</t>
+  </si>
+  <si>
+    <t>Нижнеилимское</t>
+  </si>
+  <si>
+    <t>P_25</t>
+  </si>
+  <si>
+    <t>Нижнеудинское</t>
+  </si>
+  <si>
+    <t>G_00091</t>
+  </si>
+  <si>
+    <t>G_00604</t>
+  </si>
+  <si>
+    <t>Нукутское</t>
+  </si>
+  <si>
+    <t>G_00092</t>
+  </si>
+  <si>
+    <t>Ольхонское</t>
+  </si>
+  <si>
+    <t>G_00605</t>
+  </si>
+  <si>
+    <t>Осинское</t>
+  </si>
+  <si>
+    <t>G_00093</t>
+  </si>
+  <si>
+    <t>Падунское</t>
+  </si>
+  <si>
+    <t>G_00094</t>
+  </si>
+  <si>
+    <t>Северное</t>
+  </si>
+  <si>
+    <t>G_00095</t>
+  </si>
+  <si>
+    <t>Слюдянское</t>
+  </si>
+  <si>
+    <t>G_00096</t>
+  </si>
+  <si>
+    <t>Тайшетское</t>
+  </si>
+  <si>
+    <t>G_00097</t>
+  </si>
+  <si>
+    <t>Тулунское</t>
+  </si>
+  <si>
+    <t>G_00098</t>
+  </si>
+  <si>
+    <t>Усольское</t>
+  </si>
+  <si>
+    <t>P_68</t>
+  </si>
+  <si>
+    <t>Усть-Илимское городское</t>
+  </si>
+  <si>
+    <t>G_00099</t>
+  </si>
+  <si>
+    <t>Усть-Кутское</t>
+  </si>
+  <si>
+    <t>G_00606</t>
+  </si>
+  <si>
+    <t>Усть-Ордынское</t>
+  </si>
+  <si>
+    <t>G_00101</t>
+  </si>
+  <si>
+    <t>Усть-Удинское</t>
+  </si>
+  <si>
+    <t>G_00102</t>
+  </si>
+  <si>
+    <t>Черемховское</t>
+  </si>
+  <si>
+    <t>G_00103</t>
+  </si>
+  <si>
+    <t>Чунское</t>
+  </si>
+  <si>
+    <t>G_00104</t>
+  </si>
+  <si>
+    <t>Шелеховское</t>
+  </si>
+  <si>
+    <t>P_37</t>
+  </si>
+  <si>
+    <t>G_00505</t>
+  </si>
+  <si>
+    <t>Атласовское</t>
+  </si>
+  <si>
+    <t>G_00506</t>
+  </si>
+  <si>
+    <t>Быстринское</t>
+  </si>
+  <si>
+    <t>G_00507</t>
+  </si>
+  <si>
+    <t>Елизовское</t>
+  </si>
+  <si>
+    <t>P_35</t>
+  </si>
+  <si>
+    <t>Камчатское</t>
+  </si>
+  <si>
+    <t>G_00508</t>
+  </si>
+  <si>
+    <t>Ключевское</t>
+  </si>
+  <si>
+    <t>G_00509</t>
+  </si>
+  <si>
+    <t>Корякское</t>
+  </si>
+  <si>
+    <t>P_76</t>
+  </si>
+  <si>
+    <t>Кроноцкий государственный природный биосферный заповедник</t>
+  </si>
+  <si>
+    <t>G_00510</t>
+  </si>
+  <si>
+    <t>Мильковское</t>
+  </si>
+  <si>
+    <t>G_00511</t>
+  </si>
+  <si>
+    <t>Усть-Большерецкое</t>
+  </si>
+  <si>
+    <t>G_00105</t>
+  </si>
+  <si>
+    <t>Беловское</t>
+  </si>
+  <si>
+    <t>P_219</t>
+  </si>
+  <si>
+    <t>Городские леса Тайгинского городского округа</t>
+  </si>
+  <si>
+    <t>P_100</t>
+  </si>
+  <si>
+    <t>Государственный заповедник "Кузнецкий Алатау"</t>
+  </si>
+  <si>
+    <t>G_00106</t>
+  </si>
+  <si>
+    <t>Гурьевское</t>
+  </si>
+  <si>
+    <t>G_00107</t>
+  </si>
+  <si>
+    <t>Ижморское</t>
+  </si>
+  <si>
+    <t>G_00108</t>
+  </si>
+  <si>
+    <t>Кемеровское</t>
+  </si>
+  <si>
+    <t>G_00109</t>
+  </si>
+  <si>
+    <t>Крапивинское</t>
+  </si>
+  <si>
+    <t>G_00124</t>
+  </si>
+  <si>
+    <t>Кузедеевское</t>
+  </si>
+  <si>
+    <t>G_00111</t>
+  </si>
+  <si>
+    <t>Мариинское</t>
+  </si>
+  <si>
+    <t>G_00113</t>
+  </si>
+  <si>
+    <t>G_00112</t>
+  </si>
+  <si>
+    <t>Мысковское</t>
+  </si>
+  <si>
+    <t>G_00114</t>
+  </si>
+  <si>
+    <t>Новокузнецкое</t>
+  </si>
+  <si>
+    <t>P_258</t>
+  </si>
+  <si>
+    <t>Новосибирское (Кемеровская область)</t>
+  </si>
+  <si>
+    <t>G_00115</t>
+  </si>
+  <si>
+    <t>Прокопьевское</t>
+  </si>
+  <si>
+    <t>G_00110</t>
+  </si>
+  <si>
+    <t>Промышленновское</t>
+  </si>
+  <si>
+    <t>G_00116</t>
+  </si>
+  <si>
+    <t>Таштагольское</t>
+  </si>
+  <si>
+    <t>G_00117</t>
+  </si>
+  <si>
+    <t>Тисульское</t>
+  </si>
+  <si>
+    <t>G_00118</t>
+  </si>
+  <si>
+    <t>Тяжинское</t>
+  </si>
+  <si>
+    <t>G_00119</t>
+  </si>
+  <si>
+    <t>Чебулинское</t>
+  </si>
+  <si>
+    <t>P_115</t>
+  </si>
+  <si>
+    <t>ШОРСКИЙ НАЦИОНАЛЬНЫЙ ПАРК</t>
+  </si>
+  <si>
+    <t>G_00121</t>
+  </si>
+  <si>
+    <t>Юргинское</t>
+  </si>
+  <si>
+    <t>G_00122</t>
+  </si>
+  <si>
+    <t>Яйское</t>
+  </si>
+  <si>
+    <t>G_00123</t>
+  </si>
+  <si>
+    <t>Яшкинское</t>
+  </si>
+  <si>
+    <t>G_01242</t>
+  </si>
+  <si>
+    <t>Абанское</t>
+  </si>
+  <si>
+    <t>G_01243</t>
+  </si>
+  <si>
+    <t>Ачинское</t>
+  </si>
+  <si>
+    <t>G_01244</t>
+  </si>
+  <si>
+    <t>Байкитское</t>
+  </si>
+  <si>
+    <t>G_01245</t>
+  </si>
+  <si>
+    <t>Балахтинское</t>
+  </si>
+  <si>
+    <t>G_01246</t>
+  </si>
+  <si>
+    <t>Боготольское</t>
+  </si>
+  <si>
+    <t>G_01247</t>
+  </si>
+  <si>
+    <t>Богучанское</t>
+  </si>
+  <si>
+    <t>G_01248</t>
+  </si>
+  <si>
+    <t>Большемуртинское</t>
+  </si>
+  <si>
+    <t>G_01249</t>
+  </si>
+  <si>
+    <t>Большеулуйское</t>
+  </si>
+  <si>
+    <t>G_01250</t>
+  </si>
+  <si>
+    <t>Борское</t>
+  </si>
+  <si>
+    <t>G_01251</t>
+  </si>
+  <si>
+    <t>Верхнеманское</t>
+  </si>
+  <si>
+    <t>G_01252</t>
+  </si>
+  <si>
+    <t>Гремучинское</t>
+  </si>
+  <si>
+    <t>G_01253</t>
+  </si>
+  <si>
+    <t>Даурское</t>
+  </si>
+  <si>
+    <t>G_01254</t>
+  </si>
+  <si>
+    <t>Дзержинское</t>
+  </si>
+  <si>
+    <t>G_01255</t>
+  </si>
+  <si>
+    <t>Долгомостовское</t>
+  </si>
+  <si>
+    <t>G_01256</t>
+  </si>
+  <si>
+    <t>Емельяновское</t>
+  </si>
+  <si>
+    <t>G_01257</t>
+  </si>
+  <si>
+    <t>Енисейское</t>
+  </si>
+  <si>
+    <t>G_01258</t>
+  </si>
+  <si>
+    <t>Ермаковское</t>
+  </si>
+  <si>
+    <t>P_116</t>
+  </si>
+  <si>
+    <t>Заповедники Таймыра</t>
+  </si>
+  <si>
+    <t>P_126</t>
+  </si>
+  <si>
+    <t>Заповедник "Саяно-Шушенский"</t>
+  </si>
+  <si>
+    <t>P_125</t>
+  </si>
+  <si>
+    <t>заповедник "Столбы"</t>
+  </si>
+  <si>
+    <t>P_124</t>
+  </si>
+  <si>
+    <t>Заповедник "Тунгусский"</t>
+  </si>
+  <si>
+    <t>P_117</t>
+  </si>
+  <si>
+    <t>заповедник "Центральносибирский"</t>
+  </si>
+  <si>
+    <t>G_01259</t>
+  </si>
+  <si>
+    <t>Идринское</t>
+  </si>
+  <si>
+    <t>G_01261</t>
+  </si>
+  <si>
+    <t>Иланское</t>
+  </si>
+  <si>
+    <t>G_01262</t>
+  </si>
+  <si>
+    <t>Ирбейское</t>
+  </si>
+  <si>
+    <t>G_01263</t>
+  </si>
+  <si>
+    <t>Казачинское</t>
+  </si>
+  <si>
+    <t>G_01264</t>
+  </si>
+  <si>
+    <t>Канское</t>
+  </si>
+  <si>
+    <t>G_01265</t>
+  </si>
+  <si>
+    <t>Каратузское</t>
+  </si>
+  <si>
+    <t>G_01266</t>
+  </si>
+  <si>
+    <t>Кизирское</t>
+  </si>
+  <si>
+    <t>G_01267</t>
+  </si>
+  <si>
+    <t>Кодинское</t>
+  </si>
+  <si>
+    <t>G_01269</t>
+  </si>
+  <si>
+    <t>Козульское</t>
+  </si>
+  <si>
+    <t>G_01268</t>
+  </si>
+  <si>
+    <t>Краснотуранское</t>
+  </si>
+  <si>
+    <t>G_01270</t>
+  </si>
+  <si>
+    <t>Красноярское</t>
+  </si>
+  <si>
+    <t>P_22</t>
+  </si>
+  <si>
+    <t>G_01271</t>
+  </si>
+  <si>
+    <t>Курагинское</t>
+  </si>
+  <si>
+    <t>P_107</t>
+  </si>
+  <si>
+    <t>Леса, расположенные на территории ЗАТО Железногорск</t>
+  </si>
+  <si>
+    <t>G_01272</t>
+  </si>
+  <si>
+    <t>Маганское</t>
+  </si>
+  <si>
+    <t>G_01273</t>
+  </si>
+  <si>
+    <t>Манзенское</t>
+  </si>
+  <si>
+    <t>G_01274</t>
+  </si>
+  <si>
+    <t>Манское</t>
+  </si>
+  <si>
+    <t>G_01275</t>
+  </si>
+  <si>
+    <t>Мининское</t>
+  </si>
+  <si>
+    <t>G_01276</t>
+  </si>
+  <si>
+    <t>Минусинское</t>
+  </si>
+  <si>
+    <t>G_01277</t>
+  </si>
+  <si>
+    <t>Мотыгинское</t>
+  </si>
+  <si>
+    <t>G_01278</t>
+  </si>
+  <si>
+    <t>Назаровское</t>
+  </si>
+  <si>
+    <t>P_134</t>
+  </si>
+  <si>
+    <t>Национальный парк "Шушенский бор"</t>
+  </si>
+  <si>
+    <t>G_01279</t>
+  </si>
+  <si>
+    <t>Невонское</t>
+  </si>
+  <si>
+    <t>G_01281</t>
+  </si>
+  <si>
+    <t>Нижне-Енисейское</t>
+  </si>
+  <si>
+    <t>G_01282</t>
+  </si>
+  <si>
+    <t>Новоселовское</t>
+  </si>
+  <si>
+    <t>G_01283</t>
+  </si>
+  <si>
+    <t>Пировское</t>
+  </si>
+  <si>
+    <t>G_01284</t>
+  </si>
+  <si>
+    <t>Пойменское</t>
+  </si>
+  <si>
+    <t>G_01285</t>
+  </si>
+  <si>
+    <t>Рыбинское</t>
+  </si>
+  <si>
+    <t>G_01286</t>
+  </si>
+  <si>
+    <t>Саяно-Шушенское</t>
+  </si>
+  <si>
+    <t>G_01287</t>
+  </si>
+  <si>
+    <t>Саянское</t>
+  </si>
+  <si>
+    <t>G_01288</t>
+  </si>
+  <si>
+    <t>Северо-Енисейское</t>
+  </si>
+  <si>
+    <t>G_01289</t>
+  </si>
+  <si>
+    <t>Сухобузимское</t>
+  </si>
+  <si>
+    <t>G_01291</t>
+  </si>
+  <si>
+    <t>Таежинское</t>
+  </si>
+  <si>
+    <t>G_01290</t>
+  </si>
+  <si>
+    <t>Таймырское</t>
+  </si>
+  <si>
+    <t>G_01292</t>
+  </si>
+  <si>
+    <t>Терянское</t>
+  </si>
+  <si>
+    <t>G_01293</t>
+  </si>
+  <si>
+    <t>Тинское</t>
+  </si>
+  <si>
+    <t>G_01294</t>
+  </si>
+  <si>
+    <t>Тунгусско-Чунское</t>
+  </si>
+  <si>
+    <t>G_01295</t>
+  </si>
+  <si>
+    <t>Туруханское</t>
+  </si>
+  <si>
+    <t>G_01296</t>
+  </si>
+  <si>
+    <t>Тюхтетское</t>
+  </si>
+  <si>
+    <t>G_01297</t>
+  </si>
+  <si>
+    <t>Ужурское</t>
+  </si>
+  <si>
+    <t>G_01298</t>
+  </si>
+  <si>
+    <t>Усинское</t>
+  </si>
+  <si>
+    <t>G_01299</t>
+  </si>
+  <si>
+    <t>G_01301</t>
+  </si>
+  <si>
+    <t>Уярское</t>
+  </si>
+  <si>
+    <t>G_01302</t>
+  </si>
+  <si>
+    <t>Хребтовское</t>
+  </si>
+  <si>
+    <t>G_01304</t>
+  </si>
+  <si>
+    <t>G_01303</t>
+  </si>
+  <si>
+    <t>Шарыповское</t>
+  </si>
+  <si>
+    <t>G_01305</t>
+  </si>
+  <si>
+    <t>Эвенкийское</t>
+  </si>
+  <si>
+    <t>G_01528</t>
+  </si>
+  <si>
+    <t>Бородинское</t>
+  </si>
+  <si>
+    <t>G_01529</t>
+  </si>
+  <si>
+    <t>Виноградовское</t>
+  </si>
+  <si>
+    <t>P_232</t>
+  </si>
+  <si>
+    <t>Войсковая часть 28178</t>
+  </si>
+  <si>
+    <t>G_01530</t>
+  </si>
+  <si>
+    <t>Волоколамское</t>
+  </si>
+  <si>
+    <t>G_01531</t>
+  </si>
+  <si>
+    <t>Дмитровское</t>
+  </si>
+  <si>
+    <t>G_01532</t>
+  </si>
+  <si>
+    <t>Егорьевское</t>
+  </si>
+  <si>
+    <t>G_01533</t>
+  </si>
+  <si>
+    <t>Звенигородское</t>
+  </si>
+  <si>
+    <t>G_01534</t>
+  </si>
+  <si>
+    <t>Истринское</t>
+  </si>
+  <si>
+    <t>G_01535</t>
+  </si>
+  <si>
+    <t>Клинское</t>
+  </si>
+  <si>
+    <t>P_250</t>
+  </si>
+  <si>
+    <t>Костеровское (Московская область)</t>
+  </si>
+  <si>
+    <t>G_01562</t>
+  </si>
+  <si>
+    <t>Луховицкое</t>
+  </si>
+  <si>
+    <t>P_14</t>
+  </si>
+  <si>
+    <t>Московское (Московская область)</t>
+  </si>
+  <si>
+    <t>G_01586</t>
+  </si>
+  <si>
+    <t>Московское учебно-опытное</t>
+  </si>
+  <si>
+    <t>G_01563</t>
+  </si>
+  <si>
+    <t>Наро-Фоминское</t>
+  </si>
+  <si>
+    <t>G_01564</t>
+  </si>
+  <si>
+    <t>Ногинское</t>
+  </si>
+  <si>
+    <t>G_01565</t>
+  </si>
+  <si>
+    <t>Орехово-Зуевское</t>
+  </si>
+  <si>
+    <t>G_01566</t>
+  </si>
+  <si>
+    <t>Подольское</t>
+  </si>
+  <si>
+    <t>P_143</t>
+  </si>
+  <si>
+    <t>Приокско-террасный заповедник</t>
+  </si>
+  <si>
+    <t>G_01585</t>
+  </si>
+  <si>
+    <t>"Русский лес"</t>
+  </si>
+  <si>
+    <t>G_01567</t>
+  </si>
+  <si>
+    <t>Сергиево-Посадское</t>
+  </si>
+  <si>
+    <t>G_01568</t>
+  </si>
+  <si>
+    <t>Ступинское</t>
+  </si>
+  <si>
+    <t>G_01569</t>
+  </si>
+  <si>
+    <t>Талдомское</t>
+  </si>
+  <si>
+    <t>G_01570</t>
+  </si>
+  <si>
+    <t>Шатурское</t>
+  </si>
+  <si>
+    <t>P_114</t>
+  </si>
+  <si>
+    <t>Березниковкое</t>
+  </si>
+  <si>
+    <t>G_00194</t>
+  </si>
+  <si>
+    <t>Березниковское</t>
+  </si>
+  <si>
+    <t>G_00190</t>
+  </si>
+  <si>
+    <t>Вайское</t>
+  </si>
+  <si>
+    <t>G_00182</t>
+  </si>
+  <si>
+    <t>Веслянское</t>
+  </si>
+  <si>
+    <t>G_00183</t>
+  </si>
+  <si>
+    <t>Гайнское</t>
+  </si>
+  <si>
+    <t>G_00202</t>
+  </si>
+  <si>
+    <t>Горнозаводское</t>
+  </si>
+  <si>
+    <t>P_110</t>
+  </si>
+  <si>
+    <t>Городские леса города Березники</t>
+  </si>
+  <si>
+    <t>P_222</t>
+  </si>
+  <si>
+    <t>Городские леса города Соликамска</t>
+  </si>
+  <si>
+    <t>G_00198</t>
+  </si>
+  <si>
+    <t>Добрянское</t>
+  </si>
+  <si>
+    <t>G_00204</t>
+  </si>
+  <si>
+    <t>Закамское</t>
+  </si>
+  <si>
+    <t>P_157</t>
+  </si>
+  <si>
+    <t>Заповедник "Басеги"</t>
+  </si>
+  <si>
+    <t>P_158</t>
+  </si>
+  <si>
+    <t>Заповедник "Вишерский"</t>
+  </si>
+  <si>
+    <t>G_00199</t>
+  </si>
+  <si>
+    <t>Кизеловское</t>
+  </si>
+  <si>
+    <t>G_00211</t>
+  </si>
+  <si>
+    <t>Кишертское</t>
+  </si>
+  <si>
+    <t>G_00185</t>
+  </si>
+  <si>
+    <t>Колвинское</t>
+  </si>
+  <si>
+    <t>G_00187</t>
+  </si>
+  <si>
+    <t>Косинское</t>
+  </si>
+  <si>
+    <t>G_00186</t>
+  </si>
+  <si>
+    <t>Кочевское</t>
+  </si>
+  <si>
+    <t>G_00189</t>
+  </si>
+  <si>
+    <t>Красновишерское</t>
+  </si>
+  <si>
+    <t>G_00192</t>
+  </si>
+  <si>
+    <t>Кудымкарское</t>
+  </si>
+  <si>
+    <t>G_00213</t>
+  </si>
+  <si>
+    <t>Куединское</t>
+  </si>
+  <si>
+    <t>G_00210</t>
+  </si>
+  <si>
+    <t>Кунгурское</t>
+  </si>
+  <si>
+    <t>G_00207</t>
+  </si>
+  <si>
+    <t>Лысьвенское</t>
+  </si>
+  <si>
+    <t>G_00215</t>
+  </si>
+  <si>
+    <t>G_00209</t>
+  </si>
+  <si>
+    <t>G_00203</t>
+  </si>
+  <si>
+    <t>Очерское</t>
+  </si>
+  <si>
+    <t>G_00205</t>
+  </si>
+  <si>
+    <t>Пермское</t>
+  </si>
+  <si>
+    <t>P_234</t>
+  </si>
+  <si>
+    <t>Пермское городское лесничество</t>
+  </si>
+  <si>
+    <t>P_195</t>
+  </si>
+  <si>
+    <t>Пермское (Пермский край)</t>
+  </si>
+  <si>
+    <t>G_00196</t>
+  </si>
+  <si>
+    <t>Сивинское</t>
+  </si>
+  <si>
+    <t>G_00188</t>
+  </si>
+  <si>
+    <t>Соликамское</t>
+  </si>
+  <si>
+    <t>P_225</t>
+  </si>
+  <si>
+    <t>Талицкое</t>
+  </si>
+  <si>
+    <t>G_00212</t>
+  </si>
+  <si>
+    <t>Чайковское</t>
+  </si>
+  <si>
+    <t>G_00184</t>
+  </si>
+  <si>
+    <t>Чердынское</t>
+  </si>
+  <si>
+    <t>G_00201</t>
+  </si>
+  <si>
+    <t>Чусовское</t>
+  </si>
+  <si>
+    <t>G_00191</t>
+  </si>
+  <si>
+    <t>Юрлинское</t>
+  </si>
+  <si>
+    <t>G_00193</t>
+  </si>
+  <si>
+    <t>Юсьвинское</t>
+  </si>
+  <si>
+    <t>G_00216</t>
+  </si>
+  <si>
+    <t>Арсеньевское</t>
+  </si>
+  <si>
+    <t>G_00218</t>
+  </si>
+  <si>
+    <t>Верхне-Перевальнинское</t>
+  </si>
+  <si>
+    <t>G_00219</t>
+  </si>
+  <si>
+    <t>Владивостокское</t>
+  </si>
+  <si>
+    <t>P_32</t>
+  </si>
+  <si>
+    <t>P_83</t>
+  </si>
+  <si>
+    <t>ГОСУДАРСТВЕННЫЙ ЗАПОВЕДНИК "ХАНКАЙСКИЙ"</t>
+  </si>
+  <si>
+    <t>G_00221</t>
+  </si>
+  <si>
+    <t>Дальнереченское</t>
+  </si>
+  <si>
+    <t>P_78</t>
+  </si>
+  <si>
+    <t>Земля леорарда</t>
+  </si>
+  <si>
+    <t>G_00222</t>
+  </si>
+  <si>
+    <t>Кавалеровское</t>
+  </si>
+  <si>
+    <t>P_80</t>
+  </si>
+  <si>
+    <t>Лазовский заповедник</t>
+  </si>
+  <si>
+    <t>P_79</t>
+  </si>
+  <si>
+    <t>Национальный парк "Зов тигра"</t>
+  </si>
+  <si>
+    <t>P_20</t>
+  </si>
+  <si>
+    <t>Партизанское</t>
+  </si>
+  <si>
+    <t>G_00223</t>
+  </si>
+  <si>
+    <t>Рощинское</t>
+  </si>
+  <si>
+    <t>G_00224</t>
+  </si>
+  <si>
+    <t>Сергеевское</t>
+  </si>
+  <si>
+    <t>P_82</t>
+  </si>
+  <si>
+    <t>Сихотэ-Алинский государственный заповедник</t>
+  </si>
+  <si>
+    <t>P_81</t>
+  </si>
+  <si>
+    <t>G_00225</t>
+  </si>
+  <si>
+    <t>Спасское</t>
+  </si>
+  <si>
+    <t>G_00226</t>
+  </si>
+  <si>
+    <t>Тернейское</t>
+  </si>
+  <si>
+    <t>G_00227</t>
+  </si>
+  <si>
+    <t>Уссурийское</t>
+  </si>
+  <si>
+    <t>P_26</t>
+  </si>
+  <si>
+    <t>G_00228</t>
+  </si>
+  <si>
+    <t>Чугуевское</t>
+  </si>
+  <si>
+    <t>G_00892</t>
+  </si>
+  <si>
+    <t>Бельковское</t>
+  </si>
+  <si>
+    <t>G_00893</t>
+  </si>
+  <si>
+    <t>Ерахтурское</t>
+  </si>
+  <si>
+    <t>G_00894</t>
+  </si>
+  <si>
+    <t>Ермишинское</t>
+  </si>
+  <si>
+    <t>G_00895</t>
+  </si>
+  <si>
+    <t>Касимовское</t>
+  </si>
+  <si>
+    <t>G_00910</t>
+  </si>
+  <si>
+    <t>Клепиковское</t>
+  </si>
+  <si>
+    <t>G_00896</t>
+  </si>
+  <si>
+    <t>Кораблинское</t>
+  </si>
+  <si>
+    <t>G_00897</t>
+  </si>
+  <si>
+    <t>Криушинское</t>
+  </si>
+  <si>
+    <t>G_00898</t>
+  </si>
+  <si>
+    <t>Можарское</t>
+  </si>
+  <si>
+    <t>P_256</t>
+  </si>
+  <si>
+    <t>Московское (Рязанская область)</t>
+  </si>
+  <si>
+    <t>P_151</t>
+  </si>
+  <si>
+    <t>Национальный парк "Мещерский"</t>
+  </si>
+  <si>
+    <t>G_00909</t>
+  </si>
+  <si>
+    <t>Нижне-Окское</t>
+  </si>
+  <si>
+    <t>P_144</t>
+  </si>
+  <si>
+    <t>Окский заповедник</t>
+  </si>
+  <si>
+    <t>G_00899</t>
+  </si>
+  <si>
+    <t>Первомайское</t>
+  </si>
+  <si>
+    <t>G_00901</t>
+  </si>
+  <si>
+    <t>Ряжское</t>
+  </si>
+  <si>
+    <t>G_00902</t>
+  </si>
+  <si>
+    <t>Рязанское</t>
+  </si>
+  <si>
+    <t>G_00903</t>
+  </si>
+  <si>
+    <t>Сасовское</t>
+  </si>
+  <si>
+    <t>G_00904</t>
+  </si>
+  <si>
+    <t>Солотчинское</t>
+  </si>
+  <si>
+    <t>G_00905</t>
+  </si>
+  <si>
+    <t>G_00906</t>
+  </si>
+  <si>
+    <t>Тумское</t>
+  </si>
+  <si>
+    <t>G_00907</t>
+  </si>
+  <si>
+    <t>Шацкое</t>
+  </si>
+  <si>
+    <t>G_00908</t>
+  </si>
+  <si>
+    <t>Шелуховское</t>
+  </si>
+  <si>
+    <t>G_00911</t>
+  </si>
+  <si>
+    <t>Шиловское</t>
+  </si>
+  <si>
+    <t>G_01464</t>
+  </si>
+  <si>
+    <t>Безенчукское</t>
+  </si>
+  <si>
+    <t>G_01465</t>
+  </si>
+  <si>
+    <t>Большеглушицкое</t>
+  </si>
+  <si>
+    <t>P_58</t>
+  </si>
+  <si>
+    <t>Бузулукский бор</t>
+  </si>
+  <si>
+    <t>G_01479</t>
+  </si>
+  <si>
+    <t>Волжское</t>
+  </si>
+  <si>
+    <t>P_164</t>
+  </si>
+  <si>
+    <t>Жигулевский заповедник</t>
+  </si>
+  <si>
+    <t>G_01474</t>
+  </si>
+  <si>
+    <t>Кинельское</t>
+  </si>
+  <si>
+    <t>G_01470</t>
+  </si>
+  <si>
+    <t>Кинель-Черкасское</t>
+  </si>
+  <si>
+    <t>G_01476</t>
+  </si>
+  <si>
+    <t>Клявлинское</t>
+  </si>
+  <si>
+    <t>G_01467</t>
+  </si>
+  <si>
+    <t>Кошкинское</t>
+  </si>
+  <si>
+    <t>G_01477</t>
+  </si>
+  <si>
+    <t>P_109</t>
+  </si>
+  <si>
+    <t>Национальный парк " Самарская Лука"</t>
+  </si>
+  <si>
+    <t>G_01466</t>
+  </si>
+  <si>
+    <t>Нефтегорское</t>
+  </si>
+  <si>
+    <t>G_01468</t>
+  </si>
+  <si>
+    <t>Ново-Буянское</t>
+  </si>
+  <si>
+    <t>G_01471</t>
+  </si>
+  <si>
+    <t>Похвистневское</t>
+  </si>
+  <si>
+    <t>G_01472</t>
+  </si>
+  <si>
+    <t>Рачейское</t>
+  </si>
+  <si>
+    <t>G_01482</t>
+  </si>
+  <si>
+    <t>Самарское</t>
+  </si>
+  <si>
+    <t>G_01475</t>
+  </si>
+  <si>
+    <t>Сергиевское</t>
+  </si>
+  <si>
+    <t>G_01469</t>
+  </si>
+  <si>
+    <t>Ставропольское</t>
+  </si>
+  <si>
+    <t>G_01481</t>
+  </si>
+  <si>
+    <t>Тольяттинское</t>
+  </si>
+  <si>
+    <t>G_01478</t>
+  </si>
+  <si>
+    <t>Шенталинское</t>
+  </si>
+  <si>
+    <t>G_01473</t>
+  </si>
+  <si>
+    <t>Шигонское</t>
+  </si>
+  <si>
+    <t>G_01078</t>
+  </si>
+  <si>
+    <t>Алапаевское</t>
+  </si>
+  <si>
+    <t>G_01079</t>
+  </si>
+  <si>
+    <t>Байкаловское</t>
+  </si>
+  <si>
+    <t>G_01081</t>
+  </si>
+  <si>
+    <t>Березовское</t>
+  </si>
+  <si>
+    <t>G_01082</t>
+  </si>
+  <si>
+    <t>Билимбаевское</t>
+  </si>
+  <si>
+    <t>G_01083</t>
+  </si>
+  <si>
+    <t>Верх-Исетское</t>
+  </si>
+  <si>
+    <t>P_228</t>
+  </si>
+  <si>
+    <t>Верхнесалдинское лесопарковое лесничество</t>
+  </si>
+  <si>
+    <t>G_01084</t>
+  </si>
+  <si>
+    <t>Верхотурское</t>
+  </si>
+  <si>
+    <t>G_01085</t>
+  </si>
+  <si>
+    <t>Гаринское</t>
+  </si>
+  <si>
+    <t>P_88</t>
+  </si>
+  <si>
+    <t>Городские леса муниципального образования г. Каменск-Уральский</t>
+  </si>
+  <si>
+    <t>P_231</t>
+  </si>
+  <si>
+    <t>Егоршинское</t>
+  </si>
+  <si>
+    <t>G_01086</t>
+  </si>
+  <si>
+    <t>P_169</t>
+  </si>
+  <si>
+    <t>Заповедник "Денежкин камень"</t>
+  </si>
+  <si>
+    <t>G_01087</t>
+  </si>
+  <si>
+    <t>Ивдельское</t>
+  </si>
+  <si>
+    <t>G_01088</t>
+  </si>
+  <si>
+    <t>Ирбитское</t>
+  </si>
+  <si>
+    <t>P_45</t>
+  </si>
+  <si>
+    <t>Камышловское</t>
+  </si>
+  <si>
+    <t>G_01089</t>
+  </si>
+  <si>
+    <t>P_221</t>
+  </si>
+  <si>
+    <t>Камышловское городское</t>
+  </si>
+  <si>
+    <t>P_48</t>
+  </si>
+  <si>
+    <t>Карелинское</t>
+  </si>
+  <si>
+    <t>G_01090</t>
+  </si>
+  <si>
+    <t>Карпинское</t>
+  </si>
+  <si>
+    <t>G_01091</t>
+  </si>
+  <si>
+    <t>Красноуфимское</t>
+  </si>
+  <si>
+    <t>G_01092</t>
+  </si>
+  <si>
+    <t>Кушвинское</t>
+  </si>
+  <si>
+    <t>P_212</t>
+  </si>
+  <si>
+    <t>МСАУ "Екатеринбургское лесничество"</t>
+  </si>
+  <si>
+    <t>P_123</t>
+  </si>
+  <si>
+    <t>Национальный парк "Припышминские боры"</t>
+  </si>
+  <si>
+    <t>G_01093</t>
+  </si>
+  <si>
+    <t>Невьянское</t>
+  </si>
+  <si>
+    <t>P_229</t>
+  </si>
+  <si>
+    <t>Нижнесалдинское лесопарковое лесничество</t>
+  </si>
+  <si>
+    <t>G_01094</t>
+  </si>
+  <si>
+    <t>Нижне-Сергинское</t>
+  </si>
+  <si>
+    <t>P_21</t>
+  </si>
+  <si>
+    <t>Нижнетагильское</t>
+  </si>
+  <si>
+    <t>G_01095</t>
+  </si>
+  <si>
+    <t>Нижне-Тагильское</t>
+  </si>
+  <si>
+    <t>G_01096</t>
+  </si>
+  <si>
+    <t>Ново-Лялинское</t>
+  </si>
+  <si>
+    <t>P_200</t>
+  </si>
+  <si>
+    <t>ПМБУ «Городское лесничество»</t>
+  </si>
+  <si>
+    <t>G_01097</t>
+  </si>
+  <si>
+    <t>Режевское</t>
+  </si>
+  <si>
+    <t>G_01098</t>
+  </si>
+  <si>
+    <t>Свердловское</t>
+  </si>
+  <si>
+    <t>P_33</t>
+  </si>
+  <si>
+    <t>Свердловское (Свердловская область)</t>
+  </si>
+  <si>
+    <t>P_220</t>
+  </si>
+  <si>
+    <t>Североуральское городское</t>
+  </si>
+  <si>
+    <t>G_01099</t>
+  </si>
+  <si>
+    <t>Серовское</t>
+  </si>
+  <si>
+    <t>G_01101</t>
+  </si>
+  <si>
+    <t>Синячихинское</t>
+  </si>
+  <si>
+    <t>G_01102</t>
+  </si>
+  <si>
+    <t>Сотринское</t>
+  </si>
+  <si>
+    <t>G_01103</t>
+  </si>
+  <si>
+    <t>Сухоложское</t>
+  </si>
+  <si>
+    <t>P_241</t>
+  </si>
+  <si>
+    <t>СХЗ Свердловское лесничество</t>
+  </si>
+  <si>
+    <t>G_01104</t>
+  </si>
+  <si>
+    <t>Сысертское</t>
+  </si>
+  <si>
+    <t>G_01105</t>
+  </si>
+  <si>
+    <t>Таборинское</t>
+  </si>
+  <si>
+    <t>G_01106</t>
+  </si>
+  <si>
+    <t>Тавдинское</t>
+  </si>
+  <si>
+    <t>G_01107</t>
+  </si>
+  <si>
+    <t>G_01108</t>
+  </si>
+  <si>
+    <t>Тугулымское</t>
+  </si>
+  <si>
+    <t>G_01109</t>
+  </si>
+  <si>
+    <t>Туринское</t>
+  </si>
+  <si>
+    <t>G_01110</t>
+  </si>
+  <si>
+    <t>Шалинское</t>
   </si>
 </sst>
 </file>
@@ -906,10 +3309,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D88"/>
+  <dimension ref="A1:D498"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="C80" sqref="C80"/>
+    <sheetView tabSelected="1" topLeftCell="A438" workbookViewId="0">
+      <selection activeCell="G451" sqref="G451"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2150,6 +4553,5746 @@
       </c>
       <c r="D88" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>177</v>
+      </c>
+      <c r="B89">
+        <v>2</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="D89" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>179</v>
+      </c>
+      <c r="B90">
+        <v>2</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="D90" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>181</v>
+      </c>
+      <c r="B91">
+        <v>2</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+      <c r="D91" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>183</v>
+      </c>
+      <c r="B92">
+        <v>2</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="D92" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>185</v>
+      </c>
+      <c r="B93">
+        <v>2</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+      <c r="D93" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>187</v>
+      </c>
+      <c r="B94">
+        <v>2</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+      <c r="D94" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>189</v>
+      </c>
+      <c r="B95">
+        <v>2</v>
+      </c>
+      <c r="C95">
+        <v>2</v>
+      </c>
+      <c r="D95" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>191</v>
+      </c>
+      <c r="B96">
+        <v>2</v>
+      </c>
+      <c r="C96">
+        <v>3</v>
+      </c>
+      <c r="D96" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>193</v>
+      </c>
+      <c r="B97">
+        <v>2</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+      <c r="D97" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>195</v>
+      </c>
+      <c r="B98">
+        <v>2</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+      <c r="D98" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>197</v>
+      </c>
+      <c r="B99">
+        <v>2</v>
+      </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
+      <c r="D99" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>199</v>
+      </c>
+      <c r="B100">
+        <v>2</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+      <c r="D100" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>201</v>
+      </c>
+      <c r="B101">
+        <v>2</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+      <c r="D101" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>203</v>
+      </c>
+      <c r="B102">
+        <v>2</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+      <c r="D102" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>205</v>
+      </c>
+      <c r="B103">
+        <v>2</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+      <c r="D103" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>207</v>
+      </c>
+      <c r="B104">
+        <v>2</v>
+      </c>
+      <c r="C104">
+        <v>1</v>
+      </c>
+      <c r="D104" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>209</v>
+      </c>
+      <c r="B105">
+        <v>2</v>
+      </c>
+      <c r="C105">
+        <v>2</v>
+      </c>
+      <c r="D105" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>211</v>
+      </c>
+      <c r="B106">
+        <v>2</v>
+      </c>
+      <c r="C106">
+        <v>1</v>
+      </c>
+      <c r="D106" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>213</v>
+      </c>
+      <c r="B107">
+        <v>2</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+      <c r="D107" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>215</v>
+      </c>
+      <c r="B108">
+        <v>2</v>
+      </c>
+      <c r="C108">
+        <v>1</v>
+      </c>
+      <c r="D108" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>217</v>
+      </c>
+      <c r="B109">
+        <v>2</v>
+      </c>
+      <c r="C109">
+        <v>1</v>
+      </c>
+      <c r="D109" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>219</v>
+      </c>
+      <c r="B110">
+        <v>2</v>
+      </c>
+      <c r="C110">
+        <v>1</v>
+      </c>
+      <c r="D110" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>221</v>
+      </c>
+      <c r="B111">
+        <v>2</v>
+      </c>
+      <c r="C111">
+        <v>1</v>
+      </c>
+      <c r="D111" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>223</v>
+      </c>
+      <c r="B112">
+        <v>2</v>
+      </c>
+      <c r="C112">
+        <v>1</v>
+      </c>
+      <c r="D112" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>225</v>
+      </c>
+      <c r="B113">
+        <v>2</v>
+      </c>
+      <c r="C113">
+        <v>1</v>
+      </c>
+      <c r="D113" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>227</v>
+      </c>
+      <c r="B114">
+        <v>2</v>
+      </c>
+      <c r="C114">
+        <v>4</v>
+      </c>
+      <c r="D114" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>229</v>
+      </c>
+      <c r="B115">
+        <v>2</v>
+      </c>
+      <c r="C115">
+        <v>2</v>
+      </c>
+      <c r="D115" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>231</v>
+      </c>
+      <c r="B116">
+        <v>2</v>
+      </c>
+      <c r="C116">
+        <v>1</v>
+      </c>
+      <c r="D116" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>233</v>
+      </c>
+      <c r="B117">
+        <v>2</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+      <c r="D117" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>235</v>
+      </c>
+      <c r="B118">
+        <v>2</v>
+      </c>
+      <c r="C118">
+        <v>1</v>
+      </c>
+      <c r="D118" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>237</v>
+      </c>
+      <c r="B119">
+        <v>2</v>
+      </c>
+      <c r="C119">
+        <v>1</v>
+      </c>
+      <c r="D119" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>239</v>
+      </c>
+      <c r="B120">
+        <v>2</v>
+      </c>
+      <c r="C120">
+        <v>1</v>
+      </c>
+      <c r="D120" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>241</v>
+      </c>
+      <c r="B121">
+        <v>2</v>
+      </c>
+      <c r="C121">
+        <v>1</v>
+      </c>
+      <c r="D121" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>243</v>
+      </c>
+      <c r="B122">
+        <v>2</v>
+      </c>
+      <c r="C122">
+        <v>1</v>
+      </c>
+      <c r="D122" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>245</v>
+      </c>
+      <c r="B123">
+        <v>2</v>
+      </c>
+      <c r="C123">
+        <v>1</v>
+      </c>
+      <c r="D123" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>247</v>
+      </c>
+      <c r="B124">
+        <v>2</v>
+      </c>
+      <c r="C124">
+        <v>2</v>
+      </c>
+      <c r="D124" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>249</v>
+      </c>
+      <c r="B125">
+        <v>2</v>
+      </c>
+      <c r="C125">
+        <v>1</v>
+      </c>
+      <c r="D125" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>251</v>
+      </c>
+      <c r="B126">
+        <v>35</v>
+      </c>
+      <c r="C126">
+        <v>1</v>
+      </c>
+      <c r="D126" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>253</v>
+      </c>
+      <c r="B127">
+        <v>35</v>
+      </c>
+      <c r="C127">
+        <v>1</v>
+      </c>
+      <c r="D127" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>254</v>
+      </c>
+      <c r="B128">
+        <v>35</v>
+      </c>
+      <c r="C128">
+        <v>1</v>
+      </c>
+      <c r="D128" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>256</v>
+      </c>
+      <c r="B129">
+        <v>35</v>
+      </c>
+      <c r="C129">
+        <v>1</v>
+      </c>
+      <c r="D129" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>258</v>
+      </c>
+      <c r="B130">
+        <v>35</v>
+      </c>
+      <c r="C130">
+        <v>1</v>
+      </c>
+      <c r="D130" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>260</v>
+      </c>
+      <c r="B131">
+        <v>35</v>
+      </c>
+      <c r="C131">
+        <v>1</v>
+      </c>
+      <c r="D131" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>262</v>
+      </c>
+      <c r="B132">
+        <v>35</v>
+      </c>
+      <c r="C132">
+        <v>1</v>
+      </c>
+      <c r="D132" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>264</v>
+      </c>
+      <c r="B133">
+        <v>35</v>
+      </c>
+      <c r="C133">
+        <v>1</v>
+      </c>
+      <c r="D133" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>266</v>
+      </c>
+      <c r="B134">
+        <v>35</v>
+      </c>
+      <c r="C134">
+        <v>1</v>
+      </c>
+      <c r="D134" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>268</v>
+      </c>
+      <c r="B135">
+        <v>35</v>
+      </c>
+      <c r="C135">
+        <v>1</v>
+      </c>
+      <c r="D135" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>270</v>
+      </c>
+      <c r="B136">
+        <v>35</v>
+      </c>
+      <c r="C136">
+        <v>2</v>
+      </c>
+      <c r="D136" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>272</v>
+      </c>
+      <c r="B137">
+        <v>35</v>
+      </c>
+      <c r="C137">
+        <v>1</v>
+      </c>
+      <c r="D137" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>274</v>
+      </c>
+      <c r="B138">
+        <v>35</v>
+      </c>
+      <c r="C138">
+        <v>1</v>
+      </c>
+      <c r="D138" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>276</v>
+      </c>
+      <c r="B139">
+        <v>35</v>
+      </c>
+      <c r="C139">
+        <v>1</v>
+      </c>
+      <c r="D139" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>278</v>
+      </c>
+      <c r="B140">
+        <v>35</v>
+      </c>
+      <c r="C140">
+        <v>1</v>
+      </c>
+      <c r="D140" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>280</v>
+      </c>
+      <c r="B141">
+        <v>35</v>
+      </c>
+      <c r="C141">
+        <v>2</v>
+      </c>
+      <c r="D141" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>282</v>
+      </c>
+      <c r="B142">
+        <v>35</v>
+      </c>
+      <c r="C142">
+        <v>1</v>
+      </c>
+      <c r="D142" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>284</v>
+      </c>
+      <c r="B143">
+        <v>35</v>
+      </c>
+      <c r="C143">
+        <v>1</v>
+      </c>
+      <c r="D143" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>286</v>
+      </c>
+      <c r="B144">
+        <v>35</v>
+      </c>
+      <c r="C144">
+        <v>1</v>
+      </c>
+      <c r="D144" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>288</v>
+      </c>
+      <c r="B145">
+        <v>35</v>
+      </c>
+      <c r="C145">
+        <v>1</v>
+      </c>
+      <c r="D145" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>290</v>
+      </c>
+      <c r="B146">
+        <v>35</v>
+      </c>
+      <c r="C146">
+        <v>1</v>
+      </c>
+      <c r="D146" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>292</v>
+      </c>
+      <c r="B147">
+        <v>35</v>
+      </c>
+      <c r="C147">
+        <v>1</v>
+      </c>
+      <c r="D147" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>294</v>
+      </c>
+      <c r="B148">
+        <v>35</v>
+      </c>
+      <c r="C148">
+        <v>1</v>
+      </c>
+      <c r="D148" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>296</v>
+      </c>
+      <c r="B149">
+        <v>35</v>
+      </c>
+      <c r="C149">
+        <v>1</v>
+      </c>
+      <c r="D149" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>298</v>
+      </c>
+      <c r="B150">
+        <v>35</v>
+      </c>
+      <c r="C150">
+        <v>1</v>
+      </c>
+      <c r="D150" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>300</v>
+      </c>
+      <c r="B151">
+        <v>35</v>
+      </c>
+      <c r="C151">
+        <v>3</v>
+      </c>
+      <c r="D151" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>302</v>
+      </c>
+      <c r="B152">
+        <v>35</v>
+      </c>
+      <c r="C152">
+        <v>1</v>
+      </c>
+      <c r="D152" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>304</v>
+      </c>
+      <c r="B153">
+        <v>35</v>
+      </c>
+      <c r="C153">
+        <v>1</v>
+      </c>
+      <c r="D153" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>306</v>
+      </c>
+      <c r="B154">
+        <v>35</v>
+      </c>
+      <c r="C154">
+        <v>1</v>
+      </c>
+      <c r="D154" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>308</v>
+      </c>
+      <c r="B155">
+        <v>75</v>
+      </c>
+      <c r="C155">
+        <v>1</v>
+      </c>
+      <c r="D155" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>310</v>
+      </c>
+      <c r="B156">
+        <v>75</v>
+      </c>
+      <c r="C156">
+        <v>1</v>
+      </c>
+      <c r="D156" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>312</v>
+      </c>
+      <c r="B157">
+        <v>75</v>
+      </c>
+      <c r="C157">
+        <v>1</v>
+      </c>
+      <c r="D157" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>314</v>
+      </c>
+      <c r="B158">
+        <v>75</v>
+      </c>
+      <c r="C158">
+        <v>1</v>
+      </c>
+      <c r="D158" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>316</v>
+      </c>
+      <c r="B159">
+        <v>75</v>
+      </c>
+      <c r="C159">
+        <v>1</v>
+      </c>
+      <c r="D159" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>318</v>
+      </c>
+      <c r="B160">
+        <v>75</v>
+      </c>
+      <c r="C160">
+        <v>1</v>
+      </c>
+      <c r="D160" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>320</v>
+      </c>
+      <c r="B161">
+        <v>75</v>
+      </c>
+      <c r="C161">
+        <v>1</v>
+      </c>
+      <c r="D161" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>322</v>
+      </c>
+      <c r="B162">
+        <v>75</v>
+      </c>
+      <c r="C162">
+        <v>1</v>
+      </c>
+      <c r="D162" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>324</v>
+      </c>
+      <c r="B163">
+        <v>75</v>
+      </c>
+      <c r="C163">
+        <v>1</v>
+      </c>
+      <c r="D163" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>326</v>
+      </c>
+      <c r="B164">
+        <v>75</v>
+      </c>
+      <c r="C164">
+        <v>1</v>
+      </c>
+      <c r="D164" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>328</v>
+      </c>
+      <c r="B165">
+        <v>75</v>
+      </c>
+      <c r="C165">
+        <v>1</v>
+      </c>
+      <c r="D165" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>330</v>
+      </c>
+      <c r="B166">
+        <v>75</v>
+      </c>
+      <c r="C166">
+        <v>3</v>
+      </c>
+      <c r="D166" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>332</v>
+      </c>
+      <c r="B167">
+        <v>75</v>
+      </c>
+      <c r="C167">
+        <v>1</v>
+      </c>
+      <c r="D167" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>334</v>
+      </c>
+      <c r="B168">
+        <v>75</v>
+      </c>
+      <c r="C168">
+        <v>1</v>
+      </c>
+      <c r="D168" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>336</v>
+      </c>
+      <c r="B169">
+        <v>75</v>
+      </c>
+      <c r="C169">
+        <v>1</v>
+      </c>
+      <c r="D169" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>338</v>
+      </c>
+      <c r="B170">
+        <v>75</v>
+      </c>
+      <c r="C170">
+        <v>1</v>
+      </c>
+      <c r="D170" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>340</v>
+      </c>
+      <c r="B171">
+        <v>75</v>
+      </c>
+      <c r="C171">
+        <v>2</v>
+      </c>
+      <c r="D171" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>342</v>
+      </c>
+      <c r="B172">
+        <v>75</v>
+      </c>
+      <c r="C172">
+        <v>1</v>
+      </c>
+      <c r="D172" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>344</v>
+      </c>
+      <c r="B173">
+        <v>75</v>
+      </c>
+      <c r="C173">
+        <v>1</v>
+      </c>
+      <c r="D173" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>346</v>
+      </c>
+      <c r="B174">
+        <v>75</v>
+      </c>
+      <c r="C174">
+        <v>1</v>
+      </c>
+      <c r="D174" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>348</v>
+      </c>
+      <c r="B175">
+        <v>75</v>
+      </c>
+      <c r="C175">
+        <v>1</v>
+      </c>
+      <c r="D175" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>350</v>
+      </c>
+      <c r="B176">
+        <v>75</v>
+      </c>
+      <c r="C176">
+        <v>2</v>
+      </c>
+      <c r="D176" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>352</v>
+      </c>
+      <c r="B177">
+        <v>75</v>
+      </c>
+      <c r="C177">
+        <v>1</v>
+      </c>
+      <c r="D177" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>354</v>
+      </c>
+      <c r="B178">
+        <v>75</v>
+      </c>
+      <c r="C178">
+        <v>1</v>
+      </c>
+      <c r="D178" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>356</v>
+      </c>
+      <c r="B179">
+        <v>75</v>
+      </c>
+      <c r="C179">
+        <v>1</v>
+      </c>
+      <c r="D179" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>358</v>
+      </c>
+      <c r="B180">
+        <v>75</v>
+      </c>
+      <c r="C180">
+        <v>1</v>
+      </c>
+      <c r="D180" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>360</v>
+      </c>
+      <c r="B181">
+        <v>75</v>
+      </c>
+      <c r="C181">
+        <v>1</v>
+      </c>
+      <c r="D181" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>362</v>
+      </c>
+      <c r="B182">
+        <v>75</v>
+      </c>
+      <c r="C182">
+        <v>1</v>
+      </c>
+      <c r="D182" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>364</v>
+      </c>
+      <c r="B183">
+        <v>75</v>
+      </c>
+      <c r="C183">
+        <v>3</v>
+      </c>
+      <c r="D183" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>365</v>
+      </c>
+      <c r="B184">
+        <v>75</v>
+      </c>
+      <c r="C184">
+        <v>1</v>
+      </c>
+      <c r="D184" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>367</v>
+      </c>
+      <c r="B185">
+        <v>38</v>
+      </c>
+      <c r="C185">
+        <v>1</v>
+      </c>
+      <c r="D185" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>369</v>
+      </c>
+      <c r="B186">
+        <v>38</v>
+      </c>
+      <c r="C186">
+        <v>1</v>
+      </c>
+      <c r="D186" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>371</v>
+      </c>
+      <c r="B187">
+        <v>38</v>
+      </c>
+      <c r="C187">
+        <v>2</v>
+      </c>
+      <c r="D187" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>373</v>
+      </c>
+      <c r="B188">
+        <v>38</v>
+      </c>
+      <c r="C188">
+        <v>1</v>
+      </c>
+      <c r="D188" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>375</v>
+      </c>
+      <c r="B189">
+        <v>38</v>
+      </c>
+      <c r="C189">
+        <v>1</v>
+      </c>
+      <c r="D189" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>377</v>
+      </c>
+      <c r="B190">
+        <v>38</v>
+      </c>
+      <c r="C190">
+        <v>1</v>
+      </c>
+      <c r="D190" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>379</v>
+      </c>
+      <c r="B191">
+        <v>38</v>
+      </c>
+      <c r="C191">
+        <v>1</v>
+      </c>
+      <c r="D191" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>381</v>
+      </c>
+      <c r="B192">
+        <v>38</v>
+      </c>
+      <c r="C192">
+        <v>1</v>
+      </c>
+      <c r="D192" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>383</v>
+      </c>
+      <c r="B193">
+        <v>38</v>
+      </c>
+      <c r="C193">
+        <v>1</v>
+      </c>
+      <c r="D193" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>385</v>
+      </c>
+      <c r="B194">
+        <v>38</v>
+      </c>
+      <c r="C194">
+        <v>4</v>
+      </c>
+      <c r="D194" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>387</v>
+      </c>
+      <c r="B195">
+        <v>38</v>
+      </c>
+      <c r="C195">
+        <v>2</v>
+      </c>
+      <c r="D195" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>389</v>
+      </c>
+      <c r="B196">
+        <v>38</v>
+      </c>
+      <c r="C196">
+        <v>1</v>
+      </c>
+      <c r="D196" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>391</v>
+      </c>
+      <c r="B197">
+        <v>38</v>
+      </c>
+      <c r="C197">
+        <v>1</v>
+      </c>
+      <c r="D197" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>393</v>
+      </c>
+      <c r="B198">
+        <v>38</v>
+      </c>
+      <c r="C198">
+        <v>2</v>
+      </c>
+      <c r="D198" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>395</v>
+      </c>
+      <c r="B199">
+        <v>38</v>
+      </c>
+      <c r="C199">
+        <v>1</v>
+      </c>
+      <c r="D199" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>397</v>
+      </c>
+      <c r="B200">
+        <v>38</v>
+      </c>
+      <c r="C200">
+        <v>1</v>
+      </c>
+      <c r="D200" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>399</v>
+      </c>
+      <c r="B201">
+        <v>38</v>
+      </c>
+      <c r="C201">
+        <v>1</v>
+      </c>
+      <c r="D201" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>401</v>
+      </c>
+      <c r="B202">
+        <v>38</v>
+      </c>
+      <c r="C202">
+        <v>1</v>
+      </c>
+      <c r="D202" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>403</v>
+      </c>
+      <c r="B203">
+        <v>38</v>
+      </c>
+      <c r="C203">
+        <v>1</v>
+      </c>
+      <c r="D203" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>405</v>
+      </c>
+      <c r="B204">
+        <v>38</v>
+      </c>
+      <c r="C204">
+        <v>1</v>
+      </c>
+      <c r="D204" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>407</v>
+      </c>
+      <c r="B205">
+        <v>38</v>
+      </c>
+      <c r="C205">
+        <v>1</v>
+      </c>
+      <c r="D205" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>409</v>
+      </c>
+      <c r="B206">
+        <v>38</v>
+      </c>
+      <c r="C206">
+        <v>1</v>
+      </c>
+      <c r="D206" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>411</v>
+      </c>
+      <c r="B207">
+        <v>38</v>
+      </c>
+      <c r="C207">
+        <v>1</v>
+      </c>
+      <c r="D207" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>412</v>
+      </c>
+      <c r="B208">
+        <v>38</v>
+      </c>
+      <c r="C208">
+        <v>4</v>
+      </c>
+      <c r="D208" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>414</v>
+      </c>
+      <c r="B209">
+        <v>38</v>
+      </c>
+      <c r="C209">
+        <v>1</v>
+      </c>
+      <c r="D209" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>416</v>
+      </c>
+      <c r="B210">
+        <v>38</v>
+      </c>
+      <c r="C210">
+        <v>1</v>
+      </c>
+      <c r="D210" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>418</v>
+      </c>
+      <c r="B211">
+        <v>38</v>
+      </c>
+      <c r="C211">
+        <v>3</v>
+      </c>
+      <c r="D211" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>420</v>
+      </c>
+      <c r="B212">
+        <v>38</v>
+      </c>
+      <c r="C212">
+        <v>1</v>
+      </c>
+      <c r="D212" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>421</v>
+      </c>
+      <c r="B213">
+        <v>38</v>
+      </c>
+      <c r="C213">
+        <v>1</v>
+      </c>
+      <c r="D213" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>423</v>
+      </c>
+      <c r="B214">
+        <v>38</v>
+      </c>
+      <c r="C214">
+        <v>1</v>
+      </c>
+      <c r="D214" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>425</v>
+      </c>
+      <c r="B215">
+        <v>38</v>
+      </c>
+      <c r="C215">
+        <v>1</v>
+      </c>
+      <c r="D215" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>427</v>
+      </c>
+      <c r="B216">
+        <v>38</v>
+      </c>
+      <c r="C216">
+        <v>1</v>
+      </c>
+      <c r="D216" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>429</v>
+      </c>
+      <c r="B217">
+        <v>38</v>
+      </c>
+      <c r="C217">
+        <v>1</v>
+      </c>
+      <c r="D217" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>431</v>
+      </c>
+      <c r="B218">
+        <v>38</v>
+      </c>
+      <c r="C218">
+        <v>1</v>
+      </c>
+      <c r="D218" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>433</v>
+      </c>
+      <c r="B219">
+        <v>38</v>
+      </c>
+      <c r="C219">
+        <v>1</v>
+      </c>
+      <c r="D219" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>435</v>
+      </c>
+      <c r="B220">
+        <v>38</v>
+      </c>
+      <c r="C220">
+        <v>1</v>
+      </c>
+      <c r="D220" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>437</v>
+      </c>
+      <c r="B221">
+        <v>38</v>
+      </c>
+      <c r="C221">
+        <v>1</v>
+      </c>
+      <c r="D221" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>439</v>
+      </c>
+      <c r="B222">
+        <v>38</v>
+      </c>
+      <c r="C222">
+        <v>4</v>
+      </c>
+      <c r="D222" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>441</v>
+      </c>
+      <c r="B223">
+        <v>38</v>
+      </c>
+      <c r="C223">
+        <v>1</v>
+      </c>
+      <c r="D223" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>443</v>
+      </c>
+      <c r="B224">
+        <v>38</v>
+      </c>
+      <c r="C224">
+        <v>1</v>
+      </c>
+      <c r="D224" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>445</v>
+      </c>
+      <c r="B225">
+        <v>38</v>
+      </c>
+      <c r="C225">
+        <v>1</v>
+      </c>
+      <c r="D225" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>447</v>
+      </c>
+      <c r="B226">
+        <v>38</v>
+      </c>
+      <c r="C226">
+        <v>1</v>
+      </c>
+      <c r="D226" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>449</v>
+      </c>
+      <c r="B227">
+        <v>38</v>
+      </c>
+      <c r="C227">
+        <v>1</v>
+      </c>
+      <c r="D227" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>451</v>
+      </c>
+      <c r="B228">
+        <v>38</v>
+      </c>
+      <c r="C228">
+        <v>1</v>
+      </c>
+      <c r="D228" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>453</v>
+      </c>
+      <c r="B229">
+        <v>38</v>
+      </c>
+      <c r="C229">
+        <v>3</v>
+      </c>
+      <c r="D229" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>454</v>
+      </c>
+      <c r="B230">
+        <v>41</v>
+      </c>
+      <c r="C230">
+        <v>1</v>
+      </c>
+      <c r="D230" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>456</v>
+      </c>
+      <c r="B231">
+        <v>41</v>
+      </c>
+      <c r="C231">
+        <v>1</v>
+      </c>
+      <c r="D231" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>458</v>
+      </c>
+      <c r="B232">
+        <v>41</v>
+      </c>
+      <c r="C232">
+        <v>1</v>
+      </c>
+      <c r="D232" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>460</v>
+      </c>
+      <c r="B233">
+        <v>41</v>
+      </c>
+      <c r="C233">
+        <v>3</v>
+      </c>
+      <c r="D233" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>462</v>
+      </c>
+      <c r="B234">
+        <v>41</v>
+      </c>
+      <c r="C234">
+        <v>1</v>
+      </c>
+      <c r="D234" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>464</v>
+      </c>
+      <c r="B235">
+        <v>41</v>
+      </c>
+      <c r="C235">
+        <v>1</v>
+      </c>
+      <c r="D235" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>466</v>
+      </c>
+      <c r="B236">
+        <v>41</v>
+      </c>
+      <c r="C236">
+        <v>2</v>
+      </c>
+      <c r="D236" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>468</v>
+      </c>
+      <c r="B237">
+        <v>41</v>
+      </c>
+      <c r="C237">
+        <v>1</v>
+      </c>
+      <c r="D237" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>470</v>
+      </c>
+      <c r="B238">
+        <v>41</v>
+      </c>
+      <c r="C238">
+        <v>1</v>
+      </c>
+      <c r="D238" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>472</v>
+      </c>
+      <c r="B239">
+        <v>42</v>
+      </c>
+      <c r="C239">
+        <v>1</v>
+      </c>
+      <c r="D239" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>474</v>
+      </c>
+      <c r="B240">
+        <v>42</v>
+      </c>
+      <c r="C240">
+        <v>4</v>
+      </c>
+      <c r="D240" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>476</v>
+      </c>
+      <c r="B241">
+        <v>42</v>
+      </c>
+      <c r="C241">
+        <v>2</v>
+      </c>
+      <c r="D241" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>478</v>
+      </c>
+      <c r="B242">
+        <v>42</v>
+      </c>
+      <c r="C242">
+        <v>1</v>
+      </c>
+      <c r="D242" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>480</v>
+      </c>
+      <c r="B243">
+        <v>42</v>
+      </c>
+      <c r="C243">
+        <v>1</v>
+      </c>
+      <c r="D243" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>482</v>
+      </c>
+      <c r="B244">
+        <v>42</v>
+      </c>
+      <c r="C244">
+        <v>1</v>
+      </c>
+      <c r="D244" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>484</v>
+      </c>
+      <c r="B245">
+        <v>42</v>
+      </c>
+      <c r="C245">
+        <v>1</v>
+      </c>
+      <c r="D245" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>486</v>
+      </c>
+      <c r="B246">
+        <v>42</v>
+      </c>
+      <c r="C246">
+        <v>1</v>
+      </c>
+      <c r="D246" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>488</v>
+      </c>
+      <c r="B247">
+        <v>42</v>
+      </c>
+      <c r="C247">
+        <v>1</v>
+      </c>
+      <c r="D247" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>490</v>
+      </c>
+      <c r="B248">
+        <v>42</v>
+      </c>
+      <c r="C248">
+        <v>1</v>
+      </c>
+      <c r="D248" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>491</v>
+      </c>
+      <c r="B249">
+        <v>42</v>
+      </c>
+      <c r="C249">
+        <v>1</v>
+      </c>
+      <c r="D249" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>493</v>
+      </c>
+      <c r="B250">
+        <v>42</v>
+      </c>
+      <c r="C250">
+        <v>1</v>
+      </c>
+      <c r="D250" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
+        <v>495</v>
+      </c>
+      <c r="B251">
+        <v>42</v>
+      </c>
+      <c r="C251">
+        <v>3</v>
+      </c>
+      <c r="D251" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
+        <v>497</v>
+      </c>
+      <c r="B252">
+        <v>42</v>
+      </c>
+      <c r="C252">
+        <v>1</v>
+      </c>
+      <c r="D252" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
+        <v>499</v>
+      </c>
+      <c r="B253">
+        <v>42</v>
+      </c>
+      <c r="C253">
+        <v>1</v>
+      </c>
+      <c r="D253" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
+        <v>501</v>
+      </c>
+      <c r="B254">
+        <v>42</v>
+      </c>
+      <c r="C254">
+        <v>1</v>
+      </c>
+      <c r="D254" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
+        <v>503</v>
+      </c>
+      <c r="B255">
+        <v>42</v>
+      </c>
+      <c r="C255">
+        <v>1</v>
+      </c>
+      <c r="D255" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
+        <v>505</v>
+      </c>
+      <c r="B256">
+        <v>42</v>
+      </c>
+      <c r="C256">
+        <v>1</v>
+      </c>
+      <c r="D256" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
+        <v>507</v>
+      </c>
+      <c r="B257">
+        <v>42</v>
+      </c>
+      <c r="C257">
+        <v>1</v>
+      </c>
+      <c r="D257" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
+        <v>509</v>
+      </c>
+      <c r="B258">
+        <v>42</v>
+      </c>
+      <c r="C258">
+        <v>2</v>
+      </c>
+      <c r="D258" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
+        <v>511</v>
+      </c>
+      <c r="B259">
+        <v>42</v>
+      </c>
+      <c r="C259">
+        <v>1</v>
+      </c>
+      <c r="D259" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
+        <v>513</v>
+      </c>
+      <c r="B260">
+        <v>42</v>
+      </c>
+      <c r="C260">
+        <v>1</v>
+      </c>
+      <c r="D260" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
+        <v>515</v>
+      </c>
+      <c r="B261">
+        <v>42</v>
+      </c>
+      <c r="C261">
+        <v>1</v>
+      </c>
+      <c r="D261" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
+        <v>517</v>
+      </c>
+      <c r="B262">
+        <v>24</v>
+      </c>
+      <c r="C262">
+        <v>1</v>
+      </c>
+      <c r="D262" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
+        <v>519</v>
+      </c>
+      <c r="B263">
+        <v>24</v>
+      </c>
+      <c r="C263">
+        <v>1</v>
+      </c>
+      <c r="D263" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
+        <v>521</v>
+      </c>
+      <c r="B264">
+        <v>24</v>
+      </c>
+      <c r="C264">
+        <v>1</v>
+      </c>
+      <c r="D264" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
+        <v>523</v>
+      </c>
+      <c r="B265">
+        <v>24</v>
+      </c>
+      <c r="C265">
+        <v>1</v>
+      </c>
+      <c r="D265" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
+        <v>525</v>
+      </c>
+      <c r="B266">
+        <v>24</v>
+      </c>
+      <c r="C266">
+        <v>1</v>
+      </c>
+      <c r="D266" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
+        <v>527</v>
+      </c>
+      <c r="B267">
+        <v>24</v>
+      </c>
+      <c r="C267">
+        <v>1</v>
+      </c>
+      <c r="D267" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
+        <v>529</v>
+      </c>
+      <c r="B268">
+        <v>24</v>
+      </c>
+      <c r="C268">
+        <v>1</v>
+      </c>
+      <c r="D268" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
+        <v>531</v>
+      </c>
+      <c r="B269">
+        <v>24</v>
+      </c>
+      <c r="C269">
+        <v>1</v>
+      </c>
+      <c r="D269" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
+        <v>533</v>
+      </c>
+      <c r="B270">
+        <v>24</v>
+      </c>
+      <c r="C270">
+        <v>1</v>
+      </c>
+      <c r="D270" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
+        <v>535</v>
+      </c>
+      <c r="B271">
+        <v>24</v>
+      </c>
+      <c r="C271">
+        <v>1</v>
+      </c>
+      <c r="D271" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
+        <v>537</v>
+      </c>
+      <c r="B272">
+        <v>24</v>
+      </c>
+      <c r="C272">
+        <v>1</v>
+      </c>
+      <c r="D272" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
+        <v>539</v>
+      </c>
+      <c r="B273">
+        <v>24</v>
+      </c>
+      <c r="C273">
+        <v>1</v>
+      </c>
+      <c r="D273" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
+        <v>541</v>
+      </c>
+      <c r="B274">
+        <v>24</v>
+      </c>
+      <c r="C274">
+        <v>1</v>
+      </c>
+      <c r="D274" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
+        <v>543</v>
+      </c>
+      <c r="B275">
+        <v>24</v>
+      </c>
+      <c r="C275">
+        <v>1</v>
+      </c>
+      <c r="D275" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
+        <v>545</v>
+      </c>
+      <c r="B276">
+        <v>24</v>
+      </c>
+      <c r="C276">
+        <v>1</v>
+      </c>
+      <c r="D276" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
+        <v>547</v>
+      </c>
+      <c r="B277">
+        <v>24</v>
+      </c>
+      <c r="C277">
+        <v>1</v>
+      </c>
+      <c r="D277" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
+        <v>549</v>
+      </c>
+      <c r="B278">
+        <v>24</v>
+      </c>
+      <c r="C278">
+        <v>1</v>
+      </c>
+      <c r="D278" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
+        <v>551</v>
+      </c>
+      <c r="B279">
+        <v>24</v>
+      </c>
+      <c r="C279">
+        <v>2</v>
+      </c>
+      <c r="D279" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
+        <v>553</v>
+      </c>
+      <c r="B280">
+        <v>24</v>
+      </c>
+      <c r="C280">
+        <v>2</v>
+      </c>
+      <c r="D280" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
+        <v>555</v>
+      </c>
+      <c r="B281">
+        <v>24</v>
+      </c>
+      <c r="C281">
+        <v>2</v>
+      </c>
+      <c r="D281" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A282" t="s">
+        <v>557</v>
+      </c>
+      <c r="B282">
+        <v>24</v>
+      </c>
+      <c r="C282">
+        <v>2</v>
+      </c>
+      <c r="D282" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A283" t="s">
+        <v>559</v>
+      </c>
+      <c r="B283">
+        <v>24</v>
+      </c>
+      <c r="C283">
+        <v>2</v>
+      </c>
+      <c r="D283" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A284" t="s">
+        <v>561</v>
+      </c>
+      <c r="B284">
+        <v>24</v>
+      </c>
+      <c r="C284">
+        <v>1</v>
+      </c>
+      <c r="D284" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A285" t="s">
+        <v>563</v>
+      </c>
+      <c r="B285">
+        <v>24</v>
+      </c>
+      <c r="C285">
+        <v>1</v>
+      </c>
+      <c r="D285" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A286" t="s">
+        <v>565</v>
+      </c>
+      <c r="B286">
+        <v>24</v>
+      </c>
+      <c r="C286">
+        <v>1</v>
+      </c>
+      <c r="D286" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
+        <v>567</v>
+      </c>
+      <c r="B287">
+        <v>24</v>
+      </c>
+      <c r="C287">
+        <v>1</v>
+      </c>
+      <c r="D287" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A288" t="s">
+        <v>569</v>
+      </c>
+      <c r="B288">
+        <v>24</v>
+      </c>
+      <c r="C288">
+        <v>1</v>
+      </c>
+      <c r="D288" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A289" t="s">
+        <v>571</v>
+      </c>
+      <c r="B289">
+        <v>24</v>
+      </c>
+      <c r="C289">
+        <v>1</v>
+      </c>
+      <c r="D289" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A290" t="s">
+        <v>573</v>
+      </c>
+      <c r="B290">
+        <v>24</v>
+      </c>
+      <c r="C290">
+        <v>1</v>
+      </c>
+      <c r="D290" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A291" t="s">
+        <v>575</v>
+      </c>
+      <c r="B291">
+        <v>24</v>
+      </c>
+      <c r="C291">
+        <v>1</v>
+      </c>
+      <c r="D291" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A292" t="s">
+        <v>577</v>
+      </c>
+      <c r="B292">
+        <v>24</v>
+      </c>
+      <c r="C292">
+        <v>1</v>
+      </c>
+      <c r="D292" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A293" t="s">
+        <v>579</v>
+      </c>
+      <c r="B293">
+        <v>24</v>
+      </c>
+      <c r="C293">
+        <v>1</v>
+      </c>
+      <c r="D293" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A294" t="s">
+        <v>581</v>
+      </c>
+      <c r="B294">
+        <v>24</v>
+      </c>
+      <c r="C294">
+        <v>1</v>
+      </c>
+      <c r="D294" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A295" t="s">
+        <v>583</v>
+      </c>
+      <c r="B295">
+        <v>24</v>
+      </c>
+      <c r="C295">
+        <v>3</v>
+      </c>
+      <c r="D295" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A296" t="s">
+        <v>584</v>
+      </c>
+      <c r="B296">
+        <v>24</v>
+      </c>
+      <c r="C296">
+        <v>1</v>
+      </c>
+      <c r="D296" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A297" t="s">
+        <v>586</v>
+      </c>
+      <c r="B297">
+        <v>24</v>
+      </c>
+      <c r="C297">
+        <v>9</v>
+      </c>
+      <c r="D297" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A298" t="s">
+        <v>588</v>
+      </c>
+      <c r="B298">
+        <v>24</v>
+      </c>
+      <c r="C298">
+        <v>1</v>
+      </c>
+      <c r="D298" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A299" t="s">
+        <v>590</v>
+      </c>
+      <c r="B299">
+        <v>24</v>
+      </c>
+      <c r="C299">
+        <v>1</v>
+      </c>
+      <c r="D299" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A300" t="s">
+        <v>592</v>
+      </c>
+      <c r="B300">
+        <v>24</v>
+      </c>
+      <c r="C300">
+        <v>1</v>
+      </c>
+      <c r="D300" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A301" t="s">
+        <v>594</v>
+      </c>
+      <c r="B301">
+        <v>24</v>
+      </c>
+      <c r="C301">
+        <v>1</v>
+      </c>
+      <c r="D301" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A302" t="s">
+        <v>596</v>
+      </c>
+      <c r="B302">
+        <v>24</v>
+      </c>
+      <c r="C302">
+        <v>1</v>
+      </c>
+      <c r="D302" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A303" t="s">
+        <v>598</v>
+      </c>
+      <c r="B303">
+        <v>24</v>
+      </c>
+      <c r="C303">
+        <v>1</v>
+      </c>
+      <c r="D303" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A304" t="s">
+        <v>600</v>
+      </c>
+      <c r="B304">
+        <v>24</v>
+      </c>
+      <c r="C304">
+        <v>1</v>
+      </c>
+      <c r="D304" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A305" t="s">
+        <v>602</v>
+      </c>
+      <c r="B305">
+        <v>24</v>
+      </c>
+      <c r="C305">
+        <v>2</v>
+      </c>
+      <c r="D305" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A306" t="s">
+        <v>604</v>
+      </c>
+      <c r="B306">
+        <v>24</v>
+      </c>
+      <c r="C306">
+        <v>1</v>
+      </c>
+      <c r="D306" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A307" t="s">
+        <v>606</v>
+      </c>
+      <c r="B307">
+        <v>24</v>
+      </c>
+      <c r="C307">
+        <v>1</v>
+      </c>
+      <c r="D307" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A308" t="s">
+        <v>608</v>
+      </c>
+      <c r="B308">
+        <v>24</v>
+      </c>
+      <c r="C308">
+        <v>1</v>
+      </c>
+      <c r="D308" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A309" t="s">
+        <v>610</v>
+      </c>
+      <c r="B309">
+        <v>24</v>
+      </c>
+      <c r="C309">
+        <v>1</v>
+      </c>
+      <c r="D309" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A310" t="s">
+        <v>612</v>
+      </c>
+      <c r="B310">
+        <v>24</v>
+      </c>
+      <c r="C310">
+        <v>1</v>
+      </c>
+      <c r="D310" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A311" t="s">
+        <v>614</v>
+      </c>
+      <c r="B311">
+        <v>24</v>
+      </c>
+      <c r="C311">
+        <v>1</v>
+      </c>
+      <c r="D311" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A312" t="s">
+        <v>616</v>
+      </c>
+      <c r="B312">
+        <v>24</v>
+      </c>
+      <c r="C312">
+        <v>1</v>
+      </c>
+      <c r="D312" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A313" t="s">
+        <v>618</v>
+      </c>
+      <c r="B313">
+        <v>24</v>
+      </c>
+      <c r="C313">
+        <v>1</v>
+      </c>
+      <c r="D313" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A314" t="s">
+        <v>620</v>
+      </c>
+      <c r="B314">
+        <v>24</v>
+      </c>
+      <c r="C314">
+        <v>1</v>
+      </c>
+      <c r="D314" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A315" t="s">
+        <v>622</v>
+      </c>
+      <c r="B315">
+        <v>24</v>
+      </c>
+      <c r="C315">
+        <v>1</v>
+      </c>
+      <c r="D315" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A316" t="s">
+        <v>624</v>
+      </c>
+      <c r="B316">
+        <v>24</v>
+      </c>
+      <c r="C316">
+        <v>1</v>
+      </c>
+      <c r="D316" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A317" t="s">
+        <v>626</v>
+      </c>
+      <c r="B317">
+        <v>24</v>
+      </c>
+      <c r="C317">
+        <v>1</v>
+      </c>
+      <c r="D317" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A318" t="s">
+        <v>628</v>
+      </c>
+      <c r="B318">
+        <v>24</v>
+      </c>
+      <c r="C318">
+        <v>1</v>
+      </c>
+      <c r="D318" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A319" t="s">
+        <v>630</v>
+      </c>
+      <c r="B319">
+        <v>24</v>
+      </c>
+      <c r="C319">
+        <v>1</v>
+      </c>
+      <c r="D319" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A320" t="s">
+        <v>632</v>
+      </c>
+      <c r="B320">
+        <v>24</v>
+      </c>
+      <c r="C320">
+        <v>1</v>
+      </c>
+      <c r="D320" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A321" t="s">
+        <v>634</v>
+      </c>
+      <c r="B321">
+        <v>24</v>
+      </c>
+      <c r="C321">
+        <v>1</v>
+      </c>
+      <c r="D321" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A322" t="s">
+        <v>636</v>
+      </c>
+      <c r="B322">
+        <v>24</v>
+      </c>
+      <c r="C322">
+        <v>1</v>
+      </c>
+      <c r="D322" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A323" t="s">
+        <v>638</v>
+      </c>
+      <c r="B323">
+        <v>24</v>
+      </c>
+      <c r="C323">
+        <v>1</v>
+      </c>
+      <c r="D323" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A324" t="s">
+        <v>640</v>
+      </c>
+      <c r="B324">
+        <v>24</v>
+      </c>
+      <c r="C324">
+        <v>1</v>
+      </c>
+      <c r="D324" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A325" t="s">
+        <v>642</v>
+      </c>
+      <c r="B325">
+        <v>24</v>
+      </c>
+      <c r="C325">
+        <v>1</v>
+      </c>
+      <c r="D325" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A326" t="s">
+        <v>643</v>
+      </c>
+      <c r="B326">
+        <v>24</v>
+      </c>
+      <c r="C326">
+        <v>1</v>
+      </c>
+      <c r="D326" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A327" t="s">
+        <v>645</v>
+      </c>
+      <c r="B327">
+        <v>24</v>
+      </c>
+      <c r="C327">
+        <v>1</v>
+      </c>
+      <c r="D327" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A328" t="s">
+        <v>647</v>
+      </c>
+      <c r="B328">
+        <v>24</v>
+      </c>
+      <c r="C328">
+        <v>1</v>
+      </c>
+      <c r="D328" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A329" t="s">
+        <v>648</v>
+      </c>
+      <c r="B329">
+        <v>24</v>
+      </c>
+      <c r="C329">
+        <v>1</v>
+      </c>
+      <c r="D329" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A330" t="s">
+        <v>650</v>
+      </c>
+      <c r="B330">
+        <v>24</v>
+      </c>
+      <c r="C330">
+        <v>1</v>
+      </c>
+      <c r="D330" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A331" t="s">
+        <v>652</v>
+      </c>
+      <c r="B331">
+        <v>50</v>
+      </c>
+      <c r="C331">
+        <v>1</v>
+      </c>
+      <c r="D331" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A332" t="s">
+        <v>654</v>
+      </c>
+      <c r="B332">
+        <v>50</v>
+      </c>
+      <c r="C332">
+        <v>1</v>
+      </c>
+      <c r="D332" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A333" t="s">
+        <v>656</v>
+      </c>
+      <c r="B333">
+        <v>50</v>
+      </c>
+      <c r="C333">
+        <v>6</v>
+      </c>
+      <c r="D333" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A334" t="s">
+        <v>658</v>
+      </c>
+      <c r="B334">
+        <v>50</v>
+      </c>
+      <c r="C334">
+        <v>1</v>
+      </c>
+      <c r="D334" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A335" t="s">
+        <v>660</v>
+      </c>
+      <c r="B335">
+        <v>50</v>
+      </c>
+      <c r="C335">
+        <v>1</v>
+      </c>
+      <c r="D335" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A336" t="s">
+        <v>662</v>
+      </c>
+      <c r="B336">
+        <v>50</v>
+      </c>
+      <c r="C336">
+        <v>1</v>
+      </c>
+      <c r="D336" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A337" t="s">
+        <v>664</v>
+      </c>
+      <c r="B337">
+        <v>50</v>
+      </c>
+      <c r="C337">
+        <v>1</v>
+      </c>
+      <c r="D337" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A338" t="s">
+        <v>666</v>
+      </c>
+      <c r="B338">
+        <v>50</v>
+      </c>
+      <c r="C338">
+        <v>1</v>
+      </c>
+      <c r="D338" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A339" t="s">
+        <v>668</v>
+      </c>
+      <c r="B339">
+        <v>50</v>
+      </c>
+      <c r="C339">
+        <v>1</v>
+      </c>
+      <c r="D339" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A340" t="s">
+        <v>670</v>
+      </c>
+      <c r="B340">
+        <v>50</v>
+      </c>
+      <c r="C340">
+        <v>3</v>
+      </c>
+      <c r="D340" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A341" t="s">
+        <v>672</v>
+      </c>
+      <c r="B341">
+        <v>50</v>
+      </c>
+      <c r="C341">
+        <v>1</v>
+      </c>
+      <c r="D341" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A342" t="s">
+        <v>674</v>
+      </c>
+      <c r="B342">
+        <v>50</v>
+      </c>
+      <c r="C342">
+        <v>3</v>
+      </c>
+      <c r="D342" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A343" t="s">
+        <v>676</v>
+      </c>
+      <c r="B343">
+        <v>50</v>
+      </c>
+      <c r="C343">
+        <v>1</v>
+      </c>
+      <c r="D343" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A344" t="s">
+        <v>678</v>
+      </c>
+      <c r="B344">
+        <v>50</v>
+      </c>
+      <c r="C344">
+        <v>1</v>
+      </c>
+      <c r="D344" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A345" t="s">
+        <v>680</v>
+      </c>
+      <c r="B345">
+        <v>50</v>
+      </c>
+      <c r="C345">
+        <v>1</v>
+      </c>
+      <c r="D345" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A346" t="s">
+        <v>682</v>
+      </c>
+      <c r="B346">
+        <v>50</v>
+      </c>
+      <c r="C346">
+        <v>1</v>
+      </c>
+      <c r="D346" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A347" t="s">
+        <v>684</v>
+      </c>
+      <c r="B347">
+        <v>50</v>
+      </c>
+      <c r="C347">
+        <v>1</v>
+      </c>
+      <c r="D347" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A348" t="s">
+        <v>686</v>
+      </c>
+      <c r="B348">
+        <v>50</v>
+      </c>
+      <c r="C348">
+        <v>2</v>
+      </c>
+      <c r="D348" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A349" t="s">
+        <v>688</v>
+      </c>
+      <c r="B349">
+        <v>50</v>
+      </c>
+      <c r="C349">
+        <v>1</v>
+      </c>
+      <c r="D349" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A350" t="s">
+        <v>690</v>
+      </c>
+      <c r="B350">
+        <v>50</v>
+      </c>
+      <c r="C350">
+        <v>1</v>
+      </c>
+      <c r="D350" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A351" t="s">
+        <v>692</v>
+      </c>
+      <c r="B351">
+        <v>50</v>
+      </c>
+      <c r="C351">
+        <v>1</v>
+      </c>
+      <c r="D351" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A352" t="s">
+        <v>694</v>
+      </c>
+      <c r="B352">
+        <v>50</v>
+      </c>
+      <c r="C352">
+        <v>1</v>
+      </c>
+      <c r="D352" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A353" t="s">
+        <v>696</v>
+      </c>
+      <c r="B353">
+        <v>50</v>
+      </c>
+      <c r="C353">
+        <v>1</v>
+      </c>
+      <c r="D353" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A354" t="s">
+        <v>698</v>
+      </c>
+      <c r="B354">
+        <v>59</v>
+      </c>
+      <c r="C354">
+        <v>4</v>
+      </c>
+      <c r="D354" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A355" t="s">
+        <v>700</v>
+      </c>
+      <c r="B355">
+        <v>59</v>
+      </c>
+      <c r="C355">
+        <v>1</v>
+      </c>
+      <c r="D355" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A356" t="s">
+        <v>702</v>
+      </c>
+      <c r="B356">
+        <v>59</v>
+      </c>
+      <c r="C356">
+        <v>1</v>
+      </c>
+      <c r="D356" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A357" t="s">
+        <v>704</v>
+      </c>
+      <c r="B357">
+        <v>59</v>
+      </c>
+      <c r="C357">
+        <v>1</v>
+      </c>
+      <c r="D357" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A358" t="s">
+        <v>706</v>
+      </c>
+      <c r="B358">
+        <v>59</v>
+      </c>
+      <c r="C358">
+        <v>1</v>
+      </c>
+      <c r="D358" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A359" t="s">
+        <v>708</v>
+      </c>
+      <c r="B359">
+        <v>59</v>
+      </c>
+      <c r="C359">
+        <v>1</v>
+      </c>
+      <c r="D359" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A360" t="s">
+        <v>710</v>
+      </c>
+      <c r="B360">
+        <v>59</v>
+      </c>
+      <c r="C360">
+        <v>4</v>
+      </c>
+      <c r="D360" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A361" t="s">
+        <v>712</v>
+      </c>
+      <c r="B361">
+        <v>59</v>
+      </c>
+      <c r="C361">
+        <v>4</v>
+      </c>
+      <c r="D361" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A362" t="s">
+        <v>714</v>
+      </c>
+      <c r="B362">
+        <v>59</v>
+      </c>
+      <c r="C362">
+        <v>1</v>
+      </c>
+      <c r="D362" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A363" t="s">
+        <v>716</v>
+      </c>
+      <c r="B363">
+        <v>59</v>
+      </c>
+      <c r="C363">
+        <v>1</v>
+      </c>
+      <c r="D363" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A364" t="s">
+        <v>718</v>
+      </c>
+      <c r="B364">
+        <v>59</v>
+      </c>
+      <c r="C364">
+        <v>2</v>
+      </c>
+      <c r="D364" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A365" t="s">
+        <v>720</v>
+      </c>
+      <c r="B365">
+        <v>59</v>
+      </c>
+      <c r="C365">
+        <v>2</v>
+      </c>
+      <c r="D365" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A366" t="s">
+        <v>722</v>
+      </c>
+      <c r="B366">
+        <v>59</v>
+      </c>
+      <c r="C366">
+        <v>1</v>
+      </c>
+      <c r="D366" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A367" t="s">
+        <v>724</v>
+      </c>
+      <c r="B367">
+        <v>59</v>
+      </c>
+      <c r="C367">
+        <v>1</v>
+      </c>
+      <c r="D367" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A368" t="s">
+        <v>726</v>
+      </c>
+      <c r="B368">
+        <v>59</v>
+      </c>
+      <c r="C368">
+        <v>1</v>
+      </c>
+      <c r="D368" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A369" t="s">
+        <v>728</v>
+      </c>
+      <c r="B369">
+        <v>59</v>
+      </c>
+      <c r="C369">
+        <v>1</v>
+      </c>
+      <c r="D369" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A370" t="s">
+        <v>730</v>
+      </c>
+      <c r="B370">
+        <v>59</v>
+      </c>
+      <c r="C370">
+        <v>1</v>
+      </c>
+      <c r="D370" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A371" t="s">
+        <v>732</v>
+      </c>
+      <c r="B371">
+        <v>59</v>
+      </c>
+      <c r="C371">
+        <v>1</v>
+      </c>
+      <c r="D371" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A372" t="s">
+        <v>734</v>
+      </c>
+      <c r="B372">
+        <v>59</v>
+      </c>
+      <c r="C372">
+        <v>1</v>
+      </c>
+      <c r="D372" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A373" t="s">
+        <v>736</v>
+      </c>
+      <c r="B373">
+        <v>59</v>
+      </c>
+      <c r="C373">
+        <v>1</v>
+      </c>
+      <c r="D373" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A374" t="s">
+        <v>738</v>
+      </c>
+      <c r="B374">
+        <v>59</v>
+      </c>
+      <c r="C374">
+        <v>1</v>
+      </c>
+      <c r="D374" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A375" t="s">
+        <v>740</v>
+      </c>
+      <c r="B375">
+        <v>59</v>
+      </c>
+      <c r="C375">
+        <v>1</v>
+      </c>
+      <c r="D375" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A376" t="s">
+        <v>742</v>
+      </c>
+      <c r="B376">
+        <v>59</v>
+      </c>
+      <c r="C376">
+        <v>1</v>
+      </c>
+      <c r="D376" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A377" t="s">
+        <v>743</v>
+      </c>
+      <c r="B377">
+        <v>59</v>
+      </c>
+      <c r="C377">
+        <v>1</v>
+      </c>
+      <c r="D377" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A378" t="s">
+        <v>744</v>
+      </c>
+      <c r="B378">
+        <v>59</v>
+      </c>
+      <c r="C378">
+        <v>1</v>
+      </c>
+      <c r="D378" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A379" t="s">
+        <v>746</v>
+      </c>
+      <c r="B379">
+        <v>59</v>
+      </c>
+      <c r="C379">
+        <v>1</v>
+      </c>
+      <c r="D379" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A380" t="s">
+        <v>748</v>
+      </c>
+      <c r="B380">
+        <v>59</v>
+      </c>
+      <c r="C380">
+        <v>4</v>
+      </c>
+      <c r="D380" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A381" t="s">
+        <v>750</v>
+      </c>
+      <c r="B381">
+        <v>59</v>
+      </c>
+      <c r="C381">
+        <v>3</v>
+      </c>
+      <c r="D381" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A382" t="s">
+        <v>752</v>
+      </c>
+      <c r="B382">
+        <v>59</v>
+      </c>
+      <c r="C382">
+        <v>1</v>
+      </c>
+      <c r="D382" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A383" t="s">
+        <v>754</v>
+      </c>
+      <c r="B383">
+        <v>59</v>
+      </c>
+      <c r="C383">
+        <v>1</v>
+      </c>
+      <c r="D383" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A384" t="s">
+        <v>756</v>
+      </c>
+      <c r="B384">
+        <v>59</v>
+      </c>
+      <c r="C384">
+        <v>4</v>
+      </c>
+      <c r="D384" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A385" t="s">
+        <v>758</v>
+      </c>
+      <c r="B385">
+        <v>59</v>
+      </c>
+      <c r="C385">
+        <v>1</v>
+      </c>
+      <c r="D385" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A386" t="s">
+        <v>760</v>
+      </c>
+      <c r="B386">
+        <v>59</v>
+      </c>
+      <c r="C386">
+        <v>1</v>
+      </c>
+      <c r="D386" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A387" t="s">
+        <v>762</v>
+      </c>
+      <c r="B387">
+        <v>59</v>
+      </c>
+      <c r="C387">
+        <v>1</v>
+      </c>
+      <c r="D387" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A388" t="s">
+        <v>764</v>
+      </c>
+      <c r="B388">
+        <v>59</v>
+      </c>
+      <c r="C388">
+        <v>1</v>
+      </c>
+      <c r="D388" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A389" t="s">
+        <v>766</v>
+      </c>
+      <c r="B389">
+        <v>59</v>
+      </c>
+      <c r="C389">
+        <v>1</v>
+      </c>
+      <c r="D389" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A390" t="s">
+        <v>768</v>
+      </c>
+      <c r="B390">
+        <v>25</v>
+      </c>
+      <c r="C390">
+        <v>1</v>
+      </c>
+      <c r="D390" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A391" t="s">
+        <v>770</v>
+      </c>
+      <c r="B391">
+        <v>25</v>
+      </c>
+      <c r="C391">
+        <v>1</v>
+      </c>
+      <c r="D391" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A392" t="s">
+        <v>772</v>
+      </c>
+      <c r="B392">
+        <v>25</v>
+      </c>
+      <c r="C392">
+        <v>1</v>
+      </c>
+      <c r="D392" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A393" t="s">
+        <v>774</v>
+      </c>
+      <c r="B393">
+        <v>25</v>
+      </c>
+      <c r="C393">
+        <v>3</v>
+      </c>
+      <c r="D393" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A394" t="s">
+        <v>775</v>
+      </c>
+      <c r="B394">
+        <v>25</v>
+      </c>
+      <c r="C394">
+        <v>2</v>
+      </c>
+      <c r="D394" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A395" t="s">
+        <v>777</v>
+      </c>
+      <c r="B395">
+        <v>25</v>
+      </c>
+      <c r="C395">
+        <v>1</v>
+      </c>
+      <c r="D395" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A396" t="s">
+        <v>779</v>
+      </c>
+      <c r="B396">
+        <v>25</v>
+      </c>
+      <c r="C396">
+        <v>2</v>
+      </c>
+      <c r="D396" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A397" t="s">
+        <v>781</v>
+      </c>
+      <c r="B397">
+        <v>25</v>
+      </c>
+      <c r="C397">
+        <v>1</v>
+      </c>
+      <c r="D397" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A398" t="s">
+        <v>783</v>
+      </c>
+      <c r="B398">
+        <v>25</v>
+      </c>
+      <c r="C398">
+        <v>2</v>
+      </c>
+      <c r="D398" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A399" t="s">
+        <v>785</v>
+      </c>
+      <c r="B399">
+        <v>25</v>
+      </c>
+      <c r="C399">
+        <v>2</v>
+      </c>
+      <c r="D399" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A400" t="s">
+        <v>787</v>
+      </c>
+      <c r="B400">
+        <v>25</v>
+      </c>
+      <c r="C400">
+        <v>3</v>
+      </c>
+      <c r="D400" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A401" t="s">
+        <v>789</v>
+      </c>
+      <c r="B401">
+        <v>25</v>
+      </c>
+      <c r="C401">
+        <v>1</v>
+      </c>
+      <c r="D401" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A402" t="s">
+        <v>791</v>
+      </c>
+      <c r="B402">
+        <v>25</v>
+      </c>
+      <c r="C402">
+        <v>1</v>
+      </c>
+      <c r="D402" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A403" t="s">
+        <v>793</v>
+      </c>
+      <c r="B403">
+        <v>25</v>
+      </c>
+      <c r="C403">
+        <v>2</v>
+      </c>
+      <c r="D403" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A404" t="s">
+        <v>795</v>
+      </c>
+      <c r="B404">
+        <v>25</v>
+      </c>
+      <c r="C404">
+        <v>2</v>
+      </c>
+      <c r="D404" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A405" t="s">
+        <v>796</v>
+      </c>
+      <c r="B405">
+        <v>25</v>
+      </c>
+      <c r="C405">
+        <v>1</v>
+      </c>
+      <c r="D405" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A406" t="s">
+        <v>798</v>
+      </c>
+      <c r="B406">
+        <v>25</v>
+      </c>
+      <c r="C406">
+        <v>1</v>
+      </c>
+      <c r="D406" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A407" t="s">
+        <v>800</v>
+      </c>
+      <c r="B407">
+        <v>25</v>
+      </c>
+      <c r="C407">
+        <v>1</v>
+      </c>
+      <c r="D407" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A408" t="s">
+        <v>802</v>
+      </c>
+      <c r="B408">
+        <v>25</v>
+      </c>
+      <c r="C408">
+        <v>3</v>
+      </c>
+      <c r="D408" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A409" t="s">
+        <v>803</v>
+      </c>
+      <c r="B409">
+        <v>25</v>
+      </c>
+      <c r="C409">
+        <v>1</v>
+      </c>
+      <c r="D409" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A410" t="s">
+        <v>805</v>
+      </c>
+      <c r="B410">
+        <v>62</v>
+      </c>
+      <c r="C410">
+        <v>1</v>
+      </c>
+      <c r="D410" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A411" t="s">
+        <v>807</v>
+      </c>
+      <c r="B411">
+        <v>62</v>
+      </c>
+      <c r="C411">
+        <v>1</v>
+      </c>
+      <c r="D411" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A412" t="s">
+        <v>809</v>
+      </c>
+      <c r="B412">
+        <v>62</v>
+      </c>
+      <c r="C412">
+        <v>1</v>
+      </c>
+      <c r="D412" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A413" t="s">
+        <v>811</v>
+      </c>
+      <c r="B413">
+        <v>62</v>
+      </c>
+      <c r="C413">
+        <v>1</v>
+      </c>
+      <c r="D413" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A414" t="s">
+        <v>813</v>
+      </c>
+      <c r="B414">
+        <v>62</v>
+      </c>
+      <c r="C414">
+        <v>1</v>
+      </c>
+      <c r="D414" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A415" t="s">
+        <v>815</v>
+      </c>
+      <c r="B415">
+        <v>62</v>
+      </c>
+      <c r="C415">
+        <v>1</v>
+      </c>
+      <c r="D415" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A416" t="s">
+        <v>817</v>
+      </c>
+      <c r="B416">
+        <v>62</v>
+      </c>
+      <c r="C416">
+        <v>1</v>
+      </c>
+      <c r="D416" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A417" t="s">
+        <v>819</v>
+      </c>
+      <c r="B417">
+        <v>62</v>
+      </c>
+      <c r="C417">
+        <v>1</v>
+      </c>
+      <c r="D417" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A418" t="s">
+        <v>821</v>
+      </c>
+      <c r="B418">
+        <v>62</v>
+      </c>
+      <c r="C418">
+        <v>3</v>
+      </c>
+      <c r="D418" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A419" t="s">
+        <v>823</v>
+      </c>
+      <c r="B419">
+        <v>62</v>
+      </c>
+      <c r="C419">
+        <v>2</v>
+      </c>
+      <c r="D419" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A420" t="s">
+        <v>825</v>
+      </c>
+      <c r="B420">
+        <v>62</v>
+      </c>
+      <c r="C420">
+        <v>1</v>
+      </c>
+      <c r="D420" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A421" t="s">
+        <v>827</v>
+      </c>
+      <c r="B421">
+        <v>62</v>
+      </c>
+      <c r="C421">
+        <v>2</v>
+      </c>
+      <c r="D421" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A422" t="s">
+        <v>829</v>
+      </c>
+      <c r="B422">
+        <v>62</v>
+      </c>
+      <c r="C422">
+        <v>1</v>
+      </c>
+      <c r="D422" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A423" t="s">
+        <v>831</v>
+      </c>
+      <c r="B423">
+        <v>62</v>
+      </c>
+      <c r="C423">
+        <v>1</v>
+      </c>
+      <c r="D423" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A424" t="s">
+        <v>833</v>
+      </c>
+      <c r="B424">
+        <v>62</v>
+      </c>
+      <c r="C424">
+        <v>1</v>
+      </c>
+      <c r="D424" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A425" t="s">
+        <v>835</v>
+      </c>
+      <c r="B425">
+        <v>62</v>
+      </c>
+      <c r="C425">
+        <v>1</v>
+      </c>
+      <c r="D425" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A426" t="s">
+        <v>837</v>
+      </c>
+      <c r="B426">
+        <v>62</v>
+      </c>
+      <c r="C426">
+        <v>1</v>
+      </c>
+      <c r="D426" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A427" t="s">
+        <v>839</v>
+      </c>
+      <c r="B427">
+        <v>62</v>
+      </c>
+      <c r="C427">
+        <v>1</v>
+      </c>
+      <c r="D427" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A428" t="s">
+        <v>840</v>
+      </c>
+      <c r="B428">
+        <v>62</v>
+      </c>
+      <c r="C428">
+        <v>1</v>
+      </c>
+      <c r="D428" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A429" t="s">
+        <v>842</v>
+      </c>
+      <c r="B429">
+        <v>62</v>
+      </c>
+      <c r="C429">
+        <v>1</v>
+      </c>
+      <c r="D429" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A430" t="s">
+        <v>844</v>
+      </c>
+      <c r="B430">
+        <v>62</v>
+      </c>
+      <c r="C430">
+        <v>1</v>
+      </c>
+      <c r="D430" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A431" t="s">
+        <v>846</v>
+      </c>
+      <c r="B431">
+        <v>62</v>
+      </c>
+      <c r="C431">
+        <v>1</v>
+      </c>
+      <c r="D431" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A432" t="s">
+        <v>848</v>
+      </c>
+      <c r="B432">
+        <v>63</v>
+      </c>
+      <c r="C432">
+        <v>1</v>
+      </c>
+      <c r="D432" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A433" t="s">
+        <v>850</v>
+      </c>
+      <c r="B433">
+        <v>63</v>
+      </c>
+      <c r="C433">
+        <v>1</v>
+      </c>
+      <c r="D433" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A434" t="s">
+        <v>852</v>
+      </c>
+      <c r="B434">
+        <v>63</v>
+      </c>
+      <c r="C434">
+        <v>2</v>
+      </c>
+      <c r="D434" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A435" t="s">
+        <v>854</v>
+      </c>
+      <c r="B435">
+        <v>63</v>
+      </c>
+      <c r="C435">
+        <v>1</v>
+      </c>
+      <c r="D435" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A436" t="s">
+        <v>856</v>
+      </c>
+      <c r="B436">
+        <v>63</v>
+      </c>
+      <c r="C436">
+        <v>2</v>
+      </c>
+      <c r="D436" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A437" t="s">
+        <v>858</v>
+      </c>
+      <c r="B437">
+        <v>63</v>
+      </c>
+      <c r="C437">
+        <v>1</v>
+      </c>
+      <c r="D437" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A438" t="s">
+        <v>860</v>
+      </c>
+      <c r="B438">
+        <v>63</v>
+      </c>
+      <c r="C438">
+        <v>1</v>
+      </c>
+      <c r="D438" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A439" t="s">
+        <v>862</v>
+      </c>
+      <c r="B439">
+        <v>63</v>
+      </c>
+      <c r="C439">
+        <v>1</v>
+      </c>
+      <c r="D439" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A440" t="s">
+        <v>864</v>
+      </c>
+      <c r="B440">
+        <v>63</v>
+      </c>
+      <c r="C440">
+        <v>1</v>
+      </c>
+      <c r="D440" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A441" t="s">
+        <v>866</v>
+      </c>
+      <c r="B441">
+        <v>63</v>
+      </c>
+      <c r="C441">
+        <v>1</v>
+      </c>
+      <c r="D441" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A442" t="s">
+        <v>867</v>
+      </c>
+      <c r="B442">
+        <v>63</v>
+      </c>
+      <c r="C442">
+        <v>2</v>
+      </c>
+      <c r="D442" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A443" t="s">
+        <v>869</v>
+      </c>
+      <c r="B443">
+        <v>63</v>
+      </c>
+      <c r="C443">
+        <v>1</v>
+      </c>
+      <c r="D443" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A444" t="s">
+        <v>871</v>
+      </c>
+      <c r="B444">
+        <v>63</v>
+      </c>
+      <c r="C444">
+        <v>1</v>
+      </c>
+      <c r="D444" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A445" t="s">
+        <v>873</v>
+      </c>
+      <c r="B445">
+        <v>63</v>
+      </c>
+      <c r="C445">
+        <v>1</v>
+      </c>
+      <c r="D445" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A446" t="s">
+        <v>875</v>
+      </c>
+      <c r="B446">
+        <v>63</v>
+      </c>
+      <c r="C446">
+        <v>1</v>
+      </c>
+      <c r="D446" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A447" t="s">
+        <v>877</v>
+      </c>
+      <c r="B447">
+        <v>63</v>
+      </c>
+      <c r="C447">
+        <v>1</v>
+      </c>
+      <c r="D447" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A448" t="s">
+        <v>879</v>
+      </c>
+      <c r="B448">
+        <v>63</v>
+      </c>
+      <c r="C448">
+        <v>1</v>
+      </c>
+      <c r="D448" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A449" t="s">
+        <v>881</v>
+      </c>
+      <c r="B449">
+        <v>63</v>
+      </c>
+      <c r="C449">
+        <v>1</v>
+      </c>
+      <c r="D449" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A450" t="s">
+        <v>883</v>
+      </c>
+      <c r="B450">
+        <v>63</v>
+      </c>
+      <c r="C450">
+        <v>1</v>
+      </c>
+      <c r="D450" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A451" t="s">
+        <v>885</v>
+      </c>
+      <c r="B451">
+        <v>63</v>
+      </c>
+      <c r="C451">
+        <v>1</v>
+      </c>
+      <c r="D451" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A452" t="s">
+        <v>887</v>
+      </c>
+      <c r="B452">
+        <v>63</v>
+      </c>
+      <c r="C452">
+        <v>1</v>
+      </c>
+      <c r="D452" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A453" t="s">
+        <v>889</v>
+      </c>
+      <c r="B453">
+        <v>66</v>
+      </c>
+      <c r="C453">
+        <v>1</v>
+      </c>
+      <c r="D453" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A454" t="s">
+        <v>891</v>
+      </c>
+      <c r="B454">
+        <v>66</v>
+      </c>
+      <c r="C454">
+        <v>1</v>
+      </c>
+      <c r="D454" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A455" t="s">
+        <v>893</v>
+      </c>
+      <c r="B455">
+        <v>66</v>
+      </c>
+      <c r="C455">
+        <v>1</v>
+      </c>
+      <c r="D455" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A456" t="s">
+        <v>895</v>
+      </c>
+      <c r="B456">
+        <v>66</v>
+      </c>
+      <c r="C456">
+        <v>1</v>
+      </c>
+      <c r="D456" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A457" t="s">
+        <v>897</v>
+      </c>
+      <c r="B457">
+        <v>66</v>
+      </c>
+      <c r="C457">
+        <v>1</v>
+      </c>
+      <c r="D457" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A458" t="s">
+        <v>899</v>
+      </c>
+      <c r="B458">
+        <v>66</v>
+      </c>
+      <c r="C458">
+        <v>1</v>
+      </c>
+      <c r="D458" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A459" t="s">
+        <v>901</v>
+      </c>
+      <c r="B459">
+        <v>66</v>
+      </c>
+      <c r="C459">
+        <v>1</v>
+      </c>
+      <c r="D459" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A460" t="s">
+        <v>903</v>
+      </c>
+      <c r="B460">
+        <v>66</v>
+      </c>
+      <c r="C460">
+        <v>1</v>
+      </c>
+      <c r="D460" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A461" t="s">
+        <v>905</v>
+      </c>
+      <c r="B461">
+        <v>66</v>
+      </c>
+      <c r="C461">
+        <v>4</v>
+      </c>
+      <c r="D461" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A462" t="s">
+        <v>907</v>
+      </c>
+      <c r="B462">
+        <v>66</v>
+      </c>
+      <c r="C462">
+        <v>4</v>
+      </c>
+      <c r="D462" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A463" t="s">
+        <v>909</v>
+      </c>
+      <c r="B463">
+        <v>66</v>
+      </c>
+      <c r="C463">
+        <v>1</v>
+      </c>
+      <c r="D463" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A464" t="s">
+        <v>910</v>
+      </c>
+      <c r="B464">
+        <v>66</v>
+      </c>
+      <c r="C464">
+        <v>2</v>
+      </c>
+      <c r="D464" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A465" t="s">
+        <v>912</v>
+      </c>
+      <c r="B465">
+        <v>66</v>
+      </c>
+      <c r="C465">
+        <v>1</v>
+      </c>
+      <c r="D465" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A466" t="s">
+        <v>914</v>
+      </c>
+      <c r="B466">
+        <v>66</v>
+      </c>
+      <c r="C466">
+        <v>1</v>
+      </c>
+      <c r="D466" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A467" t="s">
+        <v>916</v>
+      </c>
+      <c r="B467">
+        <v>66</v>
+      </c>
+      <c r="C467">
+        <v>3</v>
+      </c>
+      <c r="D467" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A468" t="s">
+        <v>918</v>
+      </c>
+      <c r="B468">
+        <v>66</v>
+      </c>
+      <c r="C468">
+        <v>1</v>
+      </c>
+      <c r="D468" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A469" t="s">
+        <v>919</v>
+      </c>
+      <c r="B469">
+        <v>66</v>
+      </c>
+      <c r="C469">
+        <v>4</v>
+      </c>
+      <c r="D469" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A470" t="s">
+        <v>921</v>
+      </c>
+      <c r="B470">
+        <v>66</v>
+      </c>
+      <c r="C470">
+        <v>3</v>
+      </c>
+      <c r="D470" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A471" t="s">
+        <v>923</v>
+      </c>
+      <c r="B471">
+        <v>66</v>
+      </c>
+      <c r="C471">
+        <v>1</v>
+      </c>
+      <c r="D471" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A472" t="s">
+        <v>925</v>
+      </c>
+      <c r="B472">
+        <v>66</v>
+      </c>
+      <c r="C472">
+        <v>1</v>
+      </c>
+      <c r="D472" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A473" t="s">
+        <v>927</v>
+      </c>
+      <c r="B473">
+        <v>66</v>
+      </c>
+      <c r="C473">
+        <v>1</v>
+      </c>
+      <c r="D473" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A474" t="s">
+        <v>929</v>
+      </c>
+      <c r="B474">
+        <v>66</v>
+      </c>
+      <c r="C474">
+        <v>4</v>
+      </c>
+      <c r="D474" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A475" t="s">
+        <v>931</v>
+      </c>
+      <c r="B475">
+        <v>66</v>
+      </c>
+      <c r="C475">
+        <v>2</v>
+      </c>
+      <c r="D475" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A476" t="s">
+        <v>933</v>
+      </c>
+      <c r="B476">
+        <v>66</v>
+      </c>
+      <c r="C476">
+        <v>1</v>
+      </c>
+      <c r="D476" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A477" t="s">
+        <v>935</v>
+      </c>
+      <c r="B477">
+        <v>66</v>
+      </c>
+      <c r="C477">
+        <v>1</v>
+      </c>
+      <c r="D477" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A478" t="s">
+        <v>937</v>
+      </c>
+      <c r="B478">
+        <v>66</v>
+      </c>
+      <c r="C478">
+        <v>1</v>
+      </c>
+      <c r="D478" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A479" t="s">
+        <v>939</v>
+      </c>
+      <c r="B479">
+        <v>66</v>
+      </c>
+      <c r="C479">
+        <v>3</v>
+      </c>
+      <c r="D479" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A480" t="s">
+        <v>941</v>
+      </c>
+      <c r="B480">
+        <v>66</v>
+      </c>
+      <c r="C480">
+        <v>1</v>
+      </c>
+      <c r="D480" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A481" t="s">
+        <v>943</v>
+      </c>
+      <c r="B481">
+        <v>66</v>
+      </c>
+      <c r="C481">
+        <v>1</v>
+      </c>
+      <c r="D481" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A482" t="s">
+        <v>945</v>
+      </c>
+      <c r="B482">
+        <v>66</v>
+      </c>
+      <c r="C482">
+        <v>4</v>
+      </c>
+      <c r="D482" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A483" t="s">
+        <v>947</v>
+      </c>
+      <c r="B483">
+        <v>66</v>
+      </c>
+      <c r="C483">
+        <v>1</v>
+      </c>
+      <c r="D483" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A484" t="s">
+        <v>949</v>
+      </c>
+      <c r="B484">
+        <v>66</v>
+      </c>
+      <c r="C484">
+        <v>1</v>
+      </c>
+      <c r="D484" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A485" t="s">
+        <v>951</v>
+      </c>
+      <c r="B485">
+        <v>66</v>
+      </c>
+      <c r="C485">
+        <v>3</v>
+      </c>
+      <c r="D485" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A486" t="s">
+        <v>953</v>
+      </c>
+      <c r="B486">
+        <v>66</v>
+      </c>
+      <c r="C486">
+        <v>4</v>
+      </c>
+      <c r="D486" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A487" t="s">
+        <v>955</v>
+      </c>
+      <c r="B487">
+        <v>66</v>
+      </c>
+      <c r="C487">
+        <v>1</v>
+      </c>
+      <c r="D487" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A488" t="s">
+        <v>957</v>
+      </c>
+      <c r="B488">
+        <v>66</v>
+      </c>
+      <c r="C488">
+        <v>1</v>
+      </c>
+      <c r="D488" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A489" t="s">
+        <v>959</v>
+      </c>
+      <c r="B489">
+        <v>66</v>
+      </c>
+      <c r="C489">
+        <v>1</v>
+      </c>
+      <c r="D489" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A490" t="s">
+        <v>961</v>
+      </c>
+      <c r="B490">
+        <v>66</v>
+      </c>
+      <c r="C490">
+        <v>1</v>
+      </c>
+      <c r="D490" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A491" t="s">
+        <v>963</v>
+      </c>
+      <c r="B491">
+        <v>66</v>
+      </c>
+      <c r="C491">
+        <v>5</v>
+      </c>
+      <c r="D491" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A492" t="s">
+        <v>965</v>
+      </c>
+      <c r="B492">
+        <v>66</v>
+      </c>
+      <c r="C492">
+        <v>1</v>
+      </c>
+      <c r="D492" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A493" t="s">
+        <v>967</v>
+      </c>
+      <c r="B493">
+        <v>66</v>
+      </c>
+      <c r="C493">
+        <v>1</v>
+      </c>
+      <c r="D493" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A494" t="s">
+        <v>969</v>
+      </c>
+      <c r="B494">
+        <v>66</v>
+      </c>
+      <c r="C494">
+        <v>1</v>
+      </c>
+      <c r="D494" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A495" t="s">
+        <v>971</v>
+      </c>
+      <c r="B495">
+        <v>66</v>
+      </c>
+      <c r="C495">
+        <v>1</v>
+      </c>
+      <c r="D495" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A496" t="s">
+        <v>972</v>
+      </c>
+      <c r="B496">
+        <v>66</v>
+      </c>
+      <c r="C496">
+        <v>1</v>
+      </c>
+      <c r="D496" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="497" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A497" t="s">
+        <v>974</v>
+      </c>
+      <c r="B497">
+        <v>66</v>
+      </c>
+      <c r="C497">
+        <v>1</v>
+      </c>
+      <c r="D497" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A498" t="s">
+        <v>976</v>
+      </c>
+      <c r="B498">
+        <v>66</v>
+      </c>
+      <c r="C498">
+        <v>1</v>
+      </c>
+      <c r="D498" t="s">
+        <v>977</v>
       </c>
     </row>
   </sheetData>

--- a/catalogsList/05072021/forestry.xlsx
+++ b/catalogsList/05072021/forestry.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="978">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1406" uniqueCount="1350">
   <si>
     <t>id</t>
   </si>
@@ -2950,6 +2950,1122 @@
   </si>
   <si>
     <t>Шалинское</t>
+  </si>
+  <si>
+    <t>G_00317</t>
+  </si>
+  <si>
+    <t>Александровское</t>
+  </si>
+  <si>
+    <t>G_00318</t>
+  </si>
+  <si>
+    <t>Асиновское</t>
+  </si>
+  <si>
+    <t>G_00319</t>
+  </si>
+  <si>
+    <t>Бакчарское</t>
+  </si>
+  <si>
+    <t>G_00324</t>
+  </si>
+  <si>
+    <t>Васюганское</t>
+  </si>
+  <si>
+    <t>G_00321</t>
+  </si>
+  <si>
+    <t>Верхнекетское</t>
+  </si>
+  <si>
+    <t>G_00322</t>
+  </si>
+  <si>
+    <t>Зырянское</t>
+  </si>
+  <si>
+    <t>G_00323</t>
+  </si>
+  <si>
+    <t>Каргасокское</t>
+  </si>
+  <si>
+    <t>G_00329</t>
+  </si>
+  <si>
+    <t>Кедровское</t>
+  </si>
+  <si>
+    <t>G_00325</t>
+  </si>
+  <si>
+    <t>Кожевниковское</t>
+  </si>
+  <si>
+    <t>G_00326</t>
+  </si>
+  <si>
+    <t>Колпашевское</t>
+  </si>
+  <si>
+    <t>G_00336</t>
+  </si>
+  <si>
+    <t>Корниловское</t>
+  </si>
+  <si>
+    <t>G_00327</t>
+  </si>
+  <si>
+    <t>Кривошеинское</t>
+  </si>
+  <si>
+    <t>P_1</t>
+  </si>
+  <si>
+    <t>Лесничество ЗАТО Северск</t>
+  </si>
+  <si>
+    <t>G_00328</t>
+  </si>
+  <si>
+    <t>Молчановское</t>
+  </si>
+  <si>
+    <t>P_265</t>
+  </si>
+  <si>
+    <t>Новосибирское (Томская область)</t>
+  </si>
+  <si>
+    <t>G_00330</t>
+  </si>
+  <si>
+    <t>Парабельское</t>
+  </si>
+  <si>
+    <t>G_00331</t>
+  </si>
+  <si>
+    <t>G_00333</t>
+  </si>
+  <si>
+    <t>Тегульдетское</t>
+  </si>
+  <si>
+    <t>G_00334</t>
+  </si>
+  <si>
+    <t>Тимирязевское</t>
+  </si>
+  <si>
+    <t>G_00335</t>
+  </si>
+  <si>
+    <t>Томское</t>
+  </si>
+  <si>
+    <t>G_00332</t>
+  </si>
+  <si>
+    <t>Улу-Юльское</t>
+  </si>
+  <si>
+    <t>G_00337</t>
+  </si>
+  <si>
+    <t>Чаинское</t>
+  </si>
+  <si>
+    <t>G_00338</t>
+  </si>
+  <si>
+    <t>Шегарское</t>
+  </si>
+  <si>
+    <t>G_01023</t>
+  </si>
+  <si>
+    <t>Абатское</t>
+  </si>
+  <si>
+    <t>G_01024</t>
+  </si>
+  <si>
+    <t>Армизонское</t>
+  </si>
+  <si>
+    <t>G_01025</t>
+  </si>
+  <si>
+    <t>Аромашевское</t>
+  </si>
+  <si>
+    <t>G_01026</t>
+  </si>
+  <si>
+    <t>Бердюжское</t>
+  </si>
+  <si>
+    <t>G_01027</t>
+  </si>
+  <si>
+    <t>Вагайское</t>
+  </si>
+  <si>
+    <t>G_01028</t>
+  </si>
+  <si>
+    <t>Викуловское</t>
+  </si>
+  <si>
+    <t>G_01029</t>
+  </si>
+  <si>
+    <t>Голышмановское</t>
+  </si>
+  <si>
+    <t>G_01030</t>
+  </si>
+  <si>
+    <t>Заводоуковское</t>
+  </si>
+  <si>
+    <t>G_01045</t>
+  </si>
+  <si>
+    <t>Исетское</t>
+  </si>
+  <si>
+    <t>G_01031</t>
+  </si>
+  <si>
+    <t>Ишимское</t>
+  </si>
+  <si>
+    <t>G_01032</t>
+  </si>
+  <si>
+    <t>Казанское</t>
+  </si>
+  <si>
+    <t>G_01033</t>
+  </si>
+  <si>
+    <t>Нижнетавдинское</t>
+  </si>
+  <si>
+    <t>G_01034</t>
+  </si>
+  <si>
+    <t>Омутинское</t>
+  </si>
+  <si>
+    <t>G_01035</t>
+  </si>
+  <si>
+    <t>Сладковское</t>
+  </si>
+  <si>
+    <t>G_01036</t>
+  </si>
+  <si>
+    <t>Сорокинское</t>
+  </si>
+  <si>
+    <t>G_01037</t>
+  </si>
+  <si>
+    <t>Тобольское</t>
+  </si>
+  <si>
+    <t>G_01038</t>
+  </si>
+  <si>
+    <t>Тюменское</t>
+  </si>
+  <si>
+    <t>P_42</t>
+  </si>
+  <si>
+    <t>G_01039</t>
+  </si>
+  <si>
+    <t>Уватское</t>
+  </si>
+  <si>
+    <t>G_01041</t>
+  </si>
+  <si>
+    <t>Упоровское</t>
+  </si>
+  <si>
+    <t>G_01042</t>
+  </si>
+  <si>
+    <t>G_01043</t>
+  </si>
+  <si>
+    <t>Ялуторовское</t>
+  </si>
+  <si>
+    <t>G_01044</t>
+  </si>
+  <si>
+    <t>Ярковское</t>
+  </si>
+  <si>
+    <t>G_01514</t>
+  </si>
+  <si>
+    <t>Аганское</t>
+  </si>
+  <si>
+    <t>G_01494</t>
+  </si>
+  <si>
+    <t>Белоярское</t>
+  </si>
+  <si>
+    <t>G_01495</t>
+  </si>
+  <si>
+    <t>Берёзовское</t>
+  </si>
+  <si>
+    <t>G_01497</t>
+  </si>
+  <si>
+    <t>G_01499</t>
+  </si>
+  <si>
+    <t>Мегионское</t>
+  </si>
+  <si>
+    <t>G_01502</t>
+  </si>
+  <si>
+    <t>Нефтеюганское</t>
+  </si>
+  <si>
+    <t>G_01503</t>
+  </si>
+  <si>
+    <t>Нижневартовское</t>
+  </si>
+  <si>
+    <t>G_01510</t>
+  </si>
+  <si>
+    <t>Няксимвольское</t>
+  </si>
+  <si>
+    <t>G_01504</t>
+  </si>
+  <si>
+    <t>G_01512</t>
+  </si>
+  <si>
+    <t>Самаровское</t>
+  </si>
+  <si>
+    <t>G_01508</t>
+  </si>
+  <si>
+    <t>Советское</t>
+  </si>
+  <si>
+    <t>G_01509</t>
+  </si>
+  <si>
+    <t>Сургутское</t>
+  </si>
+  <si>
+    <t>G_01511</t>
+  </si>
+  <si>
+    <t>Урайское</t>
+  </si>
+  <si>
+    <t>G_01513</t>
+  </si>
+  <si>
+    <t>Юганское</t>
+  </si>
+  <si>
+    <t>G_01429</t>
+  </si>
+  <si>
+    <t>Красноселькупское</t>
+  </si>
+  <si>
+    <t>G_01590</t>
+  </si>
+  <si>
+    <t>Надымское</t>
+  </si>
+  <si>
+    <t>G_01591</t>
+  </si>
+  <si>
+    <t>Ноябрьское</t>
+  </si>
+  <si>
+    <t>G_01428</t>
+  </si>
+  <si>
+    <t>Таркосалинское</t>
+  </si>
+  <si>
+    <t>G_01427</t>
+  </si>
+  <si>
+    <t>Ямальское</t>
+  </si>
+  <si>
+    <t>G_00271</t>
+  </si>
+  <si>
+    <t>Алданское</t>
+  </si>
+  <si>
+    <t>G_00272</t>
+  </si>
+  <si>
+    <t>Амгинское</t>
+  </si>
+  <si>
+    <t>G_00273</t>
+  </si>
+  <si>
+    <t>Верхневилюйское</t>
+  </si>
+  <si>
+    <t>P_59</t>
+  </si>
+  <si>
+    <t>Верхоянское</t>
+  </si>
+  <si>
+    <t>G_00274</t>
+  </si>
+  <si>
+    <t>Вилюйское</t>
+  </si>
+  <si>
+    <t>G_00275</t>
+  </si>
+  <si>
+    <t>Горное</t>
+  </si>
+  <si>
+    <t>P_85</t>
+  </si>
+  <si>
+    <t>ГОСУДАРСТВЕННЫЙ ЗАПОВЕДНИК "ОЛЕКМИНСКИЙ</t>
+  </si>
+  <si>
+    <t>G_00276</t>
+  </si>
+  <si>
+    <t>Жиганское</t>
+  </si>
+  <si>
+    <t>G_00277</t>
+  </si>
+  <si>
+    <t>Индигирское</t>
+  </si>
+  <si>
+    <t>P_60</t>
+  </si>
+  <si>
+    <t>Колымское</t>
+  </si>
+  <si>
+    <t>G_00278</t>
+  </si>
+  <si>
+    <t>Ленское</t>
+  </si>
+  <si>
+    <t>G_00279</t>
+  </si>
+  <si>
+    <t>Мегино-Кангаласское</t>
+  </si>
+  <si>
+    <t>G_00281</t>
+  </si>
+  <si>
+    <t>Мирнинское</t>
+  </si>
+  <si>
+    <t>P_61</t>
+  </si>
+  <si>
+    <t>Намское</t>
+  </si>
+  <si>
+    <t>G_00282</t>
+  </si>
+  <si>
+    <t>Нерюнгринское</t>
+  </si>
+  <si>
+    <t>G_00283</t>
+  </si>
+  <si>
+    <t>Нюрбинское</t>
+  </si>
+  <si>
+    <t>G_00284</t>
+  </si>
+  <si>
+    <t>Олекминское</t>
+  </si>
+  <si>
+    <t>P_62</t>
+  </si>
+  <si>
+    <t>Сангарское</t>
+  </si>
+  <si>
+    <t>G_00285</t>
+  </si>
+  <si>
+    <t>Сунтарское</t>
+  </si>
+  <si>
+    <t>P_63</t>
+  </si>
+  <si>
+    <t>Таттинское</t>
+  </si>
+  <si>
+    <t>G_00286</t>
+  </si>
+  <si>
+    <t>Томпонское</t>
+  </si>
+  <si>
+    <t>G_00287</t>
+  </si>
+  <si>
+    <t>Усть-Алданское</t>
+  </si>
+  <si>
+    <t>G_00288</t>
+  </si>
+  <si>
+    <t>Усть-Майское</t>
+  </si>
+  <si>
+    <t>G_00289</t>
+  </si>
+  <si>
+    <t>Хангаласское</t>
+  </si>
+  <si>
+    <t>P_64</t>
+  </si>
+  <si>
+    <t>Чурапчинское</t>
+  </si>
+  <si>
+    <t>G_00290</t>
+  </si>
+  <si>
+    <t>Якутское</t>
+  </si>
+  <si>
+    <t>G_01383</t>
+  </si>
+  <si>
+    <t>Большесельское</t>
+  </si>
+  <si>
+    <t>G_01384</t>
+  </si>
+  <si>
+    <t>Борисоглебское</t>
+  </si>
+  <si>
+    <t>G_01385</t>
+  </si>
+  <si>
+    <t>Брейтовское</t>
+  </si>
+  <si>
+    <t>G_01386</t>
+  </si>
+  <si>
+    <t>Гаврилов-Ямское</t>
+  </si>
+  <si>
+    <t>P_206</t>
+  </si>
+  <si>
+    <t>Гороховецкое (Ярославская область)</t>
+  </si>
+  <si>
+    <t>G_01387</t>
+  </si>
+  <si>
+    <t>Даниловское</t>
+  </si>
+  <si>
+    <t>P_251</t>
+  </si>
+  <si>
+    <t>Костеровское (Ярославская область)</t>
+  </si>
+  <si>
+    <t>G_01388</t>
+  </si>
+  <si>
+    <t>Любимское</t>
+  </si>
+  <si>
+    <t>P_153</t>
+  </si>
+  <si>
+    <t>Национальный парк "Плещеево озеро"</t>
+  </si>
+  <si>
+    <t>G_01389</t>
+  </si>
+  <si>
+    <t>Некоузское</t>
+  </si>
+  <si>
+    <t>G_01390</t>
+  </si>
+  <si>
+    <t>Переславское</t>
+  </si>
+  <si>
+    <t>G_01391</t>
+  </si>
+  <si>
+    <t>Пошехонское</t>
+  </si>
+  <si>
+    <t>G_01392</t>
+  </si>
+  <si>
+    <t>Пречистенское</t>
+  </si>
+  <si>
+    <t>G_01393</t>
+  </si>
+  <si>
+    <t>Ростовское</t>
+  </si>
+  <si>
+    <t>G_01394</t>
+  </si>
+  <si>
+    <t>G_01395</t>
+  </si>
+  <si>
+    <t>Тутаевское</t>
+  </si>
+  <si>
+    <t>G_01396</t>
+  </si>
+  <si>
+    <t>Угличское</t>
+  </si>
+  <si>
+    <t>G_01397</t>
+  </si>
+  <si>
+    <t>Ярославское</t>
+  </si>
+  <si>
+    <t>G_00366</t>
+  </si>
+  <si>
+    <t>Аванское</t>
+  </si>
+  <si>
+    <t>G_00368</t>
+  </si>
+  <si>
+    <t>Амгуньское</t>
+  </si>
+  <si>
+    <t>G_00373</t>
+  </si>
+  <si>
+    <t>Аянское</t>
+  </si>
+  <si>
+    <t>G_00402</t>
+  </si>
+  <si>
+    <t>Баджальское</t>
+  </si>
+  <si>
+    <t>G_00367</t>
+  </si>
+  <si>
+    <t>Бикинское</t>
+  </si>
+  <si>
+    <t>G_00390</t>
+  </si>
+  <si>
+    <t>Болоньское</t>
+  </si>
+  <si>
+    <t>G_00397</t>
+  </si>
+  <si>
+    <t>G_00393</t>
+  </si>
+  <si>
+    <t>Высокогорное</t>
+  </si>
+  <si>
+    <t>G_00369</t>
+  </si>
+  <si>
+    <t>Горинское</t>
+  </si>
+  <si>
+    <t>P_90</t>
+  </si>
+  <si>
+    <t>Государственный  природный заповедник  "Болоньскийй"</t>
+  </si>
+  <si>
+    <t>P_93</t>
+  </si>
+  <si>
+    <t>Государственный  природный заповедник "Ботчинский"</t>
+  </si>
+  <si>
+    <t>P_94</t>
+  </si>
+  <si>
+    <t>Государственный  природный заповедник "Буреинский"</t>
+  </si>
+  <si>
+    <t>P_95</t>
+  </si>
+  <si>
+    <t>Государственный  природный заповедник "Джугджурский"</t>
+  </si>
+  <si>
+    <t>G_00377</t>
+  </si>
+  <si>
+    <t>Гурское</t>
+  </si>
+  <si>
+    <t>G_00398</t>
+  </si>
+  <si>
+    <t>Де-Кастринское</t>
+  </si>
+  <si>
+    <t>G_00386</t>
+  </si>
+  <si>
+    <t>Иннокентьевское</t>
+  </si>
+  <si>
+    <t>G_00372</t>
+  </si>
+  <si>
+    <t>Кербинское</t>
+  </si>
+  <si>
+    <t>G_00399</t>
+  </si>
+  <si>
+    <t>Кизинское</t>
+  </si>
+  <si>
+    <t>G_00376</t>
+  </si>
+  <si>
+    <t>Комсомольское</t>
+  </si>
+  <si>
+    <t>G_00405</t>
+  </si>
+  <si>
+    <t>Кур-Урмийское</t>
+  </si>
+  <si>
+    <t>G_00388</t>
+  </si>
+  <si>
+    <t>Лазаревское</t>
+  </si>
+  <si>
+    <t>G_00391</t>
+  </si>
+  <si>
+    <t>Литовское</t>
+  </si>
+  <si>
+    <t>G_00381</t>
+  </si>
+  <si>
+    <t>Мухенское</t>
+  </si>
+  <si>
+    <t>G_00385</t>
+  </si>
+  <si>
+    <t>Нанайское</t>
+  </si>
+  <si>
+    <t>P_91</t>
+  </si>
+  <si>
+    <t>Национальный парк «Анюйский»</t>
+  </si>
+  <si>
+    <t>G_00378</t>
+  </si>
+  <si>
+    <t>Нижнетамбовское</t>
+  </si>
+  <si>
+    <t>G_00387</t>
+  </si>
+  <si>
+    <t>Николаевское</t>
+  </si>
+  <si>
+    <t>G_00382</t>
+  </si>
+  <si>
+    <t>Оборское</t>
+  </si>
+  <si>
+    <t>G_00374</t>
+  </si>
+  <si>
+    <t>Охотское</t>
+  </si>
+  <si>
+    <t>G_00389</t>
+  </si>
+  <si>
+    <t>Падалинское</t>
+  </si>
+  <si>
+    <t>G_00392</t>
+  </si>
+  <si>
+    <t>G_00395</t>
+  </si>
+  <si>
+    <t>G_00370</t>
+  </si>
+  <si>
+    <t>Солнечное</t>
+  </si>
+  <si>
+    <t>G_00384</t>
+  </si>
+  <si>
+    <t>Сукпайское</t>
+  </si>
+  <si>
+    <t>G_00394</t>
+  </si>
+  <si>
+    <t>Тумнинское</t>
+  </si>
+  <si>
+    <t>G_00403</t>
+  </si>
+  <si>
+    <t>Тырминское</t>
+  </si>
+  <si>
+    <t>G_00379</t>
+  </si>
+  <si>
+    <t>Уктурское</t>
+  </si>
+  <si>
+    <t>G_00406</t>
+  </si>
+  <si>
+    <t>Уликанское</t>
+  </si>
+  <si>
+    <t>G_00396</t>
+  </si>
+  <si>
+    <t>Ульчское</t>
+  </si>
+  <si>
+    <t>G_00401</t>
+  </si>
+  <si>
+    <t>Ургальское</t>
+  </si>
+  <si>
+    <t>G_00404</t>
+  </si>
+  <si>
+    <t>Хабаровское</t>
+  </si>
+  <si>
+    <t>P_29</t>
+  </si>
+  <si>
+    <t>G_00407</t>
+  </si>
+  <si>
+    <t>Хехцирское</t>
+  </si>
+  <si>
+    <t>G_00383</t>
+  </si>
+  <si>
+    <t>Хорское</t>
+  </si>
+  <si>
+    <t>G_00375</t>
+  </si>
+  <si>
+    <t>Чумиканское</t>
+  </si>
+  <si>
+    <t>G_00371</t>
+  </si>
+  <si>
+    <t>Эворонское</t>
+  </si>
+  <si>
+    <t>G_01486</t>
+  </si>
+  <si>
+    <t>Беломорское</t>
+  </si>
+  <si>
+    <t>P_179</t>
+  </si>
+  <si>
+    <t>Заповедник "Костомукшский"</t>
+  </si>
+  <si>
+    <t>G_01484</t>
+  </si>
+  <si>
+    <t>Калевальское</t>
+  </si>
+  <si>
+    <t>G_01578</t>
+  </si>
+  <si>
+    <t>Кемское</t>
+  </si>
+  <si>
+    <t>G_01579</t>
+  </si>
+  <si>
+    <t>Кондопожское</t>
+  </si>
+  <si>
+    <t>G_01485</t>
+  </si>
+  <si>
+    <t>Костомукшское</t>
+  </si>
+  <si>
+    <t>G_01581</t>
+  </si>
+  <si>
+    <t>Лахденпохское</t>
+  </si>
+  <si>
+    <t>G_01483</t>
+  </si>
+  <si>
+    <t>Лоухское</t>
+  </si>
+  <si>
+    <t>G_01487</t>
+  </si>
+  <si>
+    <t>Медвежьегорское</t>
+  </si>
+  <si>
+    <t>G_01582</t>
+  </si>
+  <si>
+    <t>Муезерское</t>
+  </si>
+  <si>
+    <t>P_181</t>
+  </si>
+  <si>
+    <t>Национальный парк "Водлозерский"</t>
+  </si>
+  <si>
+    <t>P_186</t>
+  </si>
+  <si>
+    <t>Национальный парк "Паанаярви"</t>
+  </si>
+  <si>
+    <t>P_174</t>
+  </si>
+  <si>
+    <t>Нижне-Свирский запове</t>
+  </si>
+  <si>
+    <t>G_01583</t>
+  </si>
+  <si>
+    <t>Олонецкое</t>
+  </si>
+  <si>
+    <t>G_01491</t>
+  </si>
+  <si>
+    <t>Питкярантское</t>
+  </si>
+  <si>
+    <t>G_01489</t>
+  </si>
+  <si>
+    <t>Прионежское</t>
+  </si>
+  <si>
+    <t>G_01490</t>
+  </si>
+  <si>
+    <t>Пряжинское</t>
+  </si>
+  <si>
+    <t>G_01488</t>
+  </si>
+  <si>
+    <t>Пудожское</t>
+  </si>
+  <si>
+    <t>G_01584</t>
+  </si>
+  <si>
+    <t>Сегежское</t>
+  </si>
+  <si>
+    <t>G_01493</t>
+  </si>
+  <si>
+    <t>Сортавальское</t>
+  </si>
+  <si>
+    <t>G_01492</t>
+  </si>
+  <si>
+    <t>Суоярвское</t>
+  </si>
+  <si>
+    <t>P_18</t>
+  </si>
+  <si>
+    <t>G_01518</t>
+  </si>
+  <si>
+    <t>G_01521</t>
+  </si>
+  <si>
+    <t>Варгашинское</t>
+  </si>
+  <si>
+    <t>G_01527</t>
+  </si>
+  <si>
+    <t>Глядянское</t>
+  </si>
+  <si>
+    <t>P_207</t>
+  </si>
+  <si>
+    <t>Городские леса города Кургана</t>
+  </si>
+  <si>
+    <t>G_01515</t>
+  </si>
+  <si>
+    <t>Далматовское</t>
+  </si>
+  <si>
+    <t>G_01519</t>
+  </si>
+  <si>
+    <t>Каргапольское</t>
+  </si>
+  <si>
+    <t>G_01524</t>
+  </si>
+  <si>
+    <t>Курганское</t>
+  </si>
+  <si>
+    <t>G_01526</t>
+  </si>
+  <si>
+    <t>Куртамышское</t>
+  </si>
+  <si>
+    <t>P_5</t>
+  </si>
+  <si>
+    <t>Лесопарк г. Шадринска</t>
+  </si>
+  <si>
+    <t>G_01525</t>
+  </si>
+  <si>
+    <t>Петуховское</t>
+  </si>
+  <si>
+    <t>P_259</t>
+  </si>
+  <si>
+    <t>Свердловское (Курганская область)</t>
+  </si>
+  <si>
+    <t>G_01516</t>
+  </si>
+  <si>
+    <t>Шадринское</t>
+  </si>
+  <si>
+    <t>G_01517</t>
+  </si>
+  <si>
+    <t>Шатровское</t>
+  </si>
+  <si>
+    <t>G_01522</t>
+  </si>
+  <si>
+    <t>Шумихинское</t>
+  </si>
+  <si>
+    <t>G_01523</t>
+  </si>
+  <si>
+    <t>Юргамышское</t>
   </si>
 </sst>
 </file>
@@ -3309,10 +4425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D498"/>
+  <dimension ref="A1:D690"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A438" workbookViewId="0">
-      <selection activeCell="G451" sqref="G451"/>
+    <sheetView tabSelected="1" topLeftCell="A660" workbookViewId="0">
+      <selection activeCell="E677" sqref="E677"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10293,6 +11409,2694 @@
       </c>
       <c r="D498" t="s">
         <v>977</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A499" t="s">
+        <v>978</v>
+      </c>
+      <c r="B499">
+        <v>70</v>
+      </c>
+      <c r="C499">
+        <v>1</v>
+      </c>
+      <c r="D499" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A500" t="s">
+        <v>980</v>
+      </c>
+      <c r="B500">
+        <v>70</v>
+      </c>
+      <c r="C500">
+        <v>1</v>
+      </c>
+      <c r="D500" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="501" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A501" t="s">
+        <v>982</v>
+      </c>
+      <c r="B501">
+        <v>70</v>
+      </c>
+      <c r="C501">
+        <v>1</v>
+      </c>
+      <c r="D501" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="502" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A502" t="s">
+        <v>984</v>
+      </c>
+      <c r="B502">
+        <v>70</v>
+      </c>
+      <c r="C502">
+        <v>1</v>
+      </c>
+      <c r="D502" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="503" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A503" t="s">
+        <v>986</v>
+      </c>
+      <c r="B503">
+        <v>70</v>
+      </c>
+      <c r="C503">
+        <v>1</v>
+      </c>
+      <c r="D503" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="504" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A504" t="s">
+        <v>988</v>
+      </c>
+      <c r="B504">
+        <v>70</v>
+      </c>
+      <c r="C504">
+        <v>1</v>
+      </c>
+      <c r="D504" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="505" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A505" t="s">
+        <v>990</v>
+      </c>
+      <c r="B505">
+        <v>70</v>
+      </c>
+      <c r="C505">
+        <v>1</v>
+      </c>
+      <c r="D505" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="506" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A506" t="s">
+        <v>992</v>
+      </c>
+      <c r="B506">
+        <v>70</v>
+      </c>
+      <c r="C506">
+        <v>1</v>
+      </c>
+      <c r="D506" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="507" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A507" t="s">
+        <v>994</v>
+      </c>
+      <c r="B507">
+        <v>70</v>
+      </c>
+      <c r="C507">
+        <v>1</v>
+      </c>
+      <c r="D507" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="508" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A508" t="s">
+        <v>996</v>
+      </c>
+      <c r="B508">
+        <v>70</v>
+      </c>
+      <c r="C508">
+        <v>1</v>
+      </c>
+      <c r="D508" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="509" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A509" t="s">
+        <v>998</v>
+      </c>
+      <c r="B509">
+        <v>70</v>
+      </c>
+      <c r="C509">
+        <v>1</v>
+      </c>
+      <c r="D509" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A510" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B510">
+        <v>70</v>
+      </c>
+      <c r="C510">
+        <v>1</v>
+      </c>
+      <c r="D510" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A511" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B511">
+        <v>70</v>
+      </c>
+      <c r="C511">
+        <v>9</v>
+      </c>
+      <c r="D511" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A512" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B512">
+        <v>70</v>
+      </c>
+      <c r="C512">
+        <v>1</v>
+      </c>
+      <c r="D512" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A513" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B513">
+        <v>70</v>
+      </c>
+      <c r="C513">
+        <v>3</v>
+      </c>
+      <c r="D513" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A514" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B514">
+        <v>70</v>
+      </c>
+      <c r="C514">
+        <v>1</v>
+      </c>
+      <c r="D514" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A515" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B515">
+        <v>70</v>
+      </c>
+      <c r="C515">
+        <v>1</v>
+      </c>
+      <c r="D515" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A516" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B516">
+        <v>70</v>
+      </c>
+      <c r="C516">
+        <v>1</v>
+      </c>
+      <c r="D516" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A517" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B517">
+        <v>70</v>
+      </c>
+      <c r="C517">
+        <v>1</v>
+      </c>
+      <c r="D517" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A518" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B518">
+        <v>70</v>
+      </c>
+      <c r="C518">
+        <v>1</v>
+      </c>
+      <c r="D518" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A519" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B519">
+        <v>70</v>
+      </c>
+      <c r="C519">
+        <v>1</v>
+      </c>
+      <c r="D519" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A520" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B520">
+        <v>70</v>
+      </c>
+      <c r="C520">
+        <v>1</v>
+      </c>
+      <c r="D520" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A521" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B521">
+        <v>70</v>
+      </c>
+      <c r="C521">
+        <v>1</v>
+      </c>
+      <c r="D521" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A522" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B522">
+        <v>72</v>
+      </c>
+      <c r="C522">
+        <v>1</v>
+      </c>
+      <c r="D522" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A523" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B523">
+        <v>72</v>
+      </c>
+      <c r="C523">
+        <v>1</v>
+      </c>
+      <c r="D523" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A524" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B524">
+        <v>72</v>
+      </c>
+      <c r="C524">
+        <v>1</v>
+      </c>
+      <c r="D524" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A525" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B525">
+        <v>72</v>
+      </c>
+      <c r="C525">
+        <v>1</v>
+      </c>
+      <c r="D525" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A526" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B526">
+        <v>72</v>
+      </c>
+      <c r="C526">
+        <v>1</v>
+      </c>
+      <c r="D526" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A527" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B527">
+        <v>72</v>
+      </c>
+      <c r="C527">
+        <v>1</v>
+      </c>
+      <c r="D527" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="528" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A528" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B528">
+        <v>72</v>
+      </c>
+      <c r="C528">
+        <v>1</v>
+      </c>
+      <c r="D528" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="529" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A529" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B529">
+        <v>72</v>
+      </c>
+      <c r="C529">
+        <v>1</v>
+      </c>
+      <c r="D529" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="530" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A530" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B530">
+        <v>72</v>
+      </c>
+      <c r="C530">
+        <v>1</v>
+      </c>
+      <c r="D530" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="531" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A531" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B531">
+        <v>72</v>
+      </c>
+      <c r="C531">
+        <v>1</v>
+      </c>
+      <c r="D531" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="532" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A532" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B532">
+        <v>72</v>
+      </c>
+      <c r="C532">
+        <v>1</v>
+      </c>
+      <c r="D532" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="533" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A533" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B533">
+        <v>72</v>
+      </c>
+      <c r="C533">
+        <v>1</v>
+      </c>
+      <c r="D533" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="534" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A534" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B534">
+        <v>72</v>
+      </c>
+      <c r="C534">
+        <v>1</v>
+      </c>
+      <c r="D534" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="535" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A535" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B535">
+        <v>72</v>
+      </c>
+      <c r="C535">
+        <v>1</v>
+      </c>
+      <c r="D535" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="536" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A536" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B536">
+        <v>72</v>
+      </c>
+      <c r="C536">
+        <v>1</v>
+      </c>
+      <c r="D536" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="537" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A537" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B537">
+        <v>72</v>
+      </c>
+      <c r="C537">
+        <v>1</v>
+      </c>
+      <c r="D537" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="538" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A538" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B538">
+        <v>72</v>
+      </c>
+      <c r="C538">
+        <v>1</v>
+      </c>
+      <c r="D538" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="539" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A539" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B539">
+        <v>72</v>
+      </c>
+      <c r="C539">
+        <v>3</v>
+      </c>
+      <c r="D539" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="540" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A540" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B540">
+        <v>72</v>
+      </c>
+      <c r="C540">
+        <v>1</v>
+      </c>
+      <c r="D540" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="541" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A541" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B541">
+        <v>72</v>
+      </c>
+      <c r="C541">
+        <v>1</v>
+      </c>
+      <c r="D541" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="542" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A542" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B542">
+        <v>72</v>
+      </c>
+      <c r="C542">
+        <v>1</v>
+      </c>
+      <c r="D542" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="543" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A543" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B543">
+        <v>72</v>
+      </c>
+      <c r="C543">
+        <v>1</v>
+      </c>
+      <c r="D543" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="544" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A544" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B544">
+        <v>72</v>
+      </c>
+      <c r="C544">
+        <v>1</v>
+      </c>
+      <c r="D544" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="545" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A545" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B545">
+        <v>86</v>
+      </c>
+      <c r="C545">
+        <v>1</v>
+      </c>
+      <c r="D545" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="546" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A546" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B546">
+        <v>86</v>
+      </c>
+      <c r="C546">
+        <v>1</v>
+      </c>
+      <c r="D546" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="547" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A547" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B547">
+        <v>86</v>
+      </c>
+      <c r="C547">
+        <v>1</v>
+      </c>
+      <c r="D547" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="548" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A548" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B548">
+        <v>86</v>
+      </c>
+      <c r="C548">
+        <v>1</v>
+      </c>
+      <c r="D548" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="549" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A549" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B549">
+        <v>86</v>
+      </c>
+      <c r="C549">
+        <v>1</v>
+      </c>
+      <c r="D549" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="550" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A550" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B550">
+        <v>86</v>
+      </c>
+      <c r="C550">
+        <v>1</v>
+      </c>
+      <c r="D550" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="551" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A551" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B551">
+        <v>86</v>
+      </c>
+      <c r="C551">
+        <v>1</v>
+      </c>
+      <c r="D551" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="552" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A552" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B552">
+        <v>86</v>
+      </c>
+      <c r="C552">
+        <v>1</v>
+      </c>
+      <c r="D552" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="553" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A553" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B553">
+        <v>86</v>
+      </c>
+      <c r="C553">
+        <v>1</v>
+      </c>
+      <c r="D553" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="554" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A554" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B554">
+        <v>86</v>
+      </c>
+      <c r="C554">
+        <v>1</v>
+      </c>
+      <c r="D554" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="555" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A555" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B555">
+        <v>86</v>
+      </c>
+      <c r="C555">
+        <v>1</v>
+      </c>
+      <c r="D555" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="556" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A556" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B556">
+        <v>86</v>
+      </c>
+      <c r="C556">
+        <v>1</v>
+      </c>
+      <c r="D556" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="557" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A557" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B557">
+        <v>86</v>
+      </c>
+      <c r="C557">
+        <v>1</v>
+      </c>
+      <c r="D557" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="558" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A558" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B558">
+        <v>86</v>
+      </c>
+      <c r="C558">
+        <v>1</v>
+      </c>
+      <c r="D558" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="559" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A559" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B559">
+        <v>89</v>
+      </c>
+      <c r="C559">
+        <v>1</v>
+      </c>
+      <c r="D559" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="560" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A560" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B560">
+        <v>89</v>
+      </c>
+      <c r="C560">
+        <v>1</v>
+      </c>
+      <c r="D560" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="561" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A561" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B561">
+        <v>89</v>
+      </c>
+      <c r="C561">
+        <v>1</v>
+      </c>
+      <c r="D561" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="562" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A562" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B562">
+        <v>89</v>
+      </c>
+      <c r="C562">
+        <v>1</v>
+      </c>
+      <c r="D562" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="563" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A563" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B563">
+        <v>89</v>
+      </c>
+      <c r="C563">
+        <v>1</v>
+      </c>
+      <c r="D563" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="564" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A564" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B564">
+        <v>14</v>
+      </c>
+      <c r="C564">
+        <v>1</v>
+      </c>
+      <c r="D564" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="565" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A565" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B565">
+        <v>14</v>
+      </c>
+      <c r="C565">
+        <v>1</v>
+      </c>
+      <c r="D565" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="566" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A566" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B566">
+        <v>14</v>
+      </c>
+      <c r="C566">
+        <v>1</v>
+      </c>
+      <c r="D566" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="567" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A567" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B567">
+        <v>14</v>
+      </c>
+      <c r="C567">
+        <v>1</v>
+      </c>
+      <c r="D567" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="568" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A568" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B568">
+        <v>14</v>
+      </c>
+      <c r="C568">
+        <v>1</v>
+      </c>
+      <c r="D568" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="569" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A569" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B569">
+        <v>14</v>
+      </c>
+      <c r="C569">
+        <v>1</v>
+      </c>
+      <c r="D569" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="570" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A570" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B570">
+        <v>14</v>
+      </c>
+      <c r="C570">
+        <v>2</v>
+      </c>
+      <c r="D570" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="571" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A571" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B571">
+        <v>14</v>
+      </c>
+      <c r="C571">
+        <v>1</v>
+      </c>
+      <c r="D571" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="572" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A572" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B572">
+        <v>14</v>
+      </c>
+      <c r="C572">
+        <v>1</v>
+      </c>
+      <c r="D572" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="573" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A573" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B573">
+        <v>14</v>
+      </c>
+      <c r="C573">
+        <v>1</v>
+      </c>
+      <c r="D573" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="574" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A574" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B574">
+        <v>14</v>
+      </c>
+      <c r="C574">
+        <v>1</v>
+      </c>
+      <c r="D574" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="575" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A575" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B575">
+        <v>14</v>
+      </c>
+      <c r="C575">
+        <v>1</v>
+      </c>
+      <c r="D575" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="576" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A576" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B576">
+        <v>14</v>
+      </c>
+      <c r="C576">
+        <v>1</v>
+      </c>
+      <c r="D576" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="577" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A577" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B577">
+        <v>14</v>
+      </c>
+      <c r="C577">
+        <v>1</v>
+      </c>
+      <c r="D577" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="578" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A578" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B578">
+        <v>14</v>
+      </c>
+      <c r="C578">
+        <v>1</v>
+      </c>
+      <c r="D578" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="579" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A579" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B579">
+        <v>14</v>
+      </c>
+      <c r="C579">
+        <v>1</v>
+      </c>
+      <c r="D579" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="580" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A580" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B580">
+        <v>14</v>
+      </c>
+      <c r="C580">
+        <v>1</v>
+      </c>
+      <c r="D580" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="581" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A581" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B581">
+        <v>14</v>
+      </c>
+      <c r="C581">
+        <v>1</v>
+      </c>
+      <c r="D581" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="582" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A582" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B582">
+        <v>14</v>
+      </c>
+      <c r="C582">
+        <v>1</v>
+      </c>
+      <c r="D582" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="583" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A583" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B583">
+        <v>14</v>
+      </c>
+      <c r="C583">
+        <v>1</v>
+      </c>
+      <c r="D583" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="584" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A584" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B584">
+        <v>14</v>
+      </c>
+      <c r="C584">
+        <v>1</v>
+      </c>
+      <c r="D584" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="585" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A585" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B585">
+        <v>14</v>
+      </c>
+      <c r="C585">
+        <v>1</v>
+      </c>
+      <c r="D585" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="586" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A586" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B586">
+        <v>14</v>
+      </c>
+      <c r="C586">
+        <v>1</v>
+      </c>
+      <c r="D586" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="587" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A587" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B587">
+        <v>14</v>
+      </c>
+      <c r="C587">
+        <v>1</v>
+      </c>
+      <c r="D587" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="588" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A588" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B588">
+        <v>14</v>
+      </c>
+      <c r="C588">
+        <v>1</v>
+      </c>
+      <c r="D588" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="589" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A589" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B589">
+        <v>14</v>
+      </c>
+      <c r="C589">
+        <v>1</v>
+      </c>
+      <c r="D589" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="590" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A590" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B590">
+        <v>76</v>
+      </c>
+      <c r="C590">
+        <v>1</v>
+      </c>
+      <c r="D590" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="591" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A591" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B591">
+        <v>76</v>
+      </c>
+      <c r="C591">
+        <v>1</v>
+      </c>
+      <c r="D591" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="592" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A592" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B592">
+        <v>76</v>
+      </c>
+      <c r="C592">
+        <v>1</v>
+      </c>
+      <c r="D592" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="593" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A593" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B593">
+        <v>76</v>
+      </c>
+      <c r="C593">
+        <v>1</v>
+      </c>
+      <c r="D593" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="594" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A594" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B594">
+        <v>76</v>
+      </c>
+      <c r="C594">
+        <v>3</v>
+      </c>
+      <c r="D594" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="595" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A595" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B595">
+        <v>76</v>
+      </c>
+      <c r="C595">
+        <v>1</v>
+      </c>
+      <c r="D595" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="596" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A596" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B596">
+        <v>76</v>
+      </c>
+      <c r="C596">
+        <v>3</v>
+      </c>
+      <c r="D596" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="597" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A597" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B597">
+        <v>76</v>
+      </c>
+      <c r="C597">
+        <v>1</v>
+      </c>
+      <c r="D597" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="598" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A598" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B598">
+        <v>76</v>
+      </c>
+      <c r="C598">
+        <v>2</v>
+      </c>
+      <c r="D598" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="599" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A599" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B599">
+        <v>76</v>
+      </c>
+      <c r="C599">
+        <v>1</v>
+      </c>
+      <c r="D599" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="600" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A600" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B600">
+        <v>76</v>
+      </c>
+      <c r="C600">
+        <v>1</v>
+      </c>
+      <c r="D600" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="601" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A601" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B601">
+        <v>76</v>
+      </c>
+      <c r="C601">
+        <v>1</v>
+      </c>
+      <c r="D601" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="602" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A602" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B602">
+        <v>76</v>
+      </c>
+      <c r="C602">
+        <v>1</v>
+      </c>
+      <c r="D602" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="603" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A603" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B603">
+        <v>76</v>
+      </c>
+      <c r="C603">
+        <v>1</v>
+      </c>
+      <c r="D603" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="604" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A604" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B604">
+        <v>76</v>
+      </c>
+      <c r="C604">
+        <v>1</v>
+      </c>
+      <c r="D604" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="605" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A605" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B605">
+        <v>76</v>
+      </c>
+      <c r="C605">
+        <v>1</v>
+      </c>
+      <c r="D605" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="606" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A606" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B606">
+        <v>76</v>
+      </c>
+      <c r="C606">
+        <v>1</v>
+      </c>
+      <c r="D606" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="607" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A607" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B607">
+        <v>76</v>
+      </c>
+      <c r="C607">
+        <v>1</v>
+      </c>
+      <c r="D607" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="608" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A608" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B608">
+        <v>27</v>
+      </c>
+      <c r="C608">
+        <v>1</v>
+      </c>
+      <c r="D608" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="609" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A609" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B609">
+        <v>27</v>
+      </c>
+      <c r="C609">
+        <v>1</v>
+      </c>
+      <c r="D609" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="610" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A610" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B610">
+        <v>27</v>
+      </c>
+      <c r="C610">
+        <v>1</v>
+      </c>
+      <c r="D610" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="611" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A611" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B611">
+        <v>27</v>
+      </c>
+      <c r="C611">
+        <v>1</v>
+      </c>
+      <c r="D611" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="612" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A612" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B612">
+        <v>27</v>
+      </c>
+      <c r="C612">
+        <v>1</v>
+      </c>
+      <c r="D612" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="613" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A613" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B613">
+        <v>27</v>
+      </c>
+      <c r="C613">
+        <v>1</v>
+      </c>
+      <c r="D613" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="614" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A614" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B614">
+        <v>27</v>
+      </c>
+      <c r="C614">
+        <v>1</v>
+      </c>
+      <c r="D614" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="615" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A615" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B615">
+        <v>27</v>
+      </c>
+      <c r="C615">
+        <v>1</v>
+      </c>
+      <c r="D615" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="616" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A616" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B616">
+        <v>27</v>
+      </c>
+      <c r="C616">
+        <v>1</v>
+      </c>
+      <c r="D616" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="617" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A617" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B617">
+        <v>27</v>
+      </c>
+      <c r="C617">
+        <v>2</v>
+      </c>
+      <c r="D617" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="618" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A618" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B618">
+        <v>27</v>
+      </c>
+      <c r="C618">
+        <v>2</v>
+      </c>
+      <c r="D618" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="619" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A619" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B619">
+        <v>27</v>
+      </c>
+      <c r="C619">
+        <v>2</v>
+      </c>
+      <c r="D619" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="620" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A620" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B620">
+        <v>27</v>
+      </c>
+      <c r="C620">
+        <v>2</v>
+      </c>
+      <c r="D620" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="621" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A621" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B621">
+        <v>27</v>
+      </c>
+      <c r="C621">
+        <v>1</v>
+      </c>
+      <c r="D621" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="622" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A622" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B622">
+        <v>27</v>
+      </c>
+      <c r="C622">
+        <v>1</v>
+      </c>
+      <c r="D622" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="623" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A623" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B623">
+        <v>27</v>
+      </c>
+      <c r="C623">
+        <v>1</v>
+      </c>
+      <c r="D623" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="624" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A624" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B624">
+        <v>27</v>
+      </c>
+      <c r="C624">
+        <v>1</v>
+      </c>
+      <c r="D624" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="625" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A625" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B625">
+        <v>27</v>
+      </c>
+      <c r="C625">
+        <v>1</v>
+      </c>
+      <c r="D625" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="626" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A626" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B626">
+        <v>27</v>
+      </c>
+      <c r="C626">
+        <v>1</v>
+      </c>
+      <c r="D626" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="627" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A627" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B627">
+        <v>27</v>
+      </c>
+      <c r="C627">
+        <v>1</v>
+      </c>
+      <c r="D627" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="628" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A628" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B628">
+        <v>27</v>
+      </c>
+      <c r="C628">
+        <v>1</v>
+      </c>
+      <c r="D628" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="629" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A629" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B629">
+        <v>27</v>
+      </c>
+      <c r="C629">
+        <v>1</v>
+      </c>
+      <c r="D629" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="630" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A630" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B630">
+        <v>27</v>
+      </c>
+      <c r="C630">
+        <v>1</v>
+      </c>
+      <c r="D630" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="631" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A631" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B631">
+        <v>27</v>
+      </c>
+      <c r="C631">
+        <v>1</v>
+      </c>
+      <c r="D631" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="632" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A632" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B632">
+        <v>27</v>
+      </c>
+      <c r="C632">
+        <v>2</v>
+      </c>
+      <c r="D632" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="633" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A633" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B633">
+        <v>27</v>
+      </c>
+      <c r="C633">
+        <v>1</v>
+      </c>
+      <c r="D633" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="634" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A634" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B634">
+        <v>27</v>
+      </c>
+      <c r="C634">
+        <v>1</v>
+      </c>
+      <c r="D634" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="635" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A635" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B635">
+        <v>27</v>
+      </c>
+      <c r="C635">
+        <v>1</v>
+      </c>
+      <c r="D635" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="636" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A636" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B636">
+        <v>27</v>
+      </c>
+      <c r="C636">
+        <v>1</v>
+      </c>
+      <c r="D636" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="637" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A637" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B637">
+        <v>27</v>
+      </c>
+      <c r="C637">
+        <v>1</v>
+      </c>
+      <c r="D637" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="638" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A638" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B638">
+        <v>27</v>
+      </c>
+      <c r="C638">
+        <v>1</v>
+      </c>
+      <c r="D638" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="639" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A639" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B639">
+        <v>27</v>
+      </c>
+      <c r="C639">
+        <v>1</v>
+      </c>
+      <c r="D639" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="640" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A640" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B640">
+        <v>27</v>
+      </c>
+      <c r="C640">
+        <v>1</v>
+      </c>
+      <c r="D640" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="641" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A641" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B641">
+        <v>27</v>
+      </c>
+      <c r="C641">
+        <v>1</v>
+      </c>
+      <c r="D641" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="642" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A642" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B642">
+        <v>27</v>
+      </c>
+      <c r="C642">
+        <v>1</v>
+      </c>
+      <c r="D642" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="643" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A643" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B643">
+        <v>27</v>
+      </c>
+      <c r="C643">
+        <v>1</v>
+      </c>
+      <c r="D643" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="644" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A644" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B644">
+        <v>27</v>
+      </c>
+      <c r="C644">
+        <v>1</v>
+      </c>
+      <c r="D644" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="645" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A645" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B645">
+        <v>27</v>
+      </c>
+      <c r="C645">
+        <v>1</v>
+      </c>
+      <c r="D645" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="646" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A646" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B646">
+        <v>27</v>
+      </c>
+      <c r="C646">
+        <v>1</v>
+      </c>
+      <c r="D646" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="647" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A647" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B647">
+        <v>27</v>
+      </c>
+      <c r="C647">
+        <v>1</v>
+      </c>
+      <c r="D647" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="648" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A648" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B648">
+        <v>27</v>
+      </c>
+      <c r="C648">
+        <v>1</v>
+      </c>
+      <c r="D648" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="649" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A649" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B649">
+        <v>27</v>
+      </c>
+      <c r="C649">
+        <v>3</v>
+      </c>
+      <c r="D649" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="650" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A650" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B650">
+        <v>27</v>
+      </c>
+      <c r="C650">
+        <v>1</v>
+      </c>
+      <c r="D650" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="651" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A651" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B651">
+        <v>27</v>
+      </c>
+      <c r="C651">
+        <v>1</v>
+      </c>
+      <c r="D651" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="652" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A652" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B652">
+        <v>27</v>
+      </c>
+      <c r="C652">
+        <v>1</v>
+      </c>
+      <c r="D652" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="653" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A653" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B653">
+        <v>27</v>
+      </c>
+      <c r="C653">
+        <v>1</v>
+      </c>
+      <c r="D653" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="654" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A654" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B654">
+        <v>10</v>
+      </c>
+      <c r="C654">
+        <v>1</v>
+      </c>
+      <c r="D654" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="655" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A655" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B655">
+        <v>10</v>
+      </c>
+      <c r="C655">
+        <v>2</v>
+      </c>
+      <c r="D655" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="656" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A656" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B656">
+        <v>10</v>
+      </c>
+      <c r="C656">
+        <v>1</v>
+      </c>
+      <c r="D656" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="657" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A657" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B657">
+        <v>10</v>
+      </c>
+      <c r="C657">
+        <v>1</v>
+      </c>
+      <c r="D657" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="658" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A658" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B658">
+        <v>10</v>
+      </c>
+      <c r="C658">
+        <v>1</v>
+      </c>
+      <c r="D658" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="659" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A659" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B659">
+        <v>10</v>
+      </c>
+      <c r="C659">
+        <v>1</v>
+      </c>
+      <c r="D659" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="660" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A660" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B660">
+        <v>10</v>
+      </c>
+      <c r="C660">
+        <v>1</v>
+      </c>
+      <c r="D660" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="661" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A661" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B661">
+        <v>10</v>
+      </c>
+      <c r="C661">
+        <v>1</v>
+      </c>
+      <c r="D661" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="662" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A662" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B662">
+        <v>10</v>
+      </c>
+      <c r="C662">
+        <v>1</v>
+      </c>
+      <c r="D662" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="663" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A663" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B663">
+        <v>10</v>
+      </c>
+      <c r="C663">
+        <v>1</v>
+      </c>
+      <c r="D663" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="664" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A664" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B664">
+        <v>10</v>
+      </c>
+      <c r="C664">
+        <v>2</v>
+      </c>
+      <c r="D664" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="665" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A665" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B665">
+        <v>10</v>
+      </c>
+      <c r="C665">
+        <v>2</v>
+      </c>
+      <c r="D665" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="666" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A666" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B666">
+        <v>10</v>
+      </c>
+      <c r="C666">
+        <v>2</v>
+      </c>
+      <c r="D666" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="667" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A667" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B667">
+        <v>10</v>
+      </c>
+      <c r="C667">
+        <v>1</v>
+      </c>
+      <c r="D667" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="668" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A668" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B668">
+        <v>10</v>
+      </c>
+      <c r="C668">
+        <v>1</v>
+      </c>
+      <c r="D668" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="669" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A669" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B669">
+        <v>10</v>
+      </c>
+      <c r="C669">
+        <v>1</v>
+      </c>
+      <c r="D669" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="670" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A670" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B670">
+        <v>10</v>
+      </c>
+      <c r="C670">
+        <v>1</v>
+      </c>
+      <c r="D670" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="671" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A671" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B671">
+        <v>10</v>
+      </c>
+      <c r="C671">
+        <v>1</v>
+      </c>
+      <c r="D671" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="672" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A672" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B672">
+        <v>10</v>
+      </c>
+      <c r="C672">
+        <v>1</v>
+      </c>
+      <c r="D672" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="673" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A673" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B673">
+        <v>10</v>
+      </c>
+      <c r="C673">
+        <v>1</v>
+      </c>
+      <c r="D673" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="674" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A674" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B674">
+        <v>10</v>
+      </c>
+      <c r="C674">
+        <v>1</v>
+      </c>
+      <c r="D674" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="675" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A675" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B675">
+        <v>10</v>
+      </c>
+      <c r="C675">
+        <v>3</v>
+      </c>
+      <c r="D675" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="676" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A676" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B676">
+        <v>45</v>
+      </c>
+      <c r="C676">
+        <v>1</v>
+      </c>
+      <c r="D676" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="677" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A677" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B677">
+        <v>45</v>
+      </c>
+      <c r="C677">
+        <v>1</v>
+      </c>
+      <c r="D677" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="678" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A678" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B678">
+        <v>45</v>
+      </c>
+      <c r="C678">
+        <v>1</v>
+      </c>
+      <c r="D678" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="679" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A679" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B679">
+        <v>45</v>
+      </c>
+      <c r="C679">
+        <v>4</v>
+      </c>
+      <c r="D679" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="680" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A680" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B680">
+        <v>45</v>
+      </c>
+      <c r="C680">
+        <v>1</v>
+      </c>
+      <c r="D680" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="681" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A681" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B681">
+        <v>45</v>
+      </c>
+      <c r="C681">
+        <v>1</v>
+      </c>
+      <c r="D681" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="682" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A682" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B682">
+        <v>45</v>
+      </c>
+      <c r="C682">
+        <v>1</v>
+      </c>
+      <c r="D682" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="683" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A683" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B683">
+        <v>45</v>
+      </c>
+      <c r="C683">
+        <v>1</v>
+      </c>
+      <c r="D683" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="684" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A684" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B684">
+        <v>45</v>
+      </c>
+      <c r="C684">
+        <v>4</v>
+      </c>
+      <c r="D684" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="685" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A685" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B685">
+        <v>45</v>
+      </c>
+      <c r="C685">
+        <v>1</v>
+      </c>
+      <c r="D685" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="686" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A686" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B686">
+        <v>45</v>
+      </c>
+      <c r="C686">
+        <v>3</v>
+      </c>
+      <c r="D686" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="687" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A687" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B687">
+        <v>45</v>
+      </c>
+      <c r="C687">
+        <v>1</v>
+      </c>
+      <c r="D687" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="688" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A688" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B688">
+        <v>45</v>
+      </c>
+      <c r="C688">
+        <v>1</v>
+      </c>
+      <c r="D688" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="689" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A689" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B689">
+        <v>45</v>
+      </c>
+      <c r="C689">
+        <v>1</v>
+      </c>
+      <c r="D689" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="690" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A690" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B690">
+        <v>45</v>
+      </c>
+      <c r="C690">
+        <v>1</v>
+      </c>
+      <c r="D690" t="s">
+        <v>1349</v>
       </c>
     </row>
   </sheetData>

--- a/catalogsList/05072021/forestry.xlsx
+++ b/catalogsList/05072021/forestry.xlsx
@@ -11,12 +11,15 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$D$719</definedName>
+  </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1406" uniqueCount="1350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1638" uniqueCount="1577">
   <si>
     <t>id</t>
   </si>
@@ -4066,6 +4069,687 @@
   </si>
   <si>
     <t>Юргамышское</t>
+  </si>
+  <si>
+    <t>Альметьевское</t>
+  </si>
+  <si>
+    <t>Арское</t>
+  </si>
+  <si>
+    <t>Бавлинское</t>
+  </si>
+  <si>
+    <t>Билярское</t>
+  </si>
+  <si>
+    <t>Болгарское</t>
+  </si>
+  <si>
+    <t>Бугульминское</t>
+  </si>
+  <si>
+    <t>Буинское</t>
+  </si>
+  <si>
+    <t>Волжско-Камский заповедник</t>
+  </si>
+  <si>
+    <t>Елабужское</t>
+  </si>
+  <si>
+    <t>Заинское</t>
+  </si>
+  <si>
+    <t>Зеленодольское</t>
+  </si>
+  <si>
+    <t>Ислейтарское</t>
+  </si>
+  <si>
+    <t>Кайбицкое</t>
+  </si>
+  <si>
+    <t>Калейкинское</t>
+  </si>
+  <si>
+    <t>Камское</t>
+  </si>
+  <si>
+    <t>Кзыл-Юлдузское</t>
+  </si>
+  <si>
+    <t>Лаишевское</t>
+  </si>
+  <si>
+    <t>Лениногорское</t>
+  </si>
+  <si>
+    <t>Лубянское</t>
+  </si>
+  <si>
+    <t>Мамадышское</t>
+  </si>
+  <si>
+    <t>Мензелинское</t>
+  </si>
+  <si>
+    <t>«Национальный парк «Нижняя Кама»</t>
+  </si>
+  <si>
+    <t>Нижнекамское</t>
+  </si>
+  <si>
+    <t>Нурлатское</t>
+  </si>
+  <si>
+    <t>Приволжское</t>
+  </si>
+  <si>
+    <t>Пригородное</t>
+  </si>
+  <si>
+    <t>Сабинское</t>
+  </si>
+  <si>
+    <t>Тетюшское</t>
+  </si>
+  <si>
+    <t>Черемшанское</t>
+  </si>
+  <si>
+    <t>G_00641</t>
+  </si>
+  <si>
+    <t>G_00642</t>
+  </si>
+  <si>
+    <t>G_00643</t>
+  </si>
+  <si>
+    <t>G_00644</t>
+  </si>
+  <si>
+    <t>G_00655</t>
+  </si>
+  <si>
+    <t>G_00645</t>
+  </si>
+  <si>
+    <t>G_00646</t>
+  </si>
+  <si>
+    <t>P_163</t>
+  </si>
+  <si>
+    <t>G_00647</t>
+  </si>
+  <si>
+    <t>G_00648</t>
+  </si>
+  <si>
+    <t>G_00649</t>
+  </si>
+  <si>
+    <t>G_00650</t>
+  </si>
+  <si>
+    <t>G_00652</t>
+  </si>
+  <si>
+    <t>G_00654</t>
+  </si>
+  <si>
+    <t>G_00651</t>
+  </si>
+  <si>
+    <t>G_00653</t>
+  </si>
+  <si>
+    <t>G_00656</t>
+  </si>
+  <si>
+    <t>G_00657</t>
+  </si>
+  <si>
+    <t>G_01601</t>
+  </si>
+  <si>
+    <t>G_00658</t>
+  </si>
+  <si>
+    <t>G_00659</t>
+  </si>
+  <si>
+    <t>P_67</t>
+  </si>
+  <si>
+    <t>G_00661</t>
+  </si>
+  <si>
+    <t>G_00662</t>
+  </si>
+  <si>
+    <t>G_00663</t>
+  </si>
+  <si>
+    <t>G_00664</t>
+  </si>
+  <si>
+    <t>G_00665</t>
+  </si>
+  <si>
+    <t>G_00666</t>
+  </si>
+  <si>
+    <t>G_00667</t>
+  </si>
+  <si>
+    <t>G_01551</t>
+  </si>
+  <si>
+    <t>Бокситогорское</t>
+  </si>
+  <si>
+    <t>G_01547</t>
+  </si>
+  <si>
+    <t>Волосовское</t>
+  </si>
+  <si>
+    <t>G_01544</t>
+  </si>
+  <si>
+    <t>Волховское </t>
+  </si>
+  <si>
+    <t>G_01572</t>
+  </si>
+  <si>
+    <t>Всеволожское</t>
+  </si>
+  <si>
+    <t>G_01548</t>
+  </si>
+  <si>
+    <t>Гатчинское</t>
+  </si>
+  <si>
+    <t>G_01546</t>
+  </si>
+  <si>
+    <t>Кингисеппское</t>
+  </si>
+  <si>
+    <t>G_01550</t>
+  </si>
+  <si>
+    <t>Киришское</t>
+  </si>
+  <si>
+    <t>G_01543</t>
+  </si>
+  <si>
+    <t>G_01541</t>
+  </si>
+  <si>
+    <t>Лодейнопольское</t>
+  </si>
+  <si>
+    <t>G_01542</t>
+  </si>
+  <si>
+    <t>Ломоносовское</t>
+  </si>
+  <si>
+    <t>G_01553</t>
+  </si>
+  <si>
+    <t>Лужское</t>
+  </si>
+  <si>
+    <t>P_50</t>
+  </si>
+  <si>
+    <t>Лужское (Ленинградская область)</t>
+  </si>
+  <si>
+    <t>G_01549</t>
+  </si>
+  <si>
+    <t>Любанское</t>
+  </si>
+  <si>
+    <t>P_16</t>
+  </si>
+  <si>
+    <t>Морозовское (Ленинградская область)</t>
+  </si>
+  <si>
+    <t>G_01539</t>
+  </si>
+  <si>
+    <t>Подпорожское</t>
+  </si>
+  <si>
+    <t>G_01538</t>
+  </si>
+  <si>
+    <t>Приозерское</t>
+  </si>
+  <si>
+    <t>G_01537</t>
+  </si>
+  <si>
+    <t>G_01536</t>
+  </si>
+  <si>
+    <t>Северо-Западное</t>
+  </si>
+  <si>
+    <t>G_01552</t>
+  </si>
+  <si>
+    <t>Сланцевское</t>
+  </si>
+  <si>
+    <t>G_01545</t>
+  </si>
+  <si>
+    <t>Тихвинское</t>
+  </si>
+  <si>
+    <t>G_01554</t>
+  </si>
+  <si>
+    <t>Учебно-опытное</t>
+  </si>
+  <si>
+    <t>P_197</t>
+  </si>
+  <si>
+    <t>P_263</t>
+  </si>
+  <si>
+    <t>Хвойное (Ленинградская область)</t>
+  </si>
+  <si>
+    <t>G_01330</t>
+  </si>
+  <si>
+    <t>Боровское</t>
+  </si>
+  <si>
+    <t>P_248</t>
+  </si>
+  <si>
+    <t>Брянское (Калужская область)</t>
+  </si>
+  <si>
+    <t>G_01331</t>
+  </si>
+  <si>
+    <t>G_01332</t>
+  </si>
+  <si>
+    <t>Думиничское</t>
+  </si>
+  <si>
+    <t>G_01333</t>
+  </si>
+  <si>
+    <t>Еленское</t>
+  </si>
+  <si>
+    <t>G_01334</t>
+  </si>
+  <si>
+    <t>Жиздринское</t>
+  </si>
+  <si>
+    <t>G_01335</t>
+  </si>
+  <si>
+    <t>Жуковское</t>
+  </si>
+  <si>
+    <t>P_139</t>
+  </si>
+  <si>
+    <t>Заповедник "Калужские засеки"</t>
+  </si>
+  <si>
+    <t>G_01344</t>
+  </si>
+  <si>
+    <t>Износковское</t>
+  </si>
+  <si>
+    <t>G_01336</t>
+  </si>
+  <si>
+    <t>Калужское</t>
+  </si>
+  <si>
+    <t>G_01339</t>
+  </si>
+  <si>
+    <t>Козельское</t>
+  </si>
+  <si>
+    <t>G_01337</t>
+  </si>
+  <si>
+    <t>Куйбышевское</t>
+  </si>
+  <si>
+    <t>P_224</t>
+  </si>
+  <si>
+    <t>Леса муниципального образования "Город Обнинск"</t>
+  </si>
+  <si>
+    <t>G_01341</t>
+  </si>
+  <si>
+    <t>Людиновское</t>
+  </si>
+  <si>
+    <t>G_01342</t>
+  </si>
+  <si>
+    <t>Малоярославецкое</t>
+  </si>
+  <si>
+    <t>G_01343</t>
+  </si>
+  <si>
+    <t>Медынское</t>
+  </si>
+  <si>
+    <t>G_01345</t>
+  </si>
+  <si>
+    <t>Мещовское</t>
+  </si>
+  <si>
+    <t>P_255</t>
+  </si>
+  <si>
+    <t>Московское (Калужская область)</t>
+  </si>
+  <si>
+    <t>P_148</t>
+  </si>
+  <si>
+    <t>Национальный парк "Угра"</t>
+  </si>
+  <si>
+    <t>G_01338</t>
+  </si>
+  <si>
+    <t>Спас-Деменское</t>
+  </si>
+  <si>
+    <t>G_01346</t>
+  </si>
+  <si>
+    <t>Ульяновское</t>
+  </si>
+  <si>
+    <t>G_01347</t>
+  </si>
+  <si>
+    <t>Ферзиковское</t>
+  </si>
+  <si>
+    <t>G_01348</t>
+  </si>
+  <si>
+    <t>Юхновское</t>
+  </si>
+  <si>
+    <t>G_00125</t>
+  </si>
+  <si>
+    <t>Арзамасское межрайонное</t>
+  </si>
+  <si>
+    <t>G_00126</t>
+  </si>
+  <si>
+    <t>Балахнинское межрайонное</t>
+  </si>
+  <si>
+    <t>G_00127</t>
+  </si>
+  <si>
+    <t>Богородское районное</t>
+  </si>
+  <si>
+    <t>G_00128</t>
+  </si>
+  <si>
+    <t>Борское районное</t>
+  </si>
+  <si>
+    <t>G_00129</t>
+  </si>
+  <si>
+    <t>Бутурлинское межрайонное</t>
+  </si>
+  <si>
+    <t>G_00130</t>
+  </si>
+  <si>
+    <t>Варнавинское районное</t>
+  </si>
+  <si>
+    <t>G_00131</t>
+  </si>
+  <si>
+    <t>Вачское районное</t>
+  </si>
+  <si>
+    <t>G_00132</t>
+  </si>
+  <si>
+    <t>Ветлужское районное</t>
+  </si>
+  <si>
+    <t>G_00133</t>
+  </si>
+  <si>
+    <t>Вознесенское межрайонное</t>
+  </si>
+  <si>
+    <t>G_00134</t>
+  </si>
+  <si>
+    <t>Воскресенское районное</t>
+  </si>
+  <si>
+    <t>G_00135</t>
+  </si>
+  <si>
+    <t>Выксунское районное</t>
+  </si>
+  <si>
+    <t>G_00136</t>
+  </si>
+  <si>
+    <t>Городецкое межрайонное</t>
+  </si>
+  <si>
+    <t>P_235</t>
+  </si>
+  <si>
+    <t>P_13</t>
+  </si>
+  <si>
+    <t>Гороховецкое (Нижегородская область)</t>
+  </si>
+  <si>
+    <t>G_00138</t>
+  </si>
+  <si>
+    <t>Дальнеконстантиновское районное</t>
+  </si>
+  <si>
+    <t>P_215</t>
+  </si>
+  <si>
+    <t>Дзержинское городское</t>
+  </si>
+  <si>
+    <t>P_155</t>
+  </si>
+  <si>
+    <t>Заповедник "Керженский"</t>
+  </si>
+  <si>
+    <t>G_00141</t>
+  </si>
+  <si>
+    <t>Ковернинское районное</t>
+  </si>
+  <si>
+    <t>G_00142</t>
+  </si>
+  <si>
+    <t>Краснобаковское районное</t>
+  </si>
+  <si>
+    <t>P_12</t>
+  </si>
+  <si>
+    <t>Кстовское районное</t>
+  </si>
+  <si>
+    <t>G_00143</t>
+  </si>
+  <si>
+    <t>Кулебакское районное</t>
+  </si>
+  <si>
+    <t>G_00144</t>
+  </si>
+  <si>
+    <t>Лысковское межрайонное</t>
+  </si>
+  <si>
+    <t>G_00145</t>
+  </si>
+  <si>
+    <t>Михайловское районное</t>
+  </si>
+  <si>
+    <t>G_00146</t>
+  </si>
+  <si>
+    <t>Мухтоловское межрайонное</t>
+  </si>
+  <si>
+    <t>G_00147</t>
+  </si>
+  <si>
+    <t>Навашинское районное</t>
+  </si>
+  <si>
+    <t>P_218</t>
+  </si>
+  <si>
+    <t>Нижегородское городское</t>
+  </si>
+  <si>
+    <t>G_00148</t>
+  </si>
+  <si>
+    <t>Павловское районное</t>
+  </si>
+  <si>
+    <t>G_00149</t>
+  </si>
+  <si>
+    <t>Первомайское районное</t>
+  </si>
+  <si>
+    <t>G_00150</t>
+  </si>
+  <si>
+    <t>Пижемское районное</t>
+  </si>
+  <si>
+    <t>G_00151</t>
+  </si>
+  <si>
+    <t>Починковское межрайонное</t>
+  </si>
+  <si>
+    <t>G_00152</t>
+  </si>
+  <si>
+    <t>Разинское районное</t>
+  </si>
+  <si>
+    <t>G_00153</t>
+  </si>
+  <si>
+    <t>Семеновское районное</t>
+  </si>
+  <si>
+    <t>G_00154</t>
+  </si>
+  <si>
+    <t>Сергачское межрайонное</t>
+  </si>
+  <si>
+    <t>G_00156</t>
+  </si>
+  <si>
+    <t>Сокольское районное</t>
+  </si>
+  <si>
+    <t>G_00155</t>
+  </si>
+  <si>
+    <t>Сосновское районное</t>
+  </si>
+  <si>
+    <t>P_267</t>
+  </si>
+  <si>
+    <t>СХЗ Нижегородской области</t>
+  </si>
+  <si>
+    <t>G_00157</t>
+  </si>
+  <si>
+    <t>Тонкинское районное</t>
+  </si>
+  <si>
+    <t>G_00158</t>
+  </si>
+  <si>
+    <t>Уренское районное</t>
+  </si>
+  <si>
+    <t>G_00162</t>
+  </si>
+  <si>
+    <t>Шарангское районное</t>
+  </si>
+  <si>
+    <t>G_00161</t>
+  </si>
+  <si>
+    <t>Шатковское районное</t>
+  </si>
+  <si>
+    <t>G_00159</t>
+  </si>
+  <si>
+    <t>Шахунское районное</t>
   </si>
 </sst>
 </file>
@@ -4425,17 +5109,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D690"/>
+  <dimension ref="A1:D806"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A660" workbookViewId="0">
-      <selection activeCell="E677" sqref="E677"/>
+    <sheetView tabSelected="1" topLeftCell="A751" workbookViewId="0">
+      <selection activeCell="F764" sqref="F764"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" customWidth="1"/>
     <col min="4" max="4" width="62" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -14097,6 +14781,1630 @@
       </c>
       <c r="D690" t="s">
         <v>1349</v>
+      </c>
+    </row>
+    <row r="691" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A691" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B691">
+        <v>16</v>
+      </c>
+      <c r="C691">
+        <v>1</v>
+      </c>
+      <c r="D691" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="692" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A692" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B692">
+        <v>16</v>
+      </c>
+      <c r="C692">
+        <v>1</v>
+      </c>
+      <c r="D692" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="693" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A693" t="s">
+        <v>1381</v>
+      </c>
+      <c r="B693">
+        <v>16</v>
+      </c>
+      <c r="C693">
+        <v>1</v>
+      </c>
+      <c r="D693" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="694" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A694" t="s">
+        <v>1382</v>
+      </c>
+      <c r="B694">
+        <v>16</v>
+      </c>
+      <c r="C694">
+        <v>1</v>
+      </c>
+      <c r="D694" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="695" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A695" t="s">
+        <v>1383</v>
+      </c>
+      <c r="B695">
+        <v>16</v>
+      </c>
+      <c r="C695">
+        <v>1</v>
+      </c>
+      <c r="D695" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="696" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A696" t="s">
+        <v>1384</v>
+      </c>
+      <c r="B696">
+        <v>16</v>
+      </c>
+      <c r="C696">
+        <v>1</v>
+      </c>
+      <c r="D696" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="697" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A697" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B697">
+        <v>16</v>
+      </c>
+      <c r="C697">
+        <v>1</v>
+      </c>
+      <c r="D697" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="698" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A698" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B698">
+        <v>16</v>
+      </c>
+      <c r="C698">
+        <v>2</v>
+      </c>
+      <c r="D698" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="699" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A699" t="s">
+        <v>1387</v>
+      </c>
+      <c r="B699">
+        <v>16</v>
+      </c>
+      <c r="C699">
+        <v>1</v>
+      </c>
+      <c r="D699" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="700" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A700" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B700">
+        <v>16</v>
+      </c>
+      <c r="C700">
+        <v>1</v>
+      </c>
+      <c r="D700" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="701" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A701" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B701">
+        <v>16</v>
+      </c>
+      <c r="C701">
+        <v>1</v>
+      </c>
+      <c r="D701" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="702" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A702" t="s">
+        <v>1390</v>
+      </c>
+      <c r="B702">
+        <v>16</v>
+      </c>
+      <c r="C702">
+        <v>1</v>
+      </c>
+      <c r="D702" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="703" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A703" t="s">
+        <v>1391</v>
+      </c>
+      <c r="B703">
+        <v>16</v>
+      </c>
+      <c r="C703">
+        <v>1</v>
+      </c>
+      <c r="D703" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="704" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A704" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B704">
+        <v>16</v>
+      </c>
+      <c r="C704">
+        <v>1</v>
+      </c>
+      <c r="D704" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="705" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A705" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B705">
+        <v>16</v>
+      </c>
+      <c r="C705">
+        <v>1</v>
+      </c>
+      <c r="D705" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="706" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A706" t="s">
+        <v>1394</v>
+      </c>
+      <c r="B706">
+        <v>16</v>
+      </c>
+      <c r="C706">
+        <v>1</v>
+      </c>
+      <c r="D706" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="707" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A707" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B707">
+        <v>16</v>
+      </c>
+      <c r="C707">
+        <v>1</v>
+      </c>
+      <c r="D707" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="708" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A708" t="s">
+        <v>1396</v>
+      </c>
+      <c r="B708">
+        <v>16</v>
+      </c>
+      <c r="C708">
+        <v>1</v>
+      </c>
+      <c r="D708" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="709" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A709" t="s">
+        <v>1397</v>
+      </c>
+      <c r="B709">
+        <v>16</v>
+      </c>
+      <c r="C709">
+        <v>1</v>
+      </c>
+      <c r="D709" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="710" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A710" t="s">
+        <v>1398</v>
+      </c>
+      <c r="B710">
+        <v>16</v>
+      </c>
+      <c r="C710">
+        <v>1</v>
+      </c>
+      <c r="D710" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="711" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A711" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B711">
+        <v>16</v>
+      </c>
+      <c r="C711">
+        <v>1</v>
+      </c>
+      <c r="D711" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="712" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A712" t="s">
+        <v>1400</v>
+      </c>
+      <c r="B712">
+        <v>16</v>
+      </c>
+      <c r="C712">
+        <v>2</v>
+      </c>
+      <c r="D712" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="713" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A713" t="s">
+        <v>1401</v>
+      </c>
+      <c r="B713">
+        <v>16</v>
+      </c>
+      <c r="C713">
+        <v>1</v>
+      </c>
+      <c r="D713" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="714" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A714" t="s">
+        <v>1402</v>
+      </c>
+      <c r="B714">
+        <v>16</v>
+      </c>
+      <c r="C714">
+        <v>1</v>
+      </c>
+      <c r="D714" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="715" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A715" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B715">
+        <v>16</v>
+      </c>
+      <c r="C715">
+        <v>1</v>
+      </c>
+      <c r="D715" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="716" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A716" t="s">
+        <v>1404</v>
+      </c>
+      <c r="B716">
+        <v>16</v>
+      </c>
+      <c r="C716">
+        <v>1</v>
+      </c>
+      <c r="D716" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="717" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A717" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B717">
+        <v>16</v>
+      </c>
+      <c r="C717">
+        <v>1</v>
+      </c>
+      <c r="D717" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="718" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A718" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B718">
+        <v>16</v>
+      </c>
+      <c r="C718">
+        <v>1</v>
+      </c>
+      <c r="D718" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="719" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A719" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B719">
+        <v>16</v>
+      </c>
+      <c r="C719">
+        <v>1</v>
+      </c>
+      <c r="D719" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="720" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A720" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B720">
+        <v>47</v>
+      </c>
+      <c r="C720">
+        <v>1</v>
+      </c>
+      <c r="D720" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="721" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A721" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B721">
+        <v>47</v>
+      </c>
+      <c r="C721">
+        <v>1</v>
+      </c>
+      <c r="D721" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="722" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A722" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B722">
+        <v>47</v>
+      </c>
+      <c r="C722">
+        <v>1</v>
+      </c>
+      <c r="D722" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="723" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A723" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B723">
+        <v>47</v>
+      </c>
+      <c r="C723">
+        <v>1</v>
+      </c>
+      <c r="D723" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="724" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A724" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B724">
+        <v>47</v>
+      </c>
+      <c r="C724">
+        <v>1</v>
+      </c>
+      <c r="D724" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="725" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A725" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B725">
+        <v>47</v>
+      </c>
+      <c r="C725">
+        <v>1</v>
+      </c>
+      <c r="D725" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="726" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A726" t="s">
+        <v>1420</v>
+      </c>
+      <c r="B726">
+        <v>47</v>
+      </c>
+      <c r="C726">
+        <v>1</v>
+      </c>
+      <c r="D726" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="727" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A727" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B727">
+        <v>47</v>
+      </c>
+      <c r="C727">
+        <v>1</v>
+      </c>
+      <c r="D727" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="728" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A728" t="s">
+        <v>1423</v>
+      </c>
+      <c r="B728">
+        <v>47</v>
+      </c>
+      <c r="C728">
+        <v>1</v>
+      </c>
+      <c r="D728" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="729" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A729" t="s">
+        <v>1425</v>
+      </c>
+      <c r="B729">
+        <v>47</v>
+      </c>
+      <c r="C729">
+        <v>1</v>
+      </c>
+      <c r="D729" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="730" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A730" t="s">
+        <v>1427</v>
+      </c>
+      <c r="B730">
+        <v>47</v>
+      </c>
+      <c r="C730">
+        <v>1</v>
+      </c>
+      <c r="D730" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="731" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A731" t="s">
+        <v>1429</v>
+      </c>
+      <c r="B731">
+        <v>47</v>
+      </c>
+      <c r="C731">
+        <v>3</v>
+      </c>
+      <c r="D731" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="732" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A732" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B732">
+        <v>47</v>
+      </c>
+      <c r="C732">
+        <v>1</v>
+      </c>
+      <c r="D732" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="733" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A733" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B733">
+        <v>47</v>
+      </c>
+      <c r="C733">
+        <v>3</v>
+      </c>
+      <c r="D733" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="734" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A734" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B734">
+        <v>47</v>
+      </c>
+      <c r="C734">
+        <v>1</v>
+      </c>
+      <c r="D734" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="735" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A735" t="s">
+        <v>1437</v>
+      </c>
+      <c r="B735">
+        <v>47</v>
+      </c>
+      <c r="C735">
+        <v>1</v>
+      </c>
+      <c r="D735" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="736" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A736" t="s">
+        <v>1439</v>
+      </c>
+      <c r="B736">
+        <v>47</v>
+      </c>
+      <c r="C736">
+        <v>1</v>
+      </c>
+      <c r="D736" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="737" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A737" t="s">
+        <v>1440</v>
+      </c>
+      <c r="B737">
+        <v>47</v>
+      </c>
+      <c r="C737">
+        <v>1</v>
+      </c>
+      <c r="D737" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="738" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A738" t="s">
+        <v>1442</v>
+      </c>
+      <c r="B738">
+        <v>47</v>
+      </c>
+      <c r="C738">
+        <v>1</v>
+      </c>
+      <c r="D738" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="739" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A739" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B739">
+        <v>47</v>
+      </c>
+      <c r="C739">
+        <v>1</v>
+      </c>
+      <c r="D739" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="740" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A740" t="s">
+        <v>1446</v>
+      </c>
+      <c r="B740">
+        <v>47</v>
+      </c>
+      <c r="C740">
+        <v>1</v>
+      </c>
+      <c r="D740" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="741" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A741" t="s">
+        <v>1448</v>
+      </c>
+      <c r="B741">
+        <v>47</v>
+      </c>
+      <c r="C741">
+        <v>3</v>
+      </c>
+      <c r="D741" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="742" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A742" t="s">
+        <v>1449</v>
+      </c>
+      <c r="B742">
+        <v>47</v>
+      </c>
+      <c r="C742">
+        <v>3</v>
+      </c>
+      <c r="D742" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="743" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A743" t="s">
+        <v>1451</v>
+      </c>
+      <c r="B743">
+        <v>40</v>
+      </c>
+      <c r="C743">
+        <v>1</v>
+      </c>
+      <c r="D743" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="744" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A744" t="s">
+        <v>1453</v>
+      </c>
+      <c r="B744">
+        <v>40</v>
+      </c>
+      <c r="C744">
+        <v>3</v>
+      </c>
+      <c r="D744" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="745" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A745" t="s">
+        <v>1455</v>
+      </c>
+      <c r="B745">
+        <v>40</v>
+      </c>
+      <c r="C745">
+        <v>1</v>
+      </c>
+      <c r="D745" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="746" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A746" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B746">
+        <v>40</v>
+      </c>
+      <c r="C746">
+        <v>1</v>
+      </c>
+      <c r="D746" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="747" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A747" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B747">
+        <v>40</v>
+      </c>
+      <c r="C747">
+        <v>1</v>
+      </c>
+      <c r="D747" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="748" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A748" t="s">
+        <v>1460</v>
+      </c>
+      <c r="B748">
+        <v>40</v>
+      </c>
+      <c r="C748">
+        <v>1</v>
+      </c>
+      <c r="D748" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="749" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A749" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B749">
+        <v>40</v>
+      </c>
+      <c r="C749">
+        <v>1</v>
+      </c>
+      <c r="D749" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="750" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A750" t="s">
+        <v>1464</v>
+      </c>
+      <c r="B750">
+        <v>40</v>
+      </c>
+      <c r="C750">
+        <v>2</v>
+      </c>
+      <c r="D750" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="751" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A751" t="s">
+        <v>1466</v>
+      </c>
+      <c r="B751">
+        <v>40</v>
+      </c>
+      <c r="C751">
+        <v>1</v>
+      </c>
+      <c r="D751" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="752" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A752" t="s">
+        <v>1468</v>
+      </c>
+      <c r="B752">
+        <v>40</v>
+      </c>
+      <c r="C752">
+        <v>1</v>
+      </c>
+      <c r="D752" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="753" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A753" t="s">
+        <v>1470</v>
+      </c>
+      <c r="B753">
+        <v>40</v>
+      </c>
+      <c r="C753">
+        <v>1</v>
+      </c>
+      <c r="D753" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="754" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A754" t="s">
+        <v>1472</v>
+      </c>
+      <c r="B754">
+        <v>40</v>
+      </c>
+      <c r="C754">
+        <v>1</v>
+      </c>
+      <c r="D754" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="755" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A755" t="s">
+        <v>1474</v>
+      </c>
+      <c r="B755">
+        <v>40</v>
+      </c>
+      <c r="C755">
+        <v>4</v>
+      </c>
+      <c r="D755" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="756" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A756" t="s">
+        <v>1476</v>
+      </c>
+      <c r="B756">
+        <v>40</v>
+      </c>
+      <c r="C756">
+        <v>1</v>
+      </c>
+      <c r="D756" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="757" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A757" t="s">
+        <v>1478</v>
+      </c>
+      <c r="B757">
+        <v>40</v>
+      </c>
+      <c r="C757">
+        <v>1</v>
+      </c>
+      <c r="D757" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="758" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A758" t="s">
+        <v>1480</v>
+      </c>
+      <c r="B758">
+        <v>40</v>
+      </c>
+      <c r="C758">
+        <v>1</v>
+      </c>
+      <c r="D758" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="759" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A759" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B759">
+        <v>40</v>
+      </c>
+      <c r="C759">
+        <v>1</v>
+      </c>
+      <c r="D759" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="760" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A760" t="s">
+        <v>1484</v>
+      </c>
+      <c r="B760">
+        <v>40</v>
+      </c>
+      <c r="C760">
+        <v>3</v>
+      </c>
+      <c r="D760" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="761" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A761" t="s">
+        <v>1486</v>
+      </c>
+      <c r="B761">
+        <v>40</v>
+      </c>
+      <c r="C761">
+        <v>2</v>
+      </c>
+      <c r="D761" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="762" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A762" t="s">
+        <v>1488</v>
+      </c>
+      <c r="B762">
+        <v>40</v>
+      </c>
+      <c r="C762">
+        <v>1</v>
+      </c>
+      <c r="D762" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="763" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A763" t="s">
+        <v>1490</v>
+      </c>
+      <c r="B763">
+        <v>40</v>
+      </c>
+      <c r="C763">
+        <v>1</v>
+      </c>
+      <c r="D763" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="764" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A764" t="s">
+        <v>1492</v>
+      </c>
+      <c r="B764">
+        <v>40</v>
+      </c>
+      <c r="C764">
+        <v>1</v>
+      </c>
+      <c r="D764" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="765" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A765" t="s">
+        <v>1494</v>
+      </c>
+      <c r="B765">
+        <v>40</v>
+      </c>
+      <c r="C765">
+        <v>1</v>
+      </c>
+      <c r="D765" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="766" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A766" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B766">
+        <v>52</v>
+      </c>
+      <c r="C766">
+        <v>1</v>
+      </c>
+      <c r="D766" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="767" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A767" t="s">
+        <v>1498</v>
+      </c>
+      <c r="B767">
+        <v>52</v>
+      </c>
+      <c r="C767">
+        <v>1</v>
+      </c>
+      <c r="D767" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="768" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A768" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B768">
+        <v>52</v>
+      </c>
+      <c r="C768">
+        <v>1</v>
+      </c>
+      <c r="D768" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="769" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A769" t="s">
+        <v>1502</v>
+      </c>
+      <c r="B769">
+        <v>52</v>
+      </c>
+      <c r="C769">
+        <v>1</v>
+      </c>
+      <c r="D769" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="770" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A770" t="s">
+        <v>1504</v>
+      </c>
+      <c r="B770">
+        <v>52</v>
+      </c>
+      <c r="C770">
+        <v>1</v>
+      </c>
+      <c r="D770" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="771" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A771" t="s">
+        <v>1506</v>
+      </c>
+      <c r="B771">
+        <v>52</v>
+      </c>
+      <c r="C771">
+        <v>1</v>
+      </c>
+      <c r="D771" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="772" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A772" t="s">
+        <v>1508</v>
+      </c>
+      <c r="B772">
+        <v>52</v>
+      </c>
+      <c r="C772">
+        <v>1</v>
+      </c>
+      <c r="D772" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="773" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A773" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B773">
+        <v>52</v>
+      </c>
+      <c r="C773">
+        <v>1</v>
+      </c>
+      <c r="D773" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="774" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A774" t="s">
+        <v>1512</v>
+      </c>
+      <c r="B774">
+        <v>52</v>
+      </c>
+      <c r="C774">
+        <v>1</v>
+      </c>
+      <c r="D774" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="775" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A775" t="s">
+        <v>1514</v>
+      </c>
+      <c r="B775">
+        <v>52</v>
+      </c>
+      <c r="C775">
+        <v>1</v>
+      </c>
+      <c r="D775" t="s">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="776" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A776" t="s">
+        <v>1516</v>
+      </c>
+      <c r="B776">
+        <v>52</v>
+      </c>
+      <c r="C776">
+        <v>1</v>
+      </c>
+      <c r="D776" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="777" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A777" t="s">
+        <v>1518</v>
+      </c>
+      <c r="B777">
+        <v>52</v>
+      </c>
+      <c r="C777">
+        <v>1</v>
+      </c>
+      <c r="D777" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="778" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A778" t="s">
+        <v>1520</v>
+      </c>
+      <c r="B778">
+        <v>52</v>
+      </c>
+      <c r="C778">
+        <v>4</v>
+      </c>
+      <c r="D778" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="779" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A779" t="s">
+        <v>1521</v>
+      </c>
+      <c r="B779">
+        <v>52</v>
+      </c>
+      <c r="C779">
+        <v>3</v>
+      </c>
+      <c r="D779" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="780" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A780" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B780">
+        <v>52</v>
+      </c>
+      <c r="C780">
+        <v>1</v>
+      </c>
+      <c r="D780" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="781" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A781" t="s">
+        <v>1525</v>
+      </c>
+      <c r="B781">
+        <v>52</v>
+      </c>
+      <c r="C781">
+        <v>4</v>
+      </c>
+      <c r="D781" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="782" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A782" t="s">
+        <v>1527</v>
+      </c>
+      <c r="B782">
+        <v>52</v>
+      </c>
+      <c r="C782">
+        <v>2</v>
+      </c>
+      <c r="D782" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="783" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A783" t="s">
+        <v>1529</v>
+      </c>
+      <c r="B783">
+        <v>52</v>
+      </c>
+      <c r="C783">
+        <v>1</v>
+      </c>
+      <c r="D783" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="784" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A784" t="s">
+        <v>1531</v>
+      </c>
+      <c r="B784">
+        <v>52</v>
+      </c>
+      <c r="C784">
+        <v>1</v>
+      </c>
+      <c r="D784" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="785" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A785" t="s">
+        <v>1533</v>
+      </c>
+      <c r="B785">
+        <v>52</v>
+      </c>
+      <c r="C785">
+        <v>1</v>
+      </c>
+      <c r="D785" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="786" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A786" t="s">
+        <v>1535</v>
+      </c>
+      <c r="B786">
+        <v>52</v>
+      </c>
+      <c r="C786">
+        <v>1</v>
+      </c>
+      <c r="D786" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="787" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A787" t="s">
+        <v>1537</v>
+      </c>
+      <c r="B787">
+        <v>52</v>
+      </c>
+      <c r="C787">
+        <v>1</v>
+      </c>
+      <c r="D787" t="s">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="788" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A788" t="s">
+        <v>1539</v>
+      </c>
+      <c r="B788">
+        <v>52</v>
+      </c>
+      <c r="C788">
+        <v>1</v>
+      </c>
+      <c r="D788" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="789" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A789" t="s">
+        <v>1541</v>
+      </c>
+      <c r="B789">
+        <v>52</v>
+      </c>
+      <c r="C789">
+        <v>1</v>
+      </c>
+      <c r="D789" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="790" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A790" t="s">
+        <v>1543</v>
+      </c>
+      <c r="B790">
+        <v>52</v>
+      </c>
+      <c r="C790">
+        <v>1</v>
+      </c>
+      <c r="D790" t="s">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="791" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A791" t="s">
+        <v>1545</v>
+      </c>
+      <c r="B791">
+        <v>52</v>
+      </c>
+      <c r="C791">
+        <v>4</v>
+      </c>
+      <c r="D791" t="s">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="792" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A792" t="s">
+        <v>1547</v>
+      </c>
+      <c r="B792">
+        <v>52</v>
+      </c>
+      <c r="C792">
+        <v>1</v>
+      </c>
+      <c r="D792" t="s">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="793" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A793" t="s">
+        <v>1549</v>
+      </c>
+      <c r="B793">
+        <v>52</v>
+      </c>
+      <c r="C793">
+        <v>1</v>
+      </c>
+      <c r="D793" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="794" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A794" t="s">
+        <v>1551</v>
+      </c>
+      <c r="B794">
+        <v>52</v>
+      </c>
+      <c r="C794">
+        <v>1</v>
+      </c>
+      <c r="D794" t="s">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="795" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A795" t="s">
+        <v>1553</v>
+      </c>
+      <c r="B795">
+        <v>52</v>
+      </c>
+      <c r="C795">
+        <v>1</v>
+      </c>
+      <c r="D795" t="s">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="796" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A796" t="s">
+        <v>1555</v>
+      </c>
+      <c r="B796">
+        <v>52</v>
+      </c>
+      <c r="C796">
+        <v>1</v>
+      </c>
+      <c r="D796" t="s">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="797" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A797" t="s">
+        <v>1557</v>
+      </c>
+      <c r="B797">
+        <v>52</v>
+      </c>
+      <c r="C797">
+        <v>1</v>
+      </c>
+      <c r="D797" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="798" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A798" t="s">
+        <v>1559</v>
+      </c>
+      <c r="B798">
+        <v>52</v>
+      </c>
+      <c r="C798">
+        <v>1</v>
+      </c>
+      <c r="D798" t="s">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="799" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A799" t="s">
+        <v>1561</v>
+      </c>
+      <c r="B799">
+        <v>52</v>
+      </c>
+      <c r="C799">
+        <v>1</v>
+      </c>
+      <c r="D799" t="s">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="800" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A800" t="s">
+        <v>1563</v>
+      </c>
+      <c r="B800">
+        <v>52</v>
+      </c>
+      <c r="C800">
+        <v>1</v>
+      </c>
+      <c r="D800" t="s">
+        <v>1564</v>
+      </c>
+    </row>
+    <row r="801" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A801" t="s">
+        <v>1565</v>
+      </c>
+      <c r="B801">
+        <v>52</v>
+      </c>
+      <c r="C801">
+        <v>5</v>
+      </c>
+      <c r="D801" t="s">
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="802" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A802" t="s">
+        <v>1567</v>
+      </c>
+      <c r="B802">
+        <v>52</v>
+      </c>
+      <c r="C802">
+        <v>1</v>
+      </c>
+      <c r="D802" t="s">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="803" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A803" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B803">
+        <v>52</v>
+      </c>
+      <c r="C803">
+        <v>1</v>
+      </c>
+      <c r="D803" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="804" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A804" t="s">
+        <v>1571</v>
+      </c>
+      <c r="B804">
+        <v>52</v>
+      </c>
+      <c r="C804">
+        <v>1</v>
+      </c>
+      <c r="D804" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="805" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A805" t="s">
+        <v>1573</v>
+      </c>
+      <c r="B805">
+        <v>52</v>
+      </c>
+      <c r="C805">
+        <v>1</v>
+      </c>
+      <c r="D805" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="806" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A806" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B806">
+        <v>52</v>
+      </c>
+      <c r="C806">
+        <v>1</v>
+      </c>
+      <c r="D806" t="s">
+        <v>1576</v>
       </c>
     </row>
   </sheetData>
